--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -396,6 +396,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -412,12 +418,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -525,10 +525,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -542,25 +545,22 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -569,20 +569,23 @@
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,9 +897,9 @@
   <cols>
     <col min="1" max="1" style="18" width="2.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="19" width="5.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="51.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="48.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="51.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="48.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
@@ -915,57 +918,57 @@
     <col min="21" max="21" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="32.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="32.25" customFormat="1" s="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="64.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25" customFormat="1" s="6">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -988,7 +991,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A4" s="7"/>
       <c r="B4" s="11" t="s">
         <v>2</v>
@@ -1019,7 +1022,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A5" s="7"/>
       <c r="B5" s="13">
         <v>1</v>
@@ -1048,7 +1051,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="34.5" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A6" s="7"/>
       <c r="B6" s="13">
         <v>2</v>
@@ -1077,7 +1080,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="34.5" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A7" s="7"/>
       <c r="B7" s="13">
         <v>3</v>
@@ -1106,7 +1109,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="34.5" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A8" s="7"/>
       <c r="B8" s="13">
         <v>4</v>
@@ -1135,7 +1138,7 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="47.25" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A9" s="7"/>
       <c r="B9" s="13">
         <v>5</v>
@@ -1164,7 +1167,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A10" s="7"/>
       <c r="B10" s="13">
         <v>6</v>
@@ -1193,7 +1196,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A11" s="7"/>
       <c r="B11" s="13">
         <v>7</v>
@@ -1222,7 +1225,7 @@
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="47.25" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A12" s="7"/>
       <c r="B12" s="13">
         <v>8</v>
@@ -1251,7 +1254,7 @@
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="43.5" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A13" s="7"/>
       <c r="B13" s="13">
         <v>9</v>
@@ -1280,7 +1283,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="57.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A14" s="7"/>
       <c r="B14" s="13">
         <v>10</v>
@@ -1309,7 +1312,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="42" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A15" s="7"/>
       <c r="B15" s="13">
         <v>11</v>
@@ -1338,7 +1341,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="40.5" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A16" s="7"/>
       <c r="B16" s="13">
         <v>12</v>
@@ -1367,7 +1370,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="134.25" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="126.75" customFormat="1" s="1">
       <c r="A17" s="7"/>
       <c r="B17" s="13">
         <v>13</v>
@@ -1396,7 +1399,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="49.5" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="49.5" customFormat="1" s="1">
       <c r="A18" s="7"/>
       <c r="B18" s="13">
         <v>14</v>
@@ -1425,7 +1428,7 @@
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="35.25" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="35.25" customFormat="1" s="1">
       <c r="A19" s="7"/>
       <c r="B19" s="13">
         <v>15</v>
@@ -1454,7 +1457,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="30" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="30" customFormat="1" s="1">
       <c r="A20" s="7"/>
       <c r="B20" s="13">
         <v>16</v>
@@ -1483,7 +1486,7 @@
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="31.5" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A21" s="7"/>
       <c r="B21" s="13">
         <v>17</v>
@@ -1512,7 +1515,7 @@
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="44.25" customFormat="1" s="1">
       <c r="A22" s="7"/>
       <c r="B22" s="13">
         <v>18</v>
@@ -1541,7 +1544,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="39.75" customFormat="1" s="1">
       <c r="A23" s="7"/>
       <c r="B23" s="13">
         <v>19</v>
@@ -1570,7 +1573,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="36" customFormat="1" s="1">
       <c r="A24" s="7"/>
       <c r="B24" s="13">
         <v>20</v>
@@ -1599,7 +1602,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="1">
       <c r="A25" s="7"/>
       <c r="B25" s="13">
         <v>21</v>
@@ -1628,7 +1631,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="55.5" customFormat="1" s="1">
       <c r="A26" s="7"/>
       <c r="B26" s="13">
         <v>22</v>
@@ -1657,7 +1660,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="56.25" customFormat="1" s="1">
       <c r="A27" s="7"/>
       <c r="B27" s="13">
         <v>23</v>
@@ -1686,7 +1689,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="108" customFormat="1" s="1">
       <c r="A28" s="7"/>
       <c r="B28" s="13">
         <v>24</v>
@@ -1715,7 +1718,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="63.75" customFormat="1" s="1">
       <c r="A29" s="7"/>
       <c r="B29" s="13">
         <v>25</v>
@@ -1744,7 +1747,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A30" s="7"/>
       <c r="B30" s="13">
         <v>26</v>
@@ -1773,7 +1776,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A31" s="7"/>
       <c r="B31" s="13">
         <v>27</v>
@@ -1802,7 +1805,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="84.75" customFormat="1" s="1">
       <c r="A32" s="7"/>
       <c r="B32" s="13">
         <v>28</v>
@@ -1831,7 +1834,7 @@
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="45.75" customFormat="1" s="1">
       <c r="A33" s="7"/>
       <c r="B33" s="13">
         <v>29</v>
@@ -1860,7 +1863,7 @@
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="71.25" customFormat="1" s="1">
       <c r="A34" s="7"/>
       <c r="B34" s="13">
         <v>30</v>
@@ -1889,7 +1892,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="48.75" customFormat="1" s="1">
       <c r="A35" s="7"/>
       <c r="B35" s="13">
         <v>31</v>
@@ -1918,7 +1921,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="96" customFormat="1" s="1">
       <c r="A36" s="7"/>
       <c r="B36" s="13">
         <v>32</v>
@@ -1947,7 +1950,7 @@
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="69" customFormat="1" s="1">
       <c r="A37" s="7"/>
       <c r="B37" s="13">
         <v>33</v>
@@ -1976,7 +1979,7 @@
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="63.75" customFormat="1" s="1">
       <c r="A38" s="7"/>
       <c r="B38" s="13">
         <v>34</v>
@@ -2005,7 +2008,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="53.25" customFormat="1" s="1">
       <c r="A39" s="7"/>
       <c r="B39" s="13">
         <v>35</v>
@@ -2034,7 +2037,7 @@
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="67.5" customFormat="1" s="1">
       <c r="A40" s="7"/>
       <c r="B40" s="13">
         <v>36</v>
@@ -2063,7 +2066,7 @@
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="69" customFormat="1" s="1">
       <c r="A41" s="7"/>
       <c r="B41" s="13">
         <v>37</v>
@@ -2092,7 +2095,7 @@
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="83.25" customFormat="1" s="1">
       <c r="A42" s="7"/>
       <c r="B42" s="13">
         <v>38</v>
@@ -2121,7 +2124,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="127.5" customFormat="1" s="1">
       <c r="A43" s="7"/>
       <c r="B43" s="13">
         <v>39</v>
@@ -2150,7 +2153,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="44.25" customFormat="1" s="1">
       <c r="A44" s="7"/>
       <c r="B44" s="13">
         <v>40</v>
@@ -2179,7 +2182,7 @@
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="111.75" customFormat="1" s="1">
       <c r="A45" s="7"/>
       <c r="B45" s="13">
         <v>41</v>
@@ -2208,7 +2211,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="162.75" customFormat="1" s="1">
       <c r="A46" s="7"/>
       <c r="B46" s="13">
         <v>42</v>
@@ -2237,7 +2240,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="120.75" customFormat="1" s="1">
       <c r="A47" s="7"/>
       <c r="B47" s="13">
         <v>43</v>
@@ -2266,7 +2269,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="123.75" customFormat="1" s="1">
       <c r="A48" s="7"/>
       <c r="B48" s="13">
         <v>44</v>
@@ -2295,7 +2298,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="69" customFormat="1" s="1">
       <c r="A49" s="7"/>
       <c r="B49" s="13">
         <v>45</v>
@@ -2324,7 +2327,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
@@ -2347,7 +2350,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
@@ -2370,7 +2373,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
@@ -2393,7 +2396,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
@@ -2416,7 +2419,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
@@ -2439,7 +2442,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
@@ -2462,7 +2465,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
@@ -2485,7 +2488,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
@@ -2508,7 +2511,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
@@ -2531,7 +2534,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
@@ -2554,7 +2557,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
@@ -2577,7 +2580,7 @@
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
@@ -2600,7 +2603,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
@@ -2623,7 +2626,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
@@ -2646,7 +2649,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
@@ -2669,7 +2672,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
@@ -2692,7 +2695,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -2715,7 +2718,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
@@ -2738,7 +2741,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
@@ -2761,7 +2764,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
@@ -2784,7 +2787,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
@@ -2807,7 +2810,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
@@ -2830,7 +2833,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
@@ -2853,7 +2856,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
@@ -2876,7 +2879,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
@@ -2899,7 +2902,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
@@ -2922,7 +2925,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
@@ -2945,7 +2948,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
@@ -2968,7 +2971,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
@@ -2991,7 +2994,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
@@ -3014,7 +3017,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
@@ -3037,7 +3040,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
@@ -3060,7 +3063,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
@@ -3083,7 +3086,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
@@ -3106,7 +3109,7 @@
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
@@ -3129,7 +3132,7 @@
       <c r="T84" s="7"/>
       <c r="U84" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
@@ -3152,7 +3155,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
@@ -3175,7 +3178,7 @@
       <c r="T86" s="7"/>
       <c r="U86" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
@@ -3198,7 +3201,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
@@ -3221,7 +3224,7 @@
       <c r="T88" s="7"/>
       <c r="U88" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
@@ -3244,7 +3247,7 @@
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
@@ -3267,7 +3270,7 @@
       <c r="T90" s="7"/>
       <c r="U90" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
@@ -3290,7 +3293,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
@@ -3313,7 +3316,7 @@
       <c r="T92" s="7"/>
       <c r="U92" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
@@ -3336,7 +3339,7 @@
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
@@ -3359,7 +3362,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
@@ -3382,7 +3385,7 @@
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
@@ -3405,7 +3408,7 @@
       <c r="T96" s="7"/>
       <c r="U96" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
@@ -3428,7 +3431,7 @@
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
@@ -3451,7 +3454,7 @@
       <c r="T98" s="7"/>
       <c r="U98" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
@@ -3474,7 +3477,7 @@
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
@@ -3497,7 +3500,7 @@
       <c r="T100" s="7"/>
       <c r="U100" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
@@ -3520,7 +3523,7 @@
       <c r="T101" s="7"/>
       <c r="U101" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
@@ -3543,7 +3546,7 @@
       <c r="T102" s="7"/>
       <c r="U102" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
@@ -3566,7 +3569,7 @@
       <c r="T103" s="7"/>
       <c r="U103" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="C104" s="9"/>
@@ -3589,7 +3592,7 @@
       <c r="T104" s="7"/>
       <c r="U104" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="9"/>
@@ -3612,7 +3615,7 @@
       <c r="T105" s="7"/>
       <c r="U105" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="9"/>
@@ -3635,7 +3638,7 @@
       <c r="T106" s="7"/>
       <c r="U106" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="C107" s="9"/>
@@ -3658,7 +3661,7 @@
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="C108" s="9"/>
@@ -3681,7 +3684,7 @@
       <c r="T108" s="7"/>
       <c r="U108" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
       <c r="C109" s="9"/>
@@ -3704,7 +3707,7 @@
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="9"/>
@@ -3727,7 +3730,7 @@
       <c r="T110" s="7"/>
       <c r="U110" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="9"/>
@@ -3750,7 +3753,7 @@
       <c r="T111" s="7"/>
       <c r="U111" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="C112" s="9"/>
@@ -3773,7 +3776,7 @@
       <c r="T112" s="7"/>
       <c r="U112" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="C113" s="9"/>
@@ -3796,7 +3799,7 @@
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="C114" s="9"/>
@@ -3819,7 +3822,7 @@
       <c r="T114" s="7"/>
       <c r="U114" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="C115" s="9"/>
@@ -3842,7 +3845,7 @@
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="C116" s="9"/>
@@ -3865,7 +3868,7 @@
       <c r="T116" s="7"/>
       <c r="U116" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="C117" s="9"/>
@@ -3888,7 +3891,7 @@
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="C118" s="9"/>
@@ -3911,7 +3914,7 @@
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="C119" s="9"/>
@@ -3934,7 +3937,7 @@
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="9"/>
@@ -3957,7 +3960,7 @@
       <c r="T120" s="7"/>
       <c r="U120" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="9"/>
@@ -3980,7 +3983,7 @@
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="9"/>
@@ -4003,7 +4006,7 @@
       <c r="T122" s="7"/>
       <c r="U122" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="9"/>
@@ -4026,7 +4029,7 @@
       <c r="T123" s="7"/>
       <c r="U123" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="9"/>
@@ -4049,7 +4052,7 @@
       <c r="T124" s="7"/>
       <c r="U124" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="9"/>
@@ -4072,7 +4075,7 @@
       <c r="T125" s="7"/>
       <c r="U125" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="9"/>
@@ -4095,7 +4098,7 @@
       <c r="T126" s="7"/>
       <c r="U126" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="9"/>
@@ -4118,7 +4121,7 @@
       <c r="T127" s="7"/>
       <c r="U127" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="9"/>
@@ -4141,7 +4144,7 @@
       <c r="T128" s="7"/>
       <c r="U128" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="9"/>
@@ -4164,7 +4167,7 @@
       <c r="T129" s="7"/>
       <c r="U129" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="9"/>
@@ -4187,7 +4190,7 @@
       <c r="T130" s="7"/>
       <c r="U130" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="9"/>
@@ -4210,7 +4213,7 @@
       <c r="T131" s="7"/>
       <c r="U131" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="9"/>
@@ -4233,7 +4236,7 @@
       <c r="T132" s="7"/>
       <c r="U132" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="9"/>
@@ -4256,7 +4259,7 @@
       <c r="T133" s="7"/>
       <c r="U133" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="9"/>
@@ -4279,7 +4282,7 @@
       <c r="T134" s="7"/>
       <c r="U134" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="9"/>
@@ -4302,7 +4305,7 @@
       <c r="T135" s="7"/>
       <c r="U135" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="9"/>
@@ -4325,7 +4328,7 @@
       <c r="T136" s="7"/>
       <c r="U136" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="9"/>
@@ -4348,7 +4351,7 @@
       <c r="T137" s="7"/>
       <c r="U137" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="9"/>
@@ -4371,7 +4374,7 @@
       <c r="T138" s="7"/>
       <c r="U138" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="9"/>
@@ -4394,7 +4397,7 @@
       <c r="T139" s="7"/>
       <c r="U139" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="9"/>
@@ -4417,7 +4420,7 @@
       <c r="T140" s="7"/>
       <c r="U140" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="9"/>
@@ -4440,7 +4443,7 @@
       <c r="T141" s="7"/>
       <c r="U141" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="C142" s="9"/>
@@ -4463,7 +4466,7 @@
       <c r="T142" s="7"/>
       <c r="U142" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="C143" s="9"/>
@@ -4486,7 +4489,7 @@
       <c r="T143" s="7"/>
       <c r="U143" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="9"/>
@@ -4509,7 +4512,7 @@
       <c r="T144" s="7"/>
       <c r="U144" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="9"/>
@@ -4532,7 +4535,7 @@
       <c r="T145" s="7"/>
       <c r="U145" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="9"/>
@@ -4555,7 +4558,7 @@
       <c r="T146" s="7"/>
       <c r="U146" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="9"/>
@@ -4578,7 +4581,7 @@
       <c r="T147" s="7"/>
       <c r="U147" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="9"/>
@@ -4601,7 +4604,7 @@
       <c r="T148" s="7"/>
       <c r="U148" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="9"/>
@@ -4624,7 +4627,7 @@
       <c r="T149" s="7"/>
       <c r="U149" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="9"/>
@@ -4647,7 +4650,7 @@
       <c r="T150" s="7"/>
       <c r="U150" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="9"/>
@@ -4670,7 +4673,7 @@
       <c r="T151" s="7"/>
       <c r="U151" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="9"/>
@@ -4693,7 +4696,7 @@
       <c r="T152" s="7"/>
       <c r="U152" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="9"/>
@@ -4716,7 +4719,7 @@
       <c r="T153" s="7"/>
       <c r="U153" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="9"/>
@@ -4739,7 +4742,7 @@
       <c r="T154" s="7"/>
       <c r="U154" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="C155" s="9"/>
@@ -4762,7 +4765,7 @@
       <c r="T155" s="7"/>
       <c r="U155" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="9"/>
@@ -4785,7 +4788,7 @@
       <c r="T156" s="7"/>
       <c r="U156" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="C157" s="9"/>
@@ -4808,7 +4811,7 @@
       <c r="T157" s="7"/>
       <c r="U157" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" s="9"/>
@@ -4831,7 +4834,7 @@
       <c r="T158" s="7"/>
       <c r="U158" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="9"/>
@@ -4854,7 +4857,7 @@
       <c r="T159" s="7"/>
       <c r="U159" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="9"/>
@@ -4877,7 +4880,7 @@
       <c r="T160" s="7"/>
       <c r="U160" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
       <c r="C161" s="9"/>
@@ -4900,7 +4903,7 @@
       <c r="T161" s="7"/>
       <c r="U161" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
       <c r="C162" s="9"/>
@@ -4923,7 +4926,7 @@
       <c r="T162" s="7"/>
       <c r="U162" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
       <c r="C163" s="9"/>
@@ -4946,7 +4949,7 @@
       <c r="T163" s="7"/>
       <c r="U163" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
       <c r="C164" s="9"/>
@@ -4969,7 +4972,7 @@
       <c r="T164" s="7"/>
       <c r="U164" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="9"/>
@@ -4992,7 +4995,7 @@
       <c r="T165" s="7"/>
       <c r="U165" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A166" s="7"/>
       <c r="B166" s="8"/>
       <c r="C166" s="9"/>
@@ -5015,7 +5018,7 @@
       <c r="T166" s="7"/>
       <c r="U166" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A167" s="7"/>
       <c r="B167" s="8"/>
       <c r="C167" s="9"/>
@@ -5038,7 +5041,7 @@
       <c r="T167" s="7"/>
       <c r="U167" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
       <c r="C168" s="9"/>
@@ -5061,7 +5064,7 @@
       <c r="T168" s="7"/>
       <c r="U168" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
       <c r="C169" s="9"/>
@@ -5084,7 +5087,7 @@
       <c r="T169" s="7"/>
       <c r="U169" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A170" s="7"/>
       <c r="B170" s="8"/>
       <c r="C170" s="9"/>
@@ -5107,7 +5110,7 @@
       <c r="T170" s="7"/>
       <c r="U170" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A171" s="7"/>
       <c r="B171" s="8"/>
       <c r="C171" s="9"/>
@@ -5130,7 +5133,7 @@
       <c r="T171" s="7"/>
       <c r="U171" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
       <c r="C172" s="9"/>
@@ -5153,7 +5156,7 @@
       <c r="T172" s="7"/>
       <c r="U172" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
       <c r="C173" s="9"/>
@@ -5176,7 +5179,7 @@
       <c r="T173" s="7"/>
       <c r="U173" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A174" s="7"/>
       <c r="B174" s="8"/>
       <c r="C174" s="9"/>
@@ -5199,7 +5202,7 @@
       <c r="T174" s="7"/>
       <c r="U174" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A175" s="7"/>
       <c r="B175" s="8"/>
       <c r="C175" s="9"/>
@@ -5222,7 +5225,7 @@
       <c r="T175" s="7"/>
       <c r="U175" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
       <c r="C176" s="9"/>
@@ -5245,7 +5248,7 @@
       <c r="T176" s="7"/>
       <c r="U176" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
       <c r="C177" s="9"/>
@@ -5268,7 +5271,7 @@
       <c r="T177" s="7"/>
       <c r="U177" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
       <c r="C178" s="9"/>
@@ -5291,7 +5294,7 @@
       <c r="T178" s="7"/>
       <c r="U178" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
       <c r="C179" s="9"/>
@@ -5314,7 +5317,7 @@
       <c r="T179" s="7"/>
       <c r="U179" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A180" s="7"/>
       <c r="B180" s="8"/>
       <c r="C180" s="9"/>
@@ -5337,7 +5340,7 @@
       <c r="T180" s="7"/>
       <c r="U180" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A181" s="7"/>
       <c r="B181" s="8"/>
       <c r="C181" s="9"/>
@@ -5360,7 +5363,7 @@
       <c r="T181" s="7"/>
       <c r="U181" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A182" s="7"/>
       <c r="B182" s="8"/>
       <c r="C182" s="9"/>
@@ -5383,7 +5386,7 @@
       <c r="T182" s="7"/>
       <c r="U182" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A183" s="7"/>
       <c r="B183" s="8"/>
       <c r="C183" s="9"/>
@@ -5406,7 +5409,7 @@
       <c r="T183" s="7"/>
       <c r="U183" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
       <c r="C184" s="9"/>
@@ -5429,7 +5432,7 @@
       <c r="T184" s="7"/>
       <c r="U184" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
       <c r="C185" s="9"/>
@@ -5452,7 +5455,7 @@
       <c r="T185" s="7"/>
       <c r="U185" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
       <c r="C186" s="9"/>
@@ -5475,7 +5478,7 @@
       <c r="T186" s="7"/>
       <c r="U186" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A187" s="7"/>
       <c r="B187" s="8"/>
       <c r="C187" s="9"/>
@@ -5498,7 +5501,7 @@
       <c r="T187" s="7"/>
       <c r="U187" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
       <c r="C188" s="9"/>
@@ -5521,7 +5524,7 @@
       <c r="T188" s="7"/>
       <c r="U188" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A189" s="7"/>
       <c r="B189" s="8"/>
       <c r="C189" s="9"/>
@@ -5544,7 +5547,7 @@
       <c r="T189" s="7"/>
       <c r="U189" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A190" s="7"/>
       <c r="B190" s="8"/>
       <c r="C190" s="9"/>
@@ -5567,7 +5570,7 @@
       <c r="T190" s="7"/>
       <c r="U190" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A191" s="7"/>
       <c r="B191" s="8"/>
       <c r="C191" s="9"/>
@@ -5590,7 +5593,7 @@
       <c r="T191" s="7"/>
       <c r="U191" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A192" s="7"/>
       <c r="B192" s="8"/>
       <c r="C192" s="9"/>
@@ -5613,7 +5616,7 @@
       <c r="T192" s="7"/>
       <c r="U192" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A193" s="7"/>
       <c r="B193" s="8"/>
       <c r="C193" s="9"/>
@@ -5636,7 +5639,7 @@
       <c r="T193" s="7"/>
       <c r="U193" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A194" s="7"/>
       <c r="B194" s="8"/>
       <c r="C194" s="9"/>
@@ -5659,7 +5662,7 @@
       <c r="T194" s="7"/>
       <c r="U194" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A195" s="7"/>
       <c r="B195" s="8"/>
       <c r="C195" s="9"/>
@@ -5682,7 +5685,7 @@
       <c r="T195" s="7"/>
       <c r="U195" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A196" s="7"/>
       <c r="B196" s="8"/>
       <c r="C196" s="9"/>
@@ -5705,7 +5708,7 @@
       <c r="T196" s="7"/>
       <c r="U196" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A197" s="7"/>
       <c r="B197" s="8"/>
       <c r="C197" s="9"/>
@@ -5728,7 +5731,7 @@
       <c r="T197" s="7"/>
       <c r="U197" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
       <c r="C198" s="9"/>
@@ -5751,7 +5754,7 @@
       <c r="T198" s="7"/>
       <c r="U198" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A199" s="7"/>
       <c r="B199" s="8"/>
       <c r="C199" s="9"/>
@@ -5774,7 +5777,7 @@
       <c r="T199" s="7"/>
       <c r="U199" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A200" s="7"/>
       <c r="B200" s="8"/>
       <c r="C200" s="9"/>
@@ -5797,7 +5800,7 @@
       <c r="T200" s="7"/>
       <c r="U200" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A201" s="7"/>
       <c r="B201" s="8"/>
       <c r="C201" s="9"/>
@@ -5820,7 +5823,7 @@
       <c r="T201" s="7"/>
       <c r="U201" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A202" s="7"/>
       <c r="B202" s="8"/>
       <c r="C202" s="9"/>
@@ -5843,7 +5846,7 @@
       <c r="T202" s="7"/>
       <c r="U202" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A203" s="7"/>
       <c r="B203" s="8"/>
       <c r="C203" s="9"/>
@@ -5866,7 +5869,7 @@
       <c r="T203" s="7"/>
       <c r="U203" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A204" s="7"/>
       <c r="B204" s="8"/>
       <c r="C204" s="9"/>
@@ -5889,7 +5892,7 @@
       <c r="T204" s="7"/>
       <c r="U204" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A205" s="7"/>
       <c r="B205" s="8"/>
       <c r="C205" s="9"/>
@@ -5912,7 +5915,7 @@
       <c r="T205" s="7"/>
       <c r="U205" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A206" s="7"/>
       <c r="B206" s="8"/>
       <c r="C206" s="9"/>
@@ -5935,7 +5938,7 @@
       <c r="T206" s="7"/>
       <c r="U206" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A207" s="7"/>
       <c r="B207" s="8"/>
       <c r="C207" s="9"/>
@@ -5958,7 +5961,7 @@
       <c r="T207" s="7"/>
       <c r="U207" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A208" s="7"/>
       <c r="B208" s="8"/>
       <c r="C208" s="9"/>
@@ -5981,7 +5984,7 @@
       <c r="T208" s="7"/>
       <c r="U208" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A209" s="7"/>
       <c r="B209" s="8"/>
       <c r="C209" s="9"/>
@@ -6004,7 +6007,7 @@
       <c r="T209" s="7"/>
       <c r="U209" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A210" s="7"/>
       <c r="B210" s="8"/>
       <c r="C210" s="9"/>
@@ -6027,7 +6030,7 @@
       <c r="T210" s="7"/>
       <c r="U210" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A211" s="7"/>
       <c r="B211" s="8"/>
       <c r="C211" s="9"/>
@@ -6050,7 +6053,7 @@
       <c r="T211" s="7"/>
       <c r="U211" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A212" s="7"/>
       <c r="B212" s="8"/>
       <c r="C212" s="9"/>
@@ -6073,7 +6076,7 @@
       <c r="T212" s="7"/>
       <c r="U212" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A213" s="7"/>
       <c r="B213" s="8"/>
       <c r="C213" s="9"/>
@@ -6096,7 +6099,7 @@
       <c r="T213" s="7"/>
       <c r="U213" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A214" s="7"/>
       <c r="B214" s="8"/>
       <c r="C214" s="9"/>
@@ -6119,7 +6122,7 @@
       <c r="T214" s="7"/>
       <c r="U214" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A215" s="7"/>
       <c r="B215" s="8"/>
       <c r="C215" s="9"/>
@@ -6142,7 +6145,7 @@
       <c r="T215" s="7"/>
       <c r="U215" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A216" s="7"/>
       <c r="B216" s="8"/>
       <c r="C216" s="9"/>
@@ -6165,7 +6168,7 @@
       <c r="T216" s="7"/>
       <c r="U216" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A217" s="7"/>
       <c r="B217" s="8"/>
       <c r="C217" s="9"/>
@@ -6188,7 +6191,7 @@
       <c r="T217" s="7"/>
       <c r="U217" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A218" s="7"/>
       <c r="B218" s="8"/>
       <c r="C218" s="9"/>
@@ -6211,7 +6214,7 @@
       <c r="T218" s="7"/>
       <c r="U218" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A219" s="7"/>
       <c r="B219" s="8"/>
       <c r="C219" s="9"/>
@@ -6234,7 +6237,7 @@
       <c r="T219" s="7"/>
       <c r="U219" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A220" s="7"/>
       <c r="B220" s="8"/>
       <c r="C220" s="9"/>
@@ -6257,7 +6260,7 @@
       <c r="T220" s="7"/>
       <c r="U220" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A221" s="7"/>
       <c r="B221" s="8"/>
       <c r="C221" s="9"/>
@@ -6280,7 +6283,7 @@
       <c r="T221" s="7"/>
       <c r="U221" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A222" s="7"/>
       <c r="B222" s="8"/>
       <c r="C222" s="9"/>
@@ -6303,7 +6306,7 @@
       <c r="T222" s="7"/>
       <c r="U222" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A223" s="7"/>
       <c r="B223" s="8"/>
       <c r="C223" s="9"/>
@@ -6326,7 +6329,7 @@
       <c r="T223" s="7"/>
       <c r="U223" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A224" s="7"/>
       <c r="B224" s="8"/>
       <c r="C224" s="9"/>
@@ -6349,7 +6352,7 @@
       <c r="T224" s="7"/>
       <c r="U224" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A225" s="7"/>
       <c r="B225" s="8"/>
       <c r="C225" s="9"/>
@@ -6372,7 +6375,7 @@
       <c r="T225" s="7"/>
       <c r="U225" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A226" s="7"/>
       <c r="B226" s="8"/>
       <c r="C226" s="9"/>
@@ -6395,7 +6398,7 @@
       <c r="T226" s="7"/>
       <c r="U226" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A227" s="7"/>
       <c r="B227" s="8"/>
       <c r="C227" s="9"/>
@@ -6418,7 +6421,7 @@
       <c r="T227" s="7"/>
       <c r="U227" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A228" s="7"/>
       <c r="B228" s="8"/>
       <c r="C228" s="9"/>
@@ -6441,7 +6444,7 @@
       <c r="T228" s="7"/>
       <c r="U228" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A229" s="7"/>
       <c r="B229" s="8"/>
       <c r="C229" s="9"/>
@@ -6464,7 +6467,7 @@
       <c r="T229" s="7"/>
       <c r="U229" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A230" s="7"/>
       <c r="B230" s="8"/>
       <c r="C230" s="9"/>
@@ -6487,7 +6490,7 @@
       <c r="T230" s="7"/>
       <c r="U230" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A231" s="7"/>
       <c r="B231" s="8"/>
       <c r="C231" s="9"/>
@@ -6510,7 +6513,7 @@
       <c r="T231" s="7"/>
       <c r="U231" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A232" s="7"/>
       <c r="B232" s="8"/>
       <c r="C232" s="9"/>
@@ -6533,7 +6536,7 @@
       <c r="T232" s="7"/>
       <c r="U232" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A233" s="7"/>
       <c r="B233" s="8"/>
       <c r="C233" s="9"/>
@@ -6556,7 +6559,7 @@
       <c r="T233" s="7"/>
       <c r="U233" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A234" s="7"/>
       <c r="B234" s="8"/>
       <c r="C234" s="9"/>
@@ -6579,7 +6582,7 @@
       <c r="T234" s="7"/>
       <c r="U234" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A235" s="7"/>
       <c r="B235" s="8"/>
       <c r="C235" s="9"/>
@@ -6602,7 +6605,7 @@
       <c r="T235" s="7"/>
       <c r="U235" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A236" s="7"/>
       <c r="B236" s="8"/>
       <c r="C236" s="9"/>
@@ -6625,7 +6628,7 @@
       <c r="T236" s="7"/>
       <c r="U236" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A237" s="7"/>
       <c r="B237" s="8"/>
       <c r="C237" s="9"/>
@@ -6648,7 +6651,7 @@
       <c r="T237" s="7"/>
       <c r="U237" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A238" s="7"/>
       <c r="B238" s="8"/>
       <c r="C238" s="9"/>
@@ -6671,7 +6674,7 @@
       <c r="T238" s="7"/>
       <c r="U238" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A239" s="7"/>
       <c r="B239" s="8"/>
       <c r="C239" s="9"/>
@@ -6694,7 +6697,7 @@
       <c r="T239" s="7"/>
       <c r="U239" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A240" s="7"/>
       <c r="B240" s="8"/>
       <c r="C240" s="9"/>
@@ -6717,7 +6720,7 @@
       <c r="T240" s="7"/>
       <c r="U240" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A241" s="7"/>
       <c r="B241" s="8"/>
       <c r="C241" s="9"/>
@@ -6740,7 +6743,7 @@
       <c r="T241" s="7"/>
       <c r="U241" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A242" s="7"/>
       <c r="B242" s="8"/>
       <c r="C242" s="9"/>
@@ -6763,7 +6766,7 @@
       <c r="T242" s="7"/>
       <c r="U242" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A243" s="7"/>
       <c r="B243" s="8"/>
       <c r="C243" s="9"/>
@@ -6786,7 +6789,7 @@
       <c r="T243" s="7"/>
       <c r="U243" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A244" s="7"/>
       <c r="B244" s="8"/>
       <c r="C244" s="9"/>
@@ -6809,7 +6812,7 @@
       <c r="T244" s="7"/>
       <c r="U244" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A245" s="7"/>
       <c r="B245" s="8"/>
       <c r="C245" s="9"/>
@@ -6832,7 +6835,7 @@
       <c r="T245" s="7"/>
       <c r="U245" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A246" s="7"/>
       <c r="B246" s="8"/>
       <c r="C246" s="9"/>
@@ -6855,7 +6858,7 @@
       <c r="T246" s="7"/>
       <c r="U246" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A247" s="7"/>
       <c r="B247" s="8"/>
       <c r="C247" s="9"/>
@@ -6878,7 +6881,7 @@
       <c r="T247" s="7"/>
       <c r="U247" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A248" s="7"/>
       <c r="B248" s="8"/>
       <c r="C248" s="9"/>
@@ -6901,7 +6904,7 @@
       <c r="T248" s="7"/>
       <c r="U248" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A249" s="7"/>
       <c r="B249" s="8"/>
       <c r="C249" s="9"/>
@@ -6924,7 +6927,7 @@
       <c r="T249" s="7"/>
       <c r="U249" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A250" s="7"/>
       <c r="B250" s="8"/>
       <c r="C250" s="9"/>
@@ -6947,7 +6950,7 @@
       <c r="T250" s="7"/>
       <c r="U250" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A251" s="7"/>
       <c r="B251" s="8"/>
       <c r="C251" s="9"/>
@@ -6970,7 +6973,7 @@
       <c r="T251" s="7"/>
       <c r="U251" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A252" s="7"/>
       <c r="B252" s="8"/>
       <c r="C252" s="9"/>
@@ -6993,7 +6996,7 @@
       <c r="T252" s="7"/>
       <c r="U252" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A253" s="7"/>
       <c r="B253" s="8"/>
       <c r="C253" s="9"/>
@@ -7016,7 +7019,7 @@
       <c r="T253" s="7"/>
       <c r="U253" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A254" s="7"/>
       <c r="B254" s="8"/>
       <c r="C254" s="9"/>
@@ -7039,7 +7042,7 @@
       <c r="T254" s="7"/>
       <c r="U254" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A255" s="7"/>
       <c r="B255" s="8"/>
       <c r="C255" s="9"/>
@@ -7062,7 +7065,7 @@
       <c r="T255" s="7"/>
       <c r="U255" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A256" s="7"/>
       <c r="B256" s="8"/>
       <c r="C256" s="9"/>
@@ -7085,7 +7088,7 @@
       <c r="T256" s="7"/>
       <c r="U256" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A257" s="7"/>
       <c r="B257" s="8"/>
       <c r="C257" s="9"/>
@@ -7108,7 +7111,7 @@
       <c r="T257" s="7"/>
       <c r="U257" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A258" s="7"/>
       <c r="B258" s="8"/>
       <c r="C258" s="9"/>
@@ -7131,7 +7134,7 @@
       <c r="T258" s="7"/>
       <c r="U258" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A259" s="7"/>
       <c r="B259" s="8"/>
       <c r="C259" s="9"/>
@@ -7154,7 +7157,7 @@
       <c r="T259" s="7"/>
       <c r="U259" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A260" s="7"/>
       <c r="B260" s="8"/>
       <c r="C260" s="9"/>
@@ -7177,7 +7180,7 @@
       <c r="T260" s="7"/>
       <c r="U260" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A261" s="7"/>
       <c r="B261" s="8"/>
       <c r="C261" s="9"/>
@@ -7200,7 +7203,7 @@
       <c r="T261" s="7"/>
       <c r="U261" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A262" s="7"/>
       <c r="B262" s="8"/>
       <c r="C262" s="9"/>
@@ -7223,7 +7226,7 @@
       <c r="T262" s="7"/>
       <c r="U262" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A263" s="7"/>
       <c r="B263" s="8"/>
       <c r="C263" s="9"/>
@@ -7246,7 +7249,7 @@
       <c r="T263" s="7"/>
       <c r="U263" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A264" s="7"/>
       <c r="B264" s="8"/>
       <c r="C264" s="9"/>
@@ -7269,7 +7272,7 @@
       <c r="T264" s="7"/>
       <c r="U264" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A265" s="7"/>
       <c r="B265" s="8"/>
       <c r="C265" s="9"/>
@@ -7292,7 +7295,7 @@
       <c r="T265" s="7"/>
       <c r="U265" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A266" s="7"/>
       <c r="B266" s="8"/>
       <c r="C266" s="9"/>
@@ -7315,7 +7318,7 @@
       <c r="T266" s="7"/>
       <c r="U266" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A267" s="7"/>
       <c r="B267" s="8"/>
       <c r="C267" s="9"/>
@@ -7338,7 +7341,7 @@
       <c r="T267" s="7"/>
       <c r="U267" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A268" s="7"/>
       <c r="B268" s="8"/>
       <c r="C268" s="9"/>
@@ -7361,7 +7364,7 @@
       <c r="T268" s="7"/>
       <c r="U268" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A269" s="7"/>
       <c r="B269" s="8"/>
       <c r="C269" s="9"/>
@@ -7384,7 +7387,7 @@
       <c r="T269" s="7"/>
       <c r="U269" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A270" s="7"/>
       <c r="B270" s="8"/>
       <c r="C270" s="9"/>
@@ -7407,7 +7410,7 @@
       <c r="T270" s="7"/>
       <c r="U270" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A271" s="7"/>
       <c r="B271" s="8"/>
       <c r="C271" s="9"/>
@@ -7430,7 +7433,7 @@
       <c r="T271" s="7"/>
       <c r="U271" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A272" s="7"/>
       <c r="B272" s="8"/>
       <c r="C272" s="9"/>
@@ -7453,7 +7456,7 @@
       <c r="T272" s="7"/>
       <c r="U272" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A273" s="7"/>
       <c r="B273" s="8"/>
       <c r="C273" s="9"/>
@@ -7476,7 +7479,7 @@
       <c r="T273" s="7"/>
       <c r="U273" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A274" s="7"/>
       <c r="B274" s="8"/>
       <c r="C274" s="9"/>
@@ -7499,7 +7502,7 @@
       <c r="T274" s="7"/>
       <c r="U274" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A275" s="7"/>
       <c r="B275" s="8"/>
       <c r="C275" s="9"/>
@@ -7522,7 +7525,7 @@
       <c r="T275" s="7"/>
       <c r="U275" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A276" s="7"/>
       <c r="B276" s="8"/>
       <c r="C276" s="9"/>
@@ -7545,7 +7548,7 @@
       <c r="T276" s="7"/>
       <c r="U276" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A277" s="7"/>
       <c r="B277" s="8"/>
       <c r="C277" s="9"/>
@@ -7568,7 +7571,7 @@
       <c r="T277" s="7"/>
       <c r="U277" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A278" s="7"/>
       <c r="B278" s="8"/>
       <c r="C278" s="9"/>
@@ -7591,7 +7594,7 @@
       <c r="T278" s="7"/>
       <c r="U278" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A279" s="7"/>
       <c r="B279" s="8"/>
       <c r="C279" s="9"/>
@@ -7614,7 +7617,7 @@
       <c r="T279" s="7"/>
       <c r="U279" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A280" s="7"/>
       <c r="B280" s="8"/>
       <c r="C280" s="9"/>
@@ -7637,7 +7640,7 @@
       <c r="T280" s="7"/>
       <c r="U280" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A281" s="7"/>
       <c r="B281" s="8"/>
       <c r="C281" s="9"/>
@@ -7660,7 +7663,7 @@
       <c r="T281" s="7"/>
       <c r="U281" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A282" s="7"/>
       <c r="B282" s="8"/>
       <c r="C282" s="9"/>
@@ -7683,7 +7686,7 @@
       <c r="T282" s="7"/>
       <c r="U282" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A283" s="7"/>
       <c r="B283" s="8"/>
       <c r="C283" s="9"/>
@@ -7706,7 +7709,7 @@
       <c r="T283" s="7"/>
       <c r="U283" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A284" s="7"/>
       <c r="B284" s="8"/>
       <c r="C284" s="9"/>
@@ -7729,7 +7732,7 @@
       <c r="T284" s="7"/>
       <c r="U284" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A285" s="7"/>
       <c r="B285" s="8"/>
       <c r="C285" s="9"/>
@@ -7752,7 +7755,7 @@
       <c r="T285" s="7"/>
       <c r="U285" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A286" s="7"/>
       <c r="B286" s="8"/>
       <c r="C286" s="9"/>
@@ -7775,7 +7778,7 @@
       <c r="T286" s="7"/>
       <c r="U286" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A287" s="7"/>
       <c r="B287" s="8"/>
       <c r="C287" s="9"/>
@@ -7798,7 +7801,7 @@
       <c r="T287" s="7"/>
       <c r="U287" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A288" s="7"/>
       <c r="B288" s="8"/>
       <c r="C288" s="9"/>
@@ -7821,7 +7824,7 @@
       <c r="T288" s="7"/>
       <c r="U288" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A289" s="7"/>
       <c r="B289" s="8"/>
       <c r="C289" s="9"/>
@@ -7844,7 +7847,7 @@
       <c r="T289" s="7"/>
       <c r="U289" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A290" s="7"/>
       <c r="B290" s="8"/>
       <c r="C290" s="9"/>
@@ -7867,7 +7870,7 @@
       <c r="T290" s="7"/>
       <c r="U290" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A291" s="7"/>
       <c r="B291" s="8"/>
       <c r="C291" s="9"/>
@@ -7890,7 +7893,7 @@
       <c r="T291" s="7"/>
       <c r="U291" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A292" s="7"/>
       <c r="B292" s="8"/>
       <c r="C292" s="9"/>
@@ -7913,7 +7916,7 @@
       <c r="T292" s="7"/>
       <c r="U292" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A293" s="7"/>
       <c r="B293" s="8"/>
       <c r="C293" s="9"/>
@@ -7936,7 +7939,7 @@
       <c r="T293" s="7"/>
       <c r="U293" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A294" s="7"/>
       <c r="B294" s="8"/>
       <c r="C294" s="9"/>
@@ -7959,7 +7962,7 @@
       <c r="T294" s="7"/>
       <c r="U294" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A295" s="7"/>
       <c r="B295" s="8"/>
       <c r="C295" s="9"/>
@@ -7982,7 +7985,7 @@
       <c r="T295" s="7"/>
       <c r="U295" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A296" s="7"/>
       <c r="B296" s="8"/>
       <c r="C296" s="9"/>
@@ -8005,7 +8008,7 @@
       <c r="T296" s="7"/>
       <c r="U296" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A297" s="7"/>
       <c r="B297" s="8"/>
       <c r="C297" s="9"/>
@@ -8028,7 +8031,7 @@
       <c r="T297" s="7"/>
       <c r="U297" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A298" s="7"/>
       <c r="B298" s="8"/>
       <c r="C298" s="9"/>
@@ -8051,7 +8054,7 @@
       <c r="T298" s="7"/>
       <c r="U298" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A299" s="7"/>
       <c r="B299" s="8"/>
       <c r="C299" s="9"/>
@@ -8074,7 +8077,7 @@
       <c r="T299" s="7"/>
       <c r="U299" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A300" s="7"/>
       <c r="B300" s="8"/>
       <c r="C300" s="9"/>
@@ -8097,7 +8100,7 @@
       <c r="T300" s="7"/>
       <c r="U300" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A301" s="7"/>
       <c r="B301" s="8"/>
       <c r="C301" s="9"/>
@@ -8120,7 +8123,7 @@
       <c r="T301" s="7"/>
       <c r="U301" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A302" s="7"/>
       <c r="B302" s="8"/>
       <c r="C302" s="9"/>
@@ -8143,7 +8146,7 @@
       <c r="T302" s="7"/>
       <c r="U302" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A303" s="7"/>
       <c r="B303" s="8"/>
       <c r="C303" s="9"/>
@@ -8166,7 +8169,7 @@
       <c r="T303" s="7"/>
       <c r="U303" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A304" s="7"/>
       <c r="B304" s="8"/>
       <c r="C304" s="9"/>
@@ -8189,7 +8192,7 @@
       <c r="T304" s="7"/>
       <c r="U304" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A305" s="7"/>
       <c r="B305" s="8"/>
       <c r="C305" s="9"/>
@@ -8212,7 +8215,7 @@
       <c r="T305" s="7"/>
       <c r="U305" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A306" s="7"/>
       <c r="B306" s="8"/>
       <c r="C306" s="9"/>
@@ -8235,7 +8238,7 @@
       <c r="T306" s="7"/>
       <c r="U306" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A307" s="7"/>
       <c r="B307" s="8"/>
       <c r="C307" s="9"/>
@@ -8258,7 +8261,7 @@
       <c r="T307" s="7"/>
       <c r="U307" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A308" s="7"/>
       <c r="B308" s="8"/>
       <c r="C308" s="9"/>
@@ -8281,7 +8284,7 @@
       <c r="T308" s="7"/>
       <c r="U308" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A309" s="7"/>
       <c r="B309" s="8"/>
       <c r="C309" s="9"/>
@@ -8304,7 +8307,7 @@
       <c r="T309" s="7"/>
       <c r="U309" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A310" s="7"/>
       <c r="B310" s="8"/>
       <c r="C310" s="9"/>
@@ -8327,7 +8330,7 @@
       <c r="T310" s="7"/>
       <c r="U310" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A311" s="7"/>
       <c r="B311" s="8"/>
       <c r="C311" s="9"/>
@@ -8350,7 +8353,7 @@
       <c r="T311" s="7"/>
       <c r="U311" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A312" s="7"/>
       <c r="B312" s="8"/>
       <c r="C312" s="9"/>
@@ -8373,7 +8376,7 @@
       <c r="T312" s="7"/>
       <c r="U312" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A313" s="7"/>
       <c r="B313" s="8"/>
       <c r="C313" s="9"/>
@@ -8396,7 +8399,7 @@
       <c r="T313" s="7"/>
       <c r="U313" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A314" s="7"/>
       <c r="B314" s="8"/>
       <c r="C314" s="9"/>
@@ -8419,7 +8422,7 @@
       <c r="T314" s="7"/>
       <c r="U314" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A315" s="7"/>
       <c r="B315" s="8"/>
       <c r="C315" s="9"/>
@@ -8442,7 +8445,7 @@
       <c r="T315" s="7"/>
       <c r="U315" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A316" s="7"/>
       <c r="B316" s="8"/>
       <c r="C316" s="9"/>
@@ -8465,7 +8468,7 @@
       <c r="T316" s="7"/>
       <c r="U316" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A317" s="7"/>
       <c r="B317" s="8"/>
       <c r="C317" s="9"/>
@@ -8488,7 +8491,7 @@
       <c r="T317" s="7"/>
       <c r="U317" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A318" s="7"/>
       <c r="B318" s="8"/>
       <c r="C318" s="9"/>
@@ -8511,7 +8514,7 @@
       <c r="T318" s="7"/>
       <c r="U318" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A319" s="7"/>
       <c r="B319" s="8"/>
       <c r="C319" s="9"/>
@@ -8534,7 +8537,7 @@
       <c r="T319" s="7"/>
       <c r="U319" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A320" s="7"/>
       <c r="B320" s="8"/>
       <c r="C320" s="9"/>
@@ -8557,7 +8560,7 @@
       <c r="T320" s="7"/>
       <c r="U320" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A321" s="7"/>
       <c r="B321" s="8"/>
       <c r="C321" s="9"/>
@@ -8580,7 +8583,7 @@
       <c r="T321" s="7"/>
       <c r="U321" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A322" s="7"/>
       <c r="B322" s="8"/>
       <c r="C322" s="9"/>
@@ -8603,7 +8606,7 @@
       <c r="T322" s="7"/>
       <c r="U322" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A323" s="7"/>
       <c r="B323" s="8"/>
       <c r="C323" s="9"/>
@@ -8626,7 +8629,7 @@
       <c r="T323" s="7"/>
       <c r="U323" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A324" s="7"/>
       <c r="B324" s="8"/>
       <c r="C324" s="9"/>
@@ -8649,7 +8652,7 @@
       <c r="T324" s="7"/>
       <c r="U324" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A325" s="7"/>
       <c r="B325" s="8"/>
       <c r="C325" s="9"/>
@@ -8672,7 +8675,7 @@
       <c r="T325" s="7"/>
       <c r="U325" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A326" s="7"/>
       <c r="B326" s="8"/>
       <c r="C326" s="9"/>
@@ -8695,7 +8698,7 @@
       <c r="T326" s="7"/>
       <c r="U326" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A327" s="7"/>
       <c r="B327" s="8"/>
       <c r="C327" s="9"/>
@@ -8718,7 +8721,7 @@
       <c r="T327" s="7"/>
       <c r="U327" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A328" s="7"/>
       <c r="B328" s="8"/>
       <c r="C328" s="9"/>
@@ -8741,7 +8744,7 @@
       <c r="T328" s="7"/>
       <c r="U328" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A329" s="7"/>
       <c r="B329" s="8"/>
       <c r="C329" s="9"/>
@@ -8764,7 +8767,7 @@
       <c r="T329" s="7"/>
       <c r="U329" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A330" s="7"/>
       <c r="B330" s="8"/>
       <c r="C330" s="9"/>
@@ -8787,7 +8790,7 @@
       <c r="T330" s="7"/>
       <c r="U330" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A331" s="7"/>
       <c r="B331" s="8"/>
       <c r="C331" s="9"/>
@@ -8810,7 +8813,7 @@
       <c r="T331" s="7"/>
       <c r="U331" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A332" s="7"/>
       <c r="B332" s="8"/>
       <c r="C332" s="9"/>
@@ -8833,7 +8836,7 @@
       <c r="T332" s="7"/>
       <c r="U332" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A333" s="7"/>
       <c r="B333" s="8"/>
       <c r="C333" s="9"/>
@@ -8856,7 +8859,7 @@
       <c r="T333" s="7"/>
       <c r="U333" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A334" s="7"/>
       <c r="B334" s="8"/>
       <c r="C334" s="9"/>
@@ -8879,7 +8882,7 @@
       <c r="T334" s="7"/>
       <c r="U334" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A335" s="7"/>
       <c r="B335" s="8"/>
       <c r="C335" s="9"/>
@@ -8902,7 +8905,7 @@
       <c r="T335" s="7"/>
       <c r="U335" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A336" s="7"/>
       <c r="B336" s="8"/>
       <c r="C336" s="9"/>
@@ -8925,7 +8928,7 @@
       <c r="T336" s="7"/>
       <c r="U336" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A337" s="7"/>
       <c r="B337" s="8"/>
       <c r="C337" s="9"/>
@@ -8948,7 +8951,7 @@
       <c r="T337" s="7"/>
       <c r="U337" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A338" s="7"/>
       <c r="B338" s="8"/>
       <c r="C338" s="9"/>
@@ -8971,7 +8974,7 @@
       <c r="T338" s="7"/>
       <c r="U338" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A339" s="7"/>
       <c r="B339" s="8"/>
       <c r="C339" s="9"/>
@@ -8994,7 +8997,7 @@
       <c r="T339" s="7"/>
       <c r="U339" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A340" s="7"/>
       <c r="B340" s="8"/>
       <c r="C340" s="9"/>
@@ -9017,7 +9020,7 @@
       <c r="T340" s="7"/>
       <c r="U340" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A341" s="7"/>
       <c r="B341" s="8"/>
       <c r="C341" s="9"/>
@@ -9040,7 +9043,7 @@
       <c r="T341" s="7"/>
       <c r="U341" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A342" s="7"/>
       <c r="B342" s="8"/>
       <c r="C342" s="9"/>
@@ -9063,7 +9066,7 @@
       <c r="T342" s="7"/>
       <c r="U342" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A343" s="7"/>
       <c r="B343" s="8"/>
       <c r="C343" s="9"/>
@@ -9086,7 +9089,7 @@
       <c r="T343" s="7"/>
       <c r="U343" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A344" s="7"/>
       <c r="B344" s="8"/>
       <c r="C344" s="9"/>
@@ -9109,7 +9112,7 @@
       <c r="T344" s="7"/>
       <c r="U344" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A345" s="7"/>
       <c r="B345" s="8"/>
       <c r="C345" s="9"/>
@@ -9132,7 +9135,7 @@
       <c r="T345" s="7"/>
       <c r="U345" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A346" s="7"/>
       <c r="B346" s="8"/>
       <c r="C346" s="9"/>
@@ -9155,7 +9158,7 @@
       <c r="T346" s="7"/>
       <c r="U346" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A347" s="7"/>
       <c r="B347" s="8"/>
       <c r="C347" s="9"/>
@@ -9178,7 +9181,7 @@
       <c r="T347" s="7"/>
       <c r="U347" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A348" s="7"/>
       <c r="B348" s="8"/>
       <c r="C348" s="9"/>
@@ -9201,7 +9204,7 @@
       <c r="T348" s="7"/>
       <c r="U348" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A349" s="7"/>
       <c r="B349" s="8"/>
       <c r="C349" s="9"/>
@@ -9224,7 +9227,7 @@
       <c r="T349" s="7"/>
       <c r="U349" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A350" s="7"/>
       <c r="B350" s="8"/>
       <c r="C350" s="9"/>
@@ -9247,7 +9250,7 @@
       <c r="T350" s="7"/>
       <c r="U350" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A351" s="7"/>
       <c r="B351" s="8"/>
       <c r="C351" s="9"/>
@@ -9270,7 +9273,7 @@
       <c r="T351" s="7"/>
       <c r="U351" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A352" s="7"/>
       <c r="B352" s="8"/>
       <c r="C352" s="9"/>
@@ -9293,7 +9296,7 @@
       <c r="T352" s="7"/>
       <c r="U352" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A353" s="7"/>
       <c r="B353" s="8"/>
       <c r="C353" s="9"/>
@@ -9316,7 +9319,7 @@
       <c r="T353" s="7"/>
       <c r="U353" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A354" s="7"/>
       <c r="B354" s="8"/>
       <c r="C354" s="9"/>
@@ -9339,7 +9342,7 @@
       <c r="T354" s="7"/>
       <c r="U354" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A355" s="7"/>
       <c r="B355" s="8"/>
       <c r="C355" s="9"/>
@@ -9362,7 +9365,7 @@
       <c r="T355" s="7"/>
       <c r="U355" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A356" s="7"/>
       <c r="B356" s="8"/>
       <c r="C356" s="9"/>
@@ -9385,7 +9388,7 @@
       <c r="T356" s="7"/>
       <c r="U356" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A357" s="7"/>
       <c r="B357" s="8"/>
       <c r="C357" s="9"/>
@@ -9408,7 +9411,7 @@
       <c r="T357" s="7"/>
       <c r="U357" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A358" s="7"/>
       <c r="B358" s="8"/>
       <c r="C358" s="9"/>
@@ -9431,7 +9434,7 @@
       <c r="T358" s="7"/>
       <c r="U358" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A359" s="7"/>
       <c r="B359" s="8"/>
       <c r="C359" s="9"/>
@@ -9454,7 +9457,7 @@
       <c r="T359" s="7"/>
       <c r="U359" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A360" s="7"/>
       <c r="B360" s="8"/>
       <c r="C360" s="9"/>
@@ -9477,7 +9480,7 @@
       <c r="T360" s="7"/>
       <c r="U360" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A361" s="7"/>
       <c r="B361" s="8"/>
       <c r="C361" s="9"/>
@@ -9500,7 +9503,7 @@
       <c r="T361" s="7"/>
       <c r="U361" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A362" s="7"/>
       <c r="B362" s="8"/>
       <c r="C362" s="9"/>
@@ -9523,7 +9526,7 @@
       <c r="T362" s="7"/>
       <c r="U362" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A363" s="7"/>
       <c r="B363" s="8"/>
       <c r="C363" s="9"/>
@@ -9546,7 +9549,7 @@
       <c r="T363" s="7"/>
       <c r="U363" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A364" s="7"/>
       <c r="B364" s="8"/>
       <c r="C364" s="9"/>
@@ -9569,7 +9572,7 @@
       <c r="T364" s="7"/>
       <c r="U364" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A365" s="7"/>
       <c r="B365" s="8"/>
       <c r="C365" s="9"/>
@@ -9592,7 +9595,7 @@
       <c r="T365" s="7"/>
       <c r="U365" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A366" s="7"/>
       <c r="B366" s="8"/>
       <c r="C366" s="9"/>
@@ -9615,7 +9618,7 @@
       <c r="T366" s="7"/>
       <c r="U366" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A367" s="7"/>
       <c r="B367" s="8"/>
       <c r="C367" s="9"/>
@@ -9638,7 +9641,7 @@
       <c r="T367" s="7"/>
       <c r="U367" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A368" s="7"/>
       <c r="B368" s="8"/>
       <c r="C368" s="9"/>
@@ -9661,7 +9664,7 @@
       <c r="T368" s="7"/>
       <c r="U368" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A369" s="7"/>
       <c r="B369" s="8"/>
       <c r="C369" s="9"/>
@@ -9684,7 +9687,7 @@
       <c r="T369" s="7"/>
       <c r="U369" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A370" s="7"/>
       <c r="B370" s="8"/>
       <c r="C370" s="9"/>
@@ -9707,7 +9710,7 @@
       <c r="T370" s="7"/>
       <c r="U370" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A371" s="7"/>
       <c r="B371" s="8"/>
       <c r="C371" s="9"/>
@@ -9730,7 +9733,7 @@
       <c r="T371" s="7"/>
       <c r="U371" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A372" s="7"/>
       <c r="B372" s="8"/>
       <c r="C372" s="9"/>
@@ -9753,7 +9756,7 @@
       <c r="T372" s="7"/>
       <c r="U372" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A373" s="7"/>
       <c r="B373" s="8"/>
       <c r="C373" s="9"/>
@@ -9776,7 +9779,7 @@
       <c r="T373" s="7"/>
       <c r="U373" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A374" s="7"/>
       <c r="B374" s="8"/>
       <c r="C374" s="9"/>
@@ -9799,7 +9802,7 @@
       <c r="T374" s="7"/>
       <c r="U374" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A375" s="7"/>
       <c r="B375" s="8"/>
       <c r="C375" s="9"/>
@@ -9822,7 +9825,7 @@
       <c r="T375" s="7"/>
       <c r="U375" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A376" s="7"/>
       <c r="B376" s="8"/>
       <c r="C376" s="9"/>
@@ -9845,7 +9848,7 @@
       <c r="T376" s="7"/>
       <c r="U376" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A377" s="7"/>
       <c r="B377" s="8"/>
       <c r="C377" s="9"/>
@@ -9868,7 +9871,7 @@
       <c r="T377" s="7"/>
       <c r="U377" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A378" s="7"/>
       <c r="B378" s="8"/>
       <c r="C378" s="9"/>
@@ -9891,7 +9894,7 @@
       <c r="T378" s="7"/>
       <c r="U378" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A379" s="7"/>
       <c r="B379" s="8"/>
       <c r="C379" s="9"/>
@@ -9914,7 +9917,7 @@
       <c r="T379" s="7"/>
       <c r="U379" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A380" s="7"/>
       <c r="B380" s="8"/>
       <c r="C380" s="9"/>
@@ -9937,7 +9940,7 @@
       <c r="T380" s="7"/>
       <c r="U380" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A381" s="7"/>
       <c r="B381" s="8"/>
       <c r="C381" s="9"/>
@@ -9960,7 +9963,7 @@
       <c r="T381" s="7"/>
       <c r="U381" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A382" s="7"/>
       <c r="B382" s="8"/>
       <c r="C382" s="9"/>
@@ -9983,7 +9986,7 @@
       <c r="T382" s="7"/>
       <c r="U382" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A383" s="7"/>
       <c r="B383" s="8"/>
       <c r="C383" s="9"/>
@@ -10006,7 +10009,7 @@
       <c r="T383" s="7"/>
       <c r="U383" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A384" s="7"/>
       <c r="B384" s="8"/>
       <c r="C384" s="9"/>
@@ -10029,7 +10032,7 @@
       <c r="T384" s="7"/>
       <c r="U384" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A385" s="7"/>
       <c r="B385" s="8"/>
       <c r="C385" s="9"/>
@@ -10052,7 +10055,7 @@
       <c r="T385" s="7"/>
       <c r="U385" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A386" s="7"/>
       <c r="B386" s="8"/>
       <c r="C386" s="9"/>
@@ -10075,7 +10078,7 @@
       <c r="T386" s="7"/>
       <c r="U386" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A387" s="7"/>
       <c r="B387" s="8"/>
       <c r="C387" s="9"/>
@@ -10098,7 +10101,7 @@
       <c r="T387" s="7"/>
       <c r="U387" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A388" s="7"/>
       <c r="B388" s="8"/>
       <c r="C388" s="9"/>
@@ -10121,7 +10124,7 @@
       <c r="T388" s="7"/>
       <c r="U388" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A389" s="7"/>
       <c r="B389" s="8"/>
       <c r="C389" s="9"/>
@@ -10144,7 +10147,7 @@
       <c r="T389" s="7"/>
       <c r="U389" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A390" s="7"/>
       <c r="B390" s="8"/>
       <c r="C390" s="9"/>
@@ -10167,7 +10170,7 @@
       <c r="T390" s="7"/>
       <c r="U390" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A391" s="7"/>
       <c r="B391" s="8"/>
       <c r="C391" s="9"/>
@@ -10190,7 +10193,7 @@
       <c r="T391" s="7"/>
       <c r="U391" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A392" s="7"/>
       <c r="B392" s="8"/>
       <c r="C392" s="9"/>
@@ -10213,7 +10216,7 @@
       <c r="T392" s="7"/>
       <c r="U392" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A393" s="7"/>
       <c r="B393" s="8"/>
       <c r="C393" s="9"/>
@@ -10236,7 +10239,7 @@
       <c r="T393" s="7"/>
       <c r="U393" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A394" s="7"/>
       <c r="B394" s="8"/>
       <c r="C394" s="9"/>
@@ -10259,7 +10262,7 @@
       <c r="T394" s="7"/>
       <c r="U394" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A395" s="7"/>
       <c r="B395" s="8"/>
       <c r="C395" s="9"/>
@@ -10282,7 +10285,7 @@
       <c r="T395" s="7"/>
       <c r="U395" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A396" s="7"/>
       <c r="B396" s="8"/>
       <c r="C396" s="9"/>
@@ -10305,7 +10308,7 @@
       <c r="T396" s="7"/>
       <c r="U396" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A397" s="7"/>
       <c r="B397" s="8"/>
       <c r="C397" s="9"/>
@@ -10328,7 +10331,7 @@
       <c r="T397" s="7"/>
       <c r="U397" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A398" s="7"/>
       <c r="B398" s="8"/>
       <c r="C398" s="9"/>
@@ -10351,7 +10354,7 @@
       <c r="T398" s="7"/>
       <c r="U398" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A399" s="7"/>
       <c r="B399" s="8"/>
       <c r="C399" s="9"/>
@@ -10374,7 +10377,7 @@
       <c r="T399" s="7"/>
       <c r="U399" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A400" s="7"/>
       <c r="B400" s="8"/>
       <c r="C400" s="9"/>
@@ -10397,7 +10400,7 @@
       <c r="T400" s="7"/>
       <c r="U400" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A401" s="7"/>
       <c r="B401" s="8"/>
       <c r="C401" s="9"/>
@@ -10420,7 +10423,7 @@
       <c r="T401" s="7"/>
       <c r="U401" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A402" s="7"/>
       <c r="B402" s="8"/>
       <c r="C402" s="9"/>
@@ -10443,7 +10446,7 @@
       <c r="T402" s="7"/>
       <c r="U402" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A403" s="7"/>
       <c r="B403" s="8"/>
       <c r="C403" s="9"/>
@@ -10466,7 +10469,7 @@
       <c r="T403" s="7"/>
       <c r="U403" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A404" s="7"/>
       <c r="B404" s="8"/>
       <c r="C404" s="9"/>
@@ -10489,7 +10492,7 @@
       <c r="T404" s="7"/>
       <c r="U404" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A405" s="7"/>
       <c r="B405" s="8"/>
       <c r="C405" s="9"/>
@@ -10512,7 +10515,7 @@
       <c r="T405" s="7"/>
       <c r="U405" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A406" s="7"/>
       <c r="B406" s="8"/>
       <c r="C406" s="9"/>
@@ -10535,7 +10538,7 @@
       <c r="T406" s="7"/>
       <c r="U406" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A407" s="7"/>
       <c r="B407" s="8"/>
       <c r="C407" s="9"/>
@@ -10558,7 +10561,7 @@
       <c r="T407" s="7"/>
       <c r="U407" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A408" s="7"/>
       <c r="B408" s="8"/>
       <c r="C408" s="9"/>
@@ -10581,7 +10584,7 @@
       <c r="T408" s="7"/>
       <c r="U408" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A409" s="7"/>
       <c r="B409" s="8"/>
       <c r="C409" s="9"/>
@@ -10604,7 +10607,7 @@
       <c r="T409" s="7"/>
       <c r="U409" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A410" s="7"/>
       <c r="B410" s="8"/>
       <c r="C410" s="9"/>
@@ -10627,7 +10630,7 @@
       <c r="T410" s="7"/>
       <c r="U410" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A411" s="7"/>
       <c r="B411" s="8"/>
       <c r="C411" s="9"/>
@@ -10650,7 +10653,7 @@
       <c r="T411" s="7"/>
       <c r="U411" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A412" s="7"/>
       <c r="B412" s="8"/>
       <c r="C412" s="9"/>
@@ -10673,7 +10676,7 @@
       <c r="T412" s="7"/>
       <c r="U412" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A413" s="7"/>
       <c r="B413" s="8"/>
       <c r="C413" s="9"/>
@@ -10696,7 +10699,7 @@
       <c r="T413" s="7"/>
       <c r="U413" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A414" s="7"/>
       <c r="B414" s="8"/>
       <c r="C414" s="9"/>
@@ -10719,7 +10722,7 @@
       <c r="T414" s="7"/>
       <c r="U414" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A415" s="7"/>
       <c r="B415" s="8"/>
       <c r="C415" s="9"/>
@@ -10742,7 +10745,7 @@
       <c r="T415" s="7"/>
       <c r="U415" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A416" s="7"/>
       <c r="B416" s="8"/>
       <c r="C416" s="9"/>
@@ -10765,7 +10768,7 @@
       <c r="T416" s="7"/>
       <c r="U416" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A417" s="7"/>
       <c r="B417" s="8"/>
       <c r="C417" s="9"/>
@@ -10788,7 +10791,7 @@
       <c r="T417" s="7"/>
       <c r="U417" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A418" s="7"/>
       <c r="B418" s="8"/>
       <c r="C418" s="9"/>
@@ -10811,7 +10814,7 @@
       <c r="T418" s="7"/>
       <c r="U418" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A419" s="7"/>
       <c r="B419" s="8"/>
       <c r="C419" s="9"/>
@@ -10834,7 +10837,7 @@
       <c r="T419" s="7"/>
       <c r="U419" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A420" s="7"/>
       <c r="B420" s="8"/>
       <c r="C420" s="9"/>
@@ -10857,7 +10860,7 @@
       <c r="T420" s="7"/>
       <c r="U420" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A421" s="7"/>
       <c r="B421" s="8"/>
       <c r="C421" s="9"/>
@@ -10880,7 +10883,7 @@
       <c r="T421" s="7"/>
       <c r="U421" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A422" s="7"/>
       <c r="B422" s="8"/>
       <c r="C422" s="9"/>
@@ -10903,7 +10906,7 @@
       <c r="T422" s="7"/>
       <c r="U422" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A423" s="7"/>
       <c r="B423" s="8"/>
       <c r="C423" s="9"/>
@@ -10926,7 +10929,7 @@
       <c r="T423" s="7"/>
       <c r="U423" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A424" s="7"/>
       <c r="B424" s="8"/>
       <c r="C424" s="9"/>
@@ -10949,7 +10952,7 @@
       <c r="T424" s="7"/>
       <c r="U424" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A425" s="7"/>
       <c r="B425" s="8"/>
       <c r="C425" s="9"/>
@@ -10972,7 +10975,7 @@
       <c r="T425" s="7"/>
       <c r="U425" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A426" s="7"/>
       <c r="B426" s="8"/>
       <c r="C426" s="9"/>
@@ -10995,7 +10998,7 @@
       <c r="T426" s="7"/>
       <c r="U426" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A427" s="7"/>
       <c r="B427" s="8"/>
       <c r="C427" s="9"/>
@@ -11018,7 +11021,7 @@
       <c r="T427" s="7"/>
       <c r="U427" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A428" s="7"/>
       <c r="B428" s="8"/>
       <c r="C428" s="9"/>
@@ -11041,7 +11044,7 @@
       <c r="T428" s="7"/>
       <c r="U428" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A429" s="7"/>
       <c r="B429" s="8"/>
       <c r="C429" s="9"/>
@@ -11064,7 +11067,7 @@
       <c r="T429" s="7"/>
       <c r="U429" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A430" s="7"/>
       <c r="B430" s="8"/>
       <c r="C430" s="9"/>
@@ -11087,7 +11090,7 @@
       <c r="T430" s="7"/>
       <c r="U430" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A431" s="7"/>
       <c r="B431" s="8"/>
       <c r="C431" s="9"/>
@@ -11110,7 +11113,7 @@
       <c r="T431" s="7"/>
       <c r="U431" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A432" s="7"/>
       <c r="B432" s="8"/>
       <c r="C432" s="9"/>
@@ -11133,7 +11136,7 @@
       <c r="T432" s="7"/>
       <c r="U432" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A433" s="7"/>
       <c r="B433" s="8"/>
       <c r="C433" s="9"/>
@@ -11156,7 +11159,7 @@
       <c r="T433" s="7"/>
       <c r="U433" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A434" s="7"/>
       <c r="B434" s="8"/>
       <c r="C434" s="9"/>
@@ -11179,7 +11182,7 @@
       <c r="T434" s="7"/>
       <c r="U434" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A435" s="7"/>
       <c r="B435" s="8"/>
       <c r="C435" s="9"/>
@@ -11202,7 +11205,7 @@
       <c r="T435" s="7"/>
       <c r="U435" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A436" s="7"/>
       <c r="B436" s="8"/>
       <c r="C436" s="9"/>
@@ -11225,7 +11228,7 @@
       <c r="T436" s="7"/>
       <c r="U436" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A437" s="7"/>
       <c r="B437" s="8"/>
       <c r="C437" s="9"/>
@@ -11248,7 +11251,7 @@
       <c r="T437" s="7"/>
       <c r="U437" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A438" s="7"/>
       <c r="B438" s="8"/>
       <c r="C438" s="9"/>
@@ -11271,7 +11274,7 @@
       <c r="T438" s="7"/>
       <c r="U438" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A439" s="7"/>
       <c r="B439" s="8"/>
       <c r="C439" s="9"/>
@@ -11294,7 +11297,7 @@
       <c r="T439" s="7"/>
       <c r="U439" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A440" s="7"/>
       <c r="B440" s="8"/>
       <c r="C440" s="9"/>
@@ -11317,7 +11320,7 @@
       <c r="T440" s="7"/>
       <c r="U440" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A441" s="7"/>
       <c r="B441" s="8"/>
       <c r="C441" s="9"/>
@@ -11340,7 +11343,7 @@
       <c r="T441" s="7"/>
       <c r="U441" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A442" s="7"/>
       <c r="B442" s="8"/>
       <c r="C442" s="9"/>
@@ -11363,7 +11366,7 @@
       <c r="T442" s="7"/>
       <c r="U442" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A443" s="7"/>
       <c r="B443" s="8"/>
       <c r="C443" s="9"/>
@@ -11386,7 +11389,7 @@
       <c r="T443" s="7"/>
       <c r="U443" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A444" s="7"/>
       <c r="B444" s="8"/>
       <c r="C444" s="9"/>
@@ -11409,7 +11412,7 @@
       <c r="T444" s="7"/>
       <c r="U444" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A445" s="7"/>
       <c r="B445" s="8"/>
       <c r="C445" s="9"/>
@@ -11432,7 +11435,7 @@
       <c r="T445" s="7"/>
       <c r="U445" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A446" s="7"/>
       <c r="B446" s="8"/>
       <c r="C446" s="9"/>
@@ -11455,7 +11458,7 @@
       <c r="T446" s="7"/>
       <c r="U446" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A447" s="7"/>
       <c r="B447" s="8"/>
       <c r="C447" s="9"/>
@@ -11478,7 +11481,7 @@
       <c r="T447" s="7"/>
       <c r="U447" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A448" s="7"/>
       <c r="B448" s="8"/>
       <c r="C448" s="9"/>
@@ -11501,7 +11504,7 @@
       <c r="T448" s="7"/>
       <c r="U448" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A449" s="7"/>
       <c r="B449" s="8"/>
       <c r="C449" s="9"/>
@@ -11524,7 +11527,7 @@
       <c r="T449" s="7"/>
       <c r="U449" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A450" s="7"/>
       <c r="B450" s="8"/>
       <c r="C450" s="9"/>
@@ -11547,7 +11550,7 @@
       <c r="T450" s="7"/>
       <c r="U450" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A451" s="7"/>
       <c r="B451" s="8"/>
       <c r="C451" s="9"/>
@@ -11570,7 +11573,7 @@
       <c r="T451" s="7"/>
       <c r="U451" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A452" s="7"/>
       <c r="B452" s="8"/>
       <c r="C452" s="9"/>
@@ -11593,7 +11596,7 @@
       <c r="T452" s="7"/>
       <c r="U452" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A453" s="7"/>
       <c r="B453" s="8"/>
       <c r="C453" s="9"/>
@@ -11616,7 +11619,7 @@
       <c r="T453" s="7"/>
       <c r="U453" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A454" s="7"/>
       <c r="B454" s="8"/>
       <c r="C454" s="9"/>
@@ -11639,7 +11642,7 @@
       <c r="T454" s="7"/>
       <c r="U454" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A455" s="7"/>
       <c r="B455" s="8"/>
       <c r="C455" s="9"/>
@@ -11662,7 +11665,7 @@
       <c r="T455" s="7"/>
       <c r="U455" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A456" s="7"/>
       <c r="B456" s="8"/>
       <c r="C456" s="9"/>
@@ -11685,7 +11688,7 @@
       <c r="T456" s="7"/>
       <c r="U456" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A457" s="7"/>
       <c r="B457" s="8"/>
       <c r="C457" s="9"/>
@@ -11708,7 +11711,7 @@
       <c r="T457" s="7"/>
       <c r="U457" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A458" s="7"/>
       <c r="B458" s="8"/>
       <c r="C458" s="9"/>
@@ -11731,7 +11734,7 @@
       <c r="T458" s="7"/>
       <c r="U458" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A459" s="7"/>
       <c r="B459" s="8"/>
       <c r="C459" s="9"/>
@@ -11754,7 +11757,7 @@
       <c r="T459" s="7"/>
       <c r="U459" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A460" s="7"/>
       <c r="B460" s="8"/>
       <c r="C460" s="9"/>
@@ -11777,7 +11780,7 @@
       <c r="T460" s="7"/>
       <c r="U460" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A461" s="7"/>
       <c r="B461" s="8"/>
       <c r="C461" s="9"/>
@@ -11800,7 +11803,7 @@
       <c r="T461" s="7"/>
       <c r="U461" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A462" s="7"/>
       <c r="B462" s="8"/>
       <c r="C462" s="9"/>
@@ -11823,7 +11826,7 @@
       <c r="T462" s="7"/>
       <c r="U462" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A463" s="7"/>
       <c r="B463" s="8"/>
       <c r="C463" s="9"/>
@@ -11846,7 +11849,7 @@
       <c r="T463" s="7"/>
       <c r="U463" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A464" s="7"/>
       <c r="B464" s="8"/>
       <c r="C464" s="9"/>
@@ -11869,7 +11872,7 @@
       <c r="T464" s="7"/>
       <c r="U464" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A465" s="7"/>
       <c r="B465" s="8"/>
       <c r="C465" s="9"/>
@@ -11892,7 +11895,7 @@
       <c r="T465" s="7"/>
       <c r="U465" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A466" s="7"/>
       <c r="B466" s="8"/>
       <c r="C466" s="9"/>
@@ -11915,7 +11918,7 @@
       <c r="T466" s="7"/>
       <c r="U466" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A467" s="7"/>
       <c r="B467" s="8"/>
       <c r="C467" s="9"/>
@@ -11938,7 +11941,7 @@
       <c r="T467" s="7"/>
       <c r="U467" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A468" s="7"/>
       <c r="B468" s="8"/>
       <c r="C468" s="9"/>
@@ -11961,7 +11964,7 @@
       <c r="T468" s="7"/>
       <c r="U468" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A469" s="7"/>
       <c r="B469" s="8"/>
       <c r="C469" s="9"/>
@@ -11984,7 +11987,7 @@
       <c r="T469" s="7"/>
       <c r="U469" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A470" s="7"/>
       <c r="B470" s="8"/>
       <c r="C470" s="9"/>
@@ -12007,7 +12010,7 @@
       <c r="T470" s="7"/>
       <c r="U470" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A471" s="7"/>
       <c r="B471" s="8"/>
       <c r="C471" s="9"/>
@@ -12030,7 +12033,7 @@
       <c r="T471" s="7"/>
       <c r="U471" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A472" s="7"/>
       <c r="B472" s="8"/>
       <c r="C472" s="9"/>
@@ -12053,7 +12056,7 @@
       <c r="T472" s="7"/>
       <c r="U472" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A473" s="7"/>
       <c r="B473" s="8"/>
       <c r="C473" s="9"/>
@@ -12076,7 +12079,7 @@
       <c r="T473" s="7"/>
       <c r="U473" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A474" s="7"/>
       <c r="B474" s="8"/>
       <c r="C474" s="9"/>
@@ -12099,7 +12102,7 @@
       <c r="T474" s="7"/>
       <c r="U474" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A475" s="7"/>
       <c r="B475" s="8"/>
       <c r="C475" s="9"/>
@@ -12122,7 +12125,7 @@
       <c r="T475" s="7"/>
       <c r="U475" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A476" s="7"/>
       <c r="B476" s="8"/>
       <c r="C476" s="9"/>
@@ -12145,7 +12148,7 @@
       <c r="T476" s="7"/>
       <c r="U476" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A477" s="7"/>
       <c r="B477" s="8"/>
       <c r="C477" s="9"/>
@@ -12168,7 +12171,7 @@
       <c r="T477" s="7"/>
       <c r="U477" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A478" s="7"/>
       <c r="B478" s="8"/>
       <c r="C478" s="9"/>
@@ -12191,7 +12194,7 @@
       <c r="T478" s="7"/>
       <c r="U478" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A479" s="7"/>
       <c r="B479" s="8"/>
       <c r="C479" s="9"/>
@@ -12214,7 +12217,7 @@
       <c r="T479" s="7"/>
       <c r="U479" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A480" s="7"/>
       <c r="B480" s="8"/>
       <c r="C480" s="9"/>
@@ -12237,7 +12240,7 @@
       <c r="T480" s="7"/>
       <c r="U480" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A481" s="7"/>
       <c r="B481" s="8"/>
       <c r="C481" s="9"/>
@@ -12260,7 +12263,7 @@
       <c r="T481" s="7"/>
       <c r="U481" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A482" s="7"/>
       <c r="B482" s="8"/>
       <c r="C482" s="9"/>
@@ -12283,7 +12286,7 @@
       <c r="T482" s="7"/>
       <c r="U482" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A483" s="7"/>
       <c r="B483" s="8"/>
       <c r="C483" s="9"/>
@@ -12306,7 +12309,7 @@
       <c r="T483" s="7"/>
       <c r="U483" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A484" s="7"/>
       <c r="B484" s="8"/>
       <c r="C484" s="9"/>
@@ -12329,7 +12332,7 @@
       <c r="T484" s="7"/>
       <c r="U484" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A485" s="7"/>
       <c r="B485" s="8"/>
       <c r="C485" s="9"/>
@@ -12352,7 +12355,7 @@
       <c r="T485" s="7"/>
       <c r="U485" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A486" s="7"/>
       <c r="B486" s="8"/>
       <c r="C486" s="9"/>
@@ -12375,7 +12378,7 @@
       <c r="T486" s="7"/>
       <c r="U486" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A487" s="7"/>
       <c r="B487" s="8"/>
       <c r="C487" s="9"/>
@@ -12398,7 +12401,7 @@
       <c r="T487" s="7"/>
       <c r="U487" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A488" s="7"/>
       <c r="B488" s="8"/>
       <c r="C488" s="9"/>
@@ -12421,7 +12424,7 @@
       <c r="T488" s="7"/>
       <c r="U488" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A489" s="7"/>
       <c r="B489" s="8"/>
       <c r="C489" s="9"/>
@@ -12444,7 +12447,7 @@
       <c r="T489" s="7"/>
       <c r="U489" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A490" s="7"/>
       <c r="B490" s="8"/>
       <c r="C490" s="9"/>
@@ -12467,7 +12470,7 @@
       <c r="T490" s="7"/>
       <c r="U490" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A491" s="7"/>
       <c r="B491" s="8"/>
       <c r="C491" s="9"/>
@@ -12490,7 +12493,7 @@
       <c r="T491" s="7"/>
       <c r="U491" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A492" s="7"/>
       <c r="B492" s="8"/>
       <c r="C492" s="9"/>
@@ -12513,7 +12516,7 @@
       <c r="T492" s="7"/>
       <c r="U492" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A493" s="7"/>
       <c r="B493" s="8"/>
       <c r="C493" s="9"/>
@@ -12536,7 +12539,7 @@
       <c r="T493" s="7"/>
       <c r="U493" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A494" s="7"/>
       <c r="B494" s="8"/>
       <c r="C494" s="9"/>
@@ -12559,7 +12562,7 @@
       <c r="T494" s="7"/>
       <c r="U494" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A495" s="7"/>
       <c r="B495" s="8"/>
       <c r="C495" s="9"/>
@@ -12582,7 +12585,7 @@
       <c r="T495" s="7"/>
       <c r="U495" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A496" s="7"/>
       <c r="B496" s="8"/>
       <c r="C496" s="9"/>
@@ -12605,7 +12608,7 @@
       <c r="T496" s="7"/>
       <c r="U496" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A497" s="7"/>
       <c r="B497" s="8"/>
       <c r="C497" s="9"/>
@@ -12628,7 +12631,7 @@
       <c r="T497" s="7"/>
       <c r="U497" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A498" s="7"/>
       <c r="B498" s="8"/>
       <c r="C498" s="9"/>
@@ -12651,7 +12654,7 @@
       <c r="T498" s="7"/>
       <c r="U498" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A499" s="7"/>
       <c r="B499" s="8"/>
       <c r="C499" s="9"/>
@@ -12674,7 +12677,7 @@
       <c r="T499" s="7"/>
       <c r="U499" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A500" s="7"/>
       <c r="B500" s="8"/>
       <c r="C500" s="9"/>
@@ -12697,7 +12700,7 @@
       <c r="T500" s="7"/>
       <c r="U500" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A501" s="7"/>
       <c r="B501" s="8"/>
       <c r="C501" s="9"/>
@@ -12720,7 +12723,7 @@
       <c r="T501" s="7"/>
       <c r="U501" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A502" s="7"/>
       <c r="B502" s="8"/>
       <c r="C502" s="9"/>
@@ -12743,7 +12746,7 @@
       <c r="T502" s="7"/>
       <c r="U502" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A503" s="7"/>
       <c r="B503" s="8"/>
       <c r="C503" s="9"/>
@@ -12766,7 +12769,7 @@
       <c r="T503" s="7"/>
       <c r="U503" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A504" s="7"/>
       <c r="B504" s="8"/>
       <c r="C504" s="9"/>
@@ -12789,7 +12792,7 @@
       <c r="T504" s="7"/>
       <c r="U504" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A505" s="7"/>
       <c r="B505" s="8"/>
       <c r="C505" s="9"/>
@@ -12812,7 +12815,7 @@
       <c r="T505" s="7"/>
       <c r="U505" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A506" s="7"/>
       <c r="B506" s="8"/>
       <c r="C506" s="9"/>
@@ -12835,7 +12838,7 @@
       <c r="T506" s="7"/>
       <c r="U506" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A507" s="7"/>
       <c r="B507" s="8"/>
       <c r="C507" s="9"/>
@@ -12858,7 +12861,7 @@
       <c r="T507" s="7"/>
       <c r="U507" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A508" s="7"/>
       <c r="B508" s="8"/>
       <c r="C508" s="9"/>
@@ -12881,7 +12884,7 @@
       <c r="T508" s="7"/>
       <c r="U508" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A509" s="7"/>
       <c r="B509" s="8"/>
       <c r="C509" s="9"/>
@@ -12904,7 +12907,7 @@
       <c r="T509" s="7"/>
       <c r="U509" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A510" s="7"/>
       <c r="B510" s="8"/>
       <c r="C510" s="9"/>
@@ -12927,7 +12930,7 @@
       <c r="T510" s="7"/>
       <c r="U510" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A511" s="7"/>
       <c r="B511" s="8"/>
       <c r="C511" s="9"/>
@@ -12950,7 +12953,7 @@
       <c r="T511" s="7"/>
       <c r="U511" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A512" s="7"/>
       <c r="B512" s="8"/>
       <c r="C512" s="9"/>
@@ -12973,7 +12976,7 @@
       <c r="T512" s="7"/>
       <c r="U512" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A513" s="7"/>
       <c r="B513" s="8"/>
       <c r="C513" s="9"/>
@@ -12996,7 +12999,7 @@
       <c r="T513" s="7"/>
       <c r="U513" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A514" s="7"/>
       <c r="B514" s="8"/>
       <c r="C514" s="9"/>
@@ -13019,7 +13022,7 @@
       <c r="T514" s="7"/>
       <c r="U514" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A515" s="7"/>
       <c r="B515" s="8"/>
       <c r="C515" s="9"/>
@@ -13042,7 +13045,7 @@
       <c r="T515" s="7"/>
       <c r="U515" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A516" s="7"/>
       <c r="B516" s="8"/>
       <c r="C516" s="9"/>
@@ -13065,7 +13068,7 @@
       <c r="T516" s="7"/>
       <c r="U516" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A517" s="7"/>
       <c r="B517" s="8"/>
       <c r="C517" s="9"/>
@@ -13088,7 +13091,7 @@
       <c r="T517" s="7"/>
       <c r="U517" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A518" s="7"/>
       <c r="B518" s="8"/>
       <c r="C518" s="9"/>
@@ -13111,7 +13114,7 @@
       <c r="T518" s="7"/>
       <c r="U518" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A519" s="7"/>
       <c r="B519" s="8"/>
       <c r="C519" s="9"/>
@@ -13134,7 +13137,7 @@
       <c r="T519" s="7"/>
       <c r="U519" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A520" s="7"/>
       <c r="B520" s="8"/>
       <c r="C520" s="9"/>
@@ -13157,7 +13160,7 @@
       <c r="T520" s="7"/>
       <c r="U520" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A521" s="7"/>
       <c r="B521" s="8"/>
       <c r="C521" s="9"/>
@@ -13180,7 +13183,7 @@
       <c r="T521" s="7"/>
       <c r="U521" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A522" s="7"/>
       <c r="B522" s="8"/>
       <c r="C522" s="9"/>
@@ -13203,7 +13206,7 @@
       <c r="T522" s="7"/>
       <c r="U522" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A523" s="7"/>
       <c r="B523" s="8"/>
       <c r="C523" s="9"/>
@@ -13226,7 +13229,7 @@
       <c r="T523" s="7"/>
       <c r="U523" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A524" s="7"/>
       <c r="B524" s="8"/>
       <c r="C524" s="9"/>
@@ -13249,7 +13252,7 @@
       <c r="T524" s="7"/>
       <c r="U524" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A525" s="7"/>
       <c r="B525" s="8"/>
       <c r="C525" s="9"/>
@@ -13272,7 +13275,7 @@
       <c r="T525" s="7"/>
       <c r="U525" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A526" s="7"/>
       <c r="B526" s="8"/>
       <c r="C526" s="9"/>
@@ -13295,7 +13298,7 @@
       <c r="T526" s="7"/>
       <c r="U526" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A527" s="7"/>
       <c r="B527" s="8"/>
       <c r="C527" s="9"/>
@@ -13318,7 +13321,7 @@
       <c r="T527" s="7"/>
       <c r="U527" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A528" s="7"/>
       <c r="B528" s="8"/>
       <c r="C528" s="9"/>
@@ -13341,7 +13344,7 @@
       <c r="T528" s="7"/>
       <c r="U528" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A529" s="7"/>
       <c r="B529" s="8"/>
       <c r="C529" s="9"/>
@@ -13364,7 +13367,7 @@
       <c r="T529" s="7"/>
       <c r="U529" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A530" s="7"/>
       <c r="B530" s="8"/>
       <c r="C530" s="9"/>
@@ -13387,7 +13390,7 @@
       <c r="T530" s="7"/>
       <c r="U530" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A531" s="7"/>
       <c r="B531" s="8"/>
       <c r="C531" s="9"/>
@@ -13410,7 +13413,7 @@
       <c r="T531" s="7"/>
       <c r="U531" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A532" s="7"/>
       <c r="B532" s="8"/>
       <c r="C532" s="9"/>
@@ -13433,7 +13436,7 @@
       <c r="T532" s="7"/>
       <c r="U532" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A533" s="7"/>
       <c r="B533" s="8"/>
       <c r="C533" s="9"/>
@@ -13456,7 +13459,7 @@
       <c r="T533" s="7"/>
       <c r="U533" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A534" s="7"/>
       <c r="B534" s="8"/>
       <c r="C534" s="9"/>
@@ -13479,7 +13482,7 @@
       <c r="T534" s="7"/>
       <c r="U534" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A535" s="7"/>
       <c r="B535" s="8"/>
       <c r="C535" s="9"/>
@@ -13502,7 +13505,7 @@
       <c r="T535" s="7"/>
       <c r="U535" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A536" s="7"/>
       <c r="B536" s="8"/>
       <c r="C536" s="9"/>
@@ -13525,7 +13528,7 @@
       <c r="T536" s="7"/>
       <c r="U536" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A537" s="7"/>
       <c r="B537" s="8"/>
       <c r="C537" s="9"/>
@@ -13548,7 +13551,7 @@
       <c r="T537" s="7"/>
       <c r="U537" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A538" s="7"/>
       <c r="B538" s="8"/>
       <c r="C538" s="9"/>
@@ -13571,7 +13574,7 @@
       <c r="T538" s="7"/>
       <c r="U538" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A539" s="7"/>
       <c r="B539" s="8"/>
       <c r="C539" s="9"/>
@@ -13594,7 +13597,7 @@
       <c r="T539" s="7"/>
       <c r="U539" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A540" s="7"/>
       <c r="B540" s="8"/>
       <c r="C540" s="9"/>
@@ -13617,7 +13620,7 @@
       <c r="T540" s="7"/>
       <c r="U540" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A541" s="7"/>
       <c r="B541" s="8"/>
       <c r="C541" s="9"/>
@@ -13640,7 +13643,7 @@
       <c r="T541" s="7"/>
       <c r="U541" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A542" s="7"/>
       <c r="B542" s="8"/>
       <c r="C542" s="9"/>
@@ -13663,7 +13666,7 @@
       <c r="T542" s="7"/>
       <c r="U542" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A543" s="7"/>
       <c r="B543" s="8"/>
       <c r="C543" s="9"/>
@@ -13686,7 +13689,7 @@
       <c r="T543" s="7"/>
       <c r="U543" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A544" s="7"/>
       <c r="B544" s="8"/>
       <c r="C544" s="9"/>
@@ -13709,7 +13712,7 @@
       <c r="T544" s="7"/>
       <c r="U544" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A545" s="7"/>
       <c r="B545" s="8"/>
       <c r="C545" s="9"/>
@@ -13732,7 +13735,7 @@
       <c r="T545" s="7"/>
       <c r="U545" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A546" s="7"/>
       <c r="B546" s="8"/>
       <c r="C546" s="9"/>
@@ -13755,7 +13758,7 @@
       <c r="T546" s="7"/>
       <c r="U546" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A547" s="7"/>
       <c r="B547" s="8"/>
       <c r="C547" s="9"/>
@@ -13778,7 +13781,7 @@
       <c r="T547" s="7"/>
       <c r="U547" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A548" s="7"/>
       <c r="B548" s="8"/>
       <c r="C548" s="9"/>
@@ -13801,7 +13804,7 @@
       <c r="T548" s="7"/>
       <c r="U548" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A549" s="7"/>
       <c r="B549" s="8"/>
       <c r="C549" s="9"/>
@@ -13824,7 +13827,7 @@
       <c r="T549" s="7"/>
       <c r="U549" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A550" s="7"/>
       <c r="B550" s="8"/>
       <c r="C550" s="9"/>
@@ -13847,7 +13850,7 @@
       <c r="T550" s="7"/>
       <c r="U550" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A551" s="7"/>
       <c r="B551" s="8"/>
       <c r="C551" s="9"/>
@@ -13870,7 +13873,7 @@
       <c r="T551" s="7"/>
       <c r="U551" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A552" s="7"/>
       <c r="B552" s="8"/>
       <c r="C552" s="9"/>
@@ -13893,7 +13896,7 @@
       <c r="T552" s="7"/>
       <c r="U552" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A553" s="7"/>
       <c r="B553" s="8"/>
       <c r="C553" s="9"/>
@@ -13916,7 +13919,7 @@
       <c r="T553" s="7"/>
       <c r="U553" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A554" s="7"/>
       <c r="B554" s="8"/>
       <c r="C554" s="9"/>
@@ -13939,7 +13942,7 @@
       <c r="T554" s="7"/>
       <c r="U554" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A555" s="7"/>
       <c r="B555" s="8"/>
       <c r="C555" s="9"/>
@@ -13962,7 +13965,7 @@
       <c r="T555" s="7"/>
       <c r="U555" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A556" s="7"/>
       <c r="B556" s="8"/>
       <c r="C556" s="9"/>
@@ -13985,7 +13988,7 @@
       <c r="T556" s="7"/>
       <c r="U556" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A557" s="7"/>
       <c r="B557" s="8"/>
       <c r="C557" s="9"/>
@@ -14008,7 +14011,7 @@
       <c r="T557" s="7"/>
       <c r="U557" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A558" s="7"/>
       <c r="B558" s="8"/>
       <c r="C558" s="9"/>
@@ -14031,7 +14034,7 @@
       <c r="T558" s="7"/>
       <c r="U558" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A559" s="7"/>
       <c r="B559" s="8"/>
       <c r="C559" s="9"/>
@@ -14054,7 +14057,7 @@
       <c r="T559" s="7"/>
       <c r="U559" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A560" s="7"/>
       <c r="B560" s="8"/>
       <c r="C560" s="9"/>
@@ -14077,7 +14080,7 @@
       <c r="T560" s="7"/>
       <c r="U560" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A561" s="7"/>
       <c r="B561" s="8"/>
       <c r="C561" s="9"/>
@@ -14100,7 +14103,7 @@
       <c r="T561" s="7"/>
       <c r="U561" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A562" s="7"/>
       <c r="B562" s="8"/>
       <c r="C562" s="9"/>
@@ -14123,7 +14126,7 @@
       <c r="T562" s="7"/>
       <c r="U562" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A563" s="7"/>
       <c r="B563" s="8"/>
       <c r="C563" s="9"/>
@@ -14146,7 +14149,7 @@
       <c r="T563" s="7"/>
       <c r="U563" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A564" s="7"/>
       <c r="B564" s="8"/>
       <c r="C564" s="9"/>
@@ -14169,7 +14172,7 @@
       <c r="T564" s="7"/>
       <c r="U564" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A565" s="7"/>
       <c r="B565" s="8"/>
       <c r="C565" s="9"/>
@@ -14192,7 +14195,7 @@
       <c r="T565" s="7"/>
       <c r="U565" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A566" s="7"/>
       <c r="B566" s="8"/>
       <c r="C566" s="9"/>
@@ -14215,7 +14218,7 @@
       <c r="T566" s="7"/>
       <c r="U566" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A567" s="7"/>
       <c r="B567" s="8"/>
       <c r="C567" s="9"/>
@@ -14238,7 +14241,7 @@
       <c r="T567" s="7"/>
       <c r="U567" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A568" s="7"/>
       <c r="B568" s="8"/>
       <c r="C568" s="9"/>
@@ -14261,7 +14264,7 @@
       <c r="T568" s="7"/>
       <c r="U568" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A569" s="7"/>
       <c r="B569" s="8"/>
       <c r="C569" s="9"/>
@@ -14284,7 +14287,7 @@
       <c r="T569" s="7"/>
       <c r="U569" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A570" s="7"/>
       <c r="B570" s="8"/>
       <c r="C570" s="9"/>
@@ -14307,7 +14310,7 @@
       <c r="T570" s="7"/>
       <c r="U570" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A571" s="7"/>
       <c r="B571" s="8"/>
       <c r="C571" s="9"/>
@@ -14330,7 +14333,7 @@
       <c r="T571" s="7"/>
       <c r="U571" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A572" s="7"/>
       <c r="B572" s="8"/>
       <c r="C572" s="9"/>
@@ -14353,7 +14356,7 @@
       <c r="T572" s="7"/>
       <c r="U572" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A573" s="7"/>
       <c r="B573" s="8"/>
       <c r="C573" s="9"/>
@@ -14376,7 +14379,7 @@
       <c r="T573" s="7"/>
       <c r="U573" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A574" s="7"/>
       <c r="B574" s="8"/>
       <c r="C574" s="9"/>
@@ -14399,7 +14402,7 @@
       <c r="T574" s="7"/>
       <c r="U574" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A575" s="7"/>
       <c r="B575" s="8"/>
       <c r="C575" s="9"/>
@@ -14422,7 +14425,7 @@
       <c r="T575" s="7"/>
       <c r="U575" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A576" s="7"/>
       <c r="B576" s="8"/>
       <c r="C576" s="9"/>
@@ -14445,7 +14448,7 @@
       <c r="T576" s="7"/>
       <c r="U576" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A577" s="7"/>
       <c r="B577" s="8"/>
       <c r="C577" s="9"/>
@@ -14468,7 +14471,7 @@
       <c r="T577" s="7"/>
       <c r="U577" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A578" s="7"/>
       <c r="B578" s="8"/>
       <c r="C578" s="9"/>
@@ -14491,7 +14494,7 @@
       <c r="T578" s="7"/>
       <c r="U578" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A579" s="7"/>
       <c r="B579" s="8"/>
       <c r="C579" s="9"/>
@@ -14514,7 +14517,7 @@
       <c r="T579" s="7"/>
       <c r="U579" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A580" s="7"/>
       <c r="B580" s="8"/>
       <c r="C580" s="9"/>
@@ -14537,7 +14540,7 @@
       <c r="T580" s="7"/>
       <c r="U580" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A581" s="7"/>
       <c r="B581" s="8"/>
       <c r="C581" s="9"/>
@@ -14560,7 +14563,7 @@
       <c r="T581" s="7"/>
       <c r="U581" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A582" s="7"/>
       <c r="B582" s="8"/>
       <c r="C582" s="9"/>
@@ -14583,7 +14586,7 @@
       <c r="T582" s="7"/>
       <c r="U582" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A583" s="7"/>
       <c r="B583" s="8"/>
       <c r="C583" s="9"/>
@@ -14606,7 +14609,7 @@
       <c r="T583" s="7"/>
       <c r="U583" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A584" s="7"/>
       <c r="B584" s="8"/>
       <c r="C584" s="9"/>
@@ -14629,7 +14632,7 @@
       <c r="T584" s="7"/>
       <c r="U584" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A585" s="7"/>
       <c r="B585" s="8"/>
       <c r="C585" s="9"/>
@@ -14652,7 +14655,7 @@
       <c r="T585" s="7"/>
       <c r="U585" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A586" s="7"/>
       <c r="B586" s="8"/>
       <c r="C586" s="9"/>
@@ -14675,7 +14678,7 @@
       <c r="T586" s="7"/>
       <c r="U586" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A587" s="7"/>
       <c r="B587" s="8"/>
       <c r="C587" s="9"/>
@@ -14698,7 +14701,7 @@
       <c r="T587" s="7"/>
       <c r="U587" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A588" s="7"/>
       <c r="B588" s="8"/>
       <c r="C588" s="9"/>
@@ -14721,7 +14724,7 @@
       <c r="T588" s="7"/>
       <c r="U588" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A589" s="7"/>
       <c r="B589" s="8"/>
       <c r="C589" s="9"/>
@@ -14744,7 +14747,7 @@
       <c r="T589" s="7"/>
       <c r="U589" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A590" s="7"/>
       <c r="B590" s="8"/>
       <c r="C590" s="9"/>
@@ -14767,7 +14770,7 @@
       <c r="T590" s="7"/>
       <c r="U590" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A591" s="7"/>
       <c r="B591" s="8"/>
       <c r="C591" s="9"/>
@@ -14790,7 +14793,7 @@
       <c r="T591" s="7"/>
       <c r="U591" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A592" s="7"/>
       <c r="B592" s="8"/>
       <c r="C592" s="9"/>
@@ -14813,7 +14816,7 @@
       <c r="T592" s="7"/>
       <c r="U592" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A593" s="7"/>
       <c r="B593" s="8"/>
       <c r="C593" s="9"/>
@@ -14836,7 +14839,7 @@
       <c r="T593" s="7"/>
       <c r="U593" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A594" s="7"/>
       <c r="B594" s="8"/>
       <c r="C594" s="9"/>
@@ -14859,7 +14862,7 @@
       <c r="T594" s="7"/>
       <c r="U594" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A595" s="7"/>
       <c r="B595" s="8"/>
       <c r="C595" s="9"/>
@@ -14882,7 +14885,7 @@
       <c r="T595" s="7"/>
       <c r="U595" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A596" s="7"/>
       <c r="B596" s="8"/>
       <c r="C596" s="9"/>
@@ -14905,7 +14908,7 @@
       <c r="T596" s="7"/>
       <c r="U596" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A597" s="7"/>
       <c r="B597" s="8"/>
       <c r="C597" s="9"/>
@@ -14928,7 +14931,7 @@
       <c r="T597" s="7"/>
       <c r="U597" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A598" s="7"/>
       <c r="B598" s="8"/>
       <c r="C598" s="9"/>
@@ -14951,7 +14954,7 @@
       <c r="T598" s="7"/>
       <c r="U598" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A599" s="7"/>
       <c r="B599" s="8"/>
       <c r="C599" s="9"/>
@@ -14974,7 +14977,7 @@
       <c r="T599" s="7"/>
       <c r="U599" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A600" s="7"/>
       <c r="B600" s="8"/>
       <c r="C600" s="9"/>
@@ -14997,7 +15000,7 @@
       <c r="T600" s="7"/>
       <c r="U600" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A601" s="7"/>
       <c r="B601" s="8"/>
       <c r="C601" s="9"/>
@@ -15020,7 +15023,7 @@
       <c r="T601" s="7"/>
       <c r="U601" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A602" s="7"/>
       <c r="B602" s="8"/>
       <c r="C602" s="9"/>
@@ -15043,7 +15046,7 @@
       <c r="T602" s="7"/>
       <c r="U602" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A603" s="7"/>
       <c r="B603" s="8"/>
       <c r="C603" s="9"/>
@@ -15066,7 +15069,7 @@
       <c r="T603" s="7"/>
       <c r="U603" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A604" s="7"/>
       <c r="B604" s="8"/>
       <c r="C604" s="9"/>
@@ -15089,7 +15092,7 @@
       <c r="T604" s="7"/>
       <c r="U604" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A605" s="7"/>
       <c r="B605" s="8"/>
       <c r="C605" s="9"/>
@@ -15112,7 +15115,7 @@
       <c r="T605" s="7"/>
       <c r="U605" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A606" s="7"/>
       <c r="B606" s="8"/>
       <c r="C606" s="9"/>
@@ -15135,7 +15138,7 @@
       <c r="T606" s="7"/>
       <c r="U606" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A607" s="7"/>
       <c r="B607" s="8"/>
       <c r="C607" s="9"/>
@@ -15158,7 +15161,7 @@
       <c r="T607" s="7"/>
       <c r="U607" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A608" s="7"/>
       <c r="B608" s="8"/>
       <c r="C608" s="9"/>
@@ -15181,7 +15184,7 @@
       <c r="T608" s="7"/>
       <c r="U608" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A609" s="7"/>
       <c r="B609" s="8"/>
       <c r="C609" s="9"/>
@@ -15204,7 +15207,7 @@
       <c r="T609" s="7"/>
       <c r="U609" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A610" s="7"/>
       <c r="B610" s="8"/>
       <c r="C610" s="9"/>
@@ -15227,7 +15230,7 @@
       <c r="T610" s="7"/>
       <c r="U610" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A611" s="7"/>
       <c r="B611" s="8"/>
       <c r="C611" s="9"/>
@@ -15250,7 +15253,7 @@
       <c r="T611" s="7"/>
       <c r="U611" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A612" s="7"/>
       <c r="B612" s="8"/>
       <c r="C612" s="9"/>
@@ -15273,7 +15276,7 @@
       <c r="T612" s="7"/>
       <c r="U612" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A613" s="7"/>
       <c r="B613" s="8"/>
       <c r="C613" s="9"/>
@@ -15296,7 +15299,7 @@
       <c r="T613" s="7"/>
       <c r="U613" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A614" s="7"/>
       <c r="B614" s="8"/>
       <c r="C614" s="9"/>
@@ -15319,7 +15322,7 @@
       <c r="T614" s="7"/>
       <c r="U614" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A615" s="7"/>
       <c r="B615" s="8"/>
       <c r="C615" s="9"/>
@@ -15342,7 +15345,7 @@
       <c r="T615" s="7"/>
       <c r="U615" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A616" s="7"/>
       <c r="B616" s="8"/>
       <c r="C616" s="9"/>
@@ -15365,7 +15368,7 @@
       <c r="T616" s="7"/>
       <c r="U616" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A617" s="7"/>
       <c r="B617" s="8"/>
       <c r="C617" s="9"/>
@@ -15388,7 +15391,7 @@
       <c r="T617" s="7"/>
       <c r="U617" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A618" s="7"/>
       <c r="B618" s="8"/>
       <c r="C618" s="9"/>
@@ -15411,7 +15414,7 @@
       <c r="T618" s="7"/>
       <c r="U618" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A619" s="7"/>
       <c r="B619" s="8"/>
       <c r="C619" s="9"/>
@@ -15434,7 +15437,7 @@
       <c r="T619" s="7"/>
       <c r="U619" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A620" s="7"/>
       <c r="B620" s="8"/>
       <c r="C620" s="9"/>
@@ -15457,7 +15460,7 @@
       <c r="T620" s="7"/>
       <c r="U620" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A621" s="7"/>
       <c r="B621" s="8"/>
       <c r="C621" s="9"/>
@@ -15480,7 +15483,7 @@
       <c r="T621" s="7"/>
       <c r="U621" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A622" s="7"/>
       <c r="B622" s="8"/>
       <c r="C622" s="9"/>
@@ -15503,7 +15506,7 @@
       <c r="T622" s="7"/>
       <c r="U622" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A623" s="7"/>
       <c r="B623" s="8"/>
       <c r="C623" s="9"/>
@@ -15526,7 +15529,7 @@
       <c r="T623" s="7"/>
       <c r="U623" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A624" s="7"/>
       <c r="B624" s="8"/>
       <c r="C624" s="9"/>
@@ -15549,7 +15552,7 @@
       <c r="T624" s="7"/>
       <c r="U624" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A625" s="7"/>
       <c r="B625" s="8"/>
       <c r="C625" s="9"/>
@@ -15572,7 +15575,7 @@
       <c r="T625" s="7"/>
       <c r="U625" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A626" s="7"/>
       <c r="B626" s="8"/>
       <c r="C626" s="9"/>
@@ -15595,7 +15598,7 @@
       <c r="T626" s="7"/>
       <c r="U626" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A627" s="7"/>
       <c r="B627" s="8"/>
       <c r="C627" s="9"/>
@@ -15618,7 +15621,7 @@
       <c r="T627" s="7"/>
       <c r="U627" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A628" s="7"/>
       <c r="B628" s="8"/>
       <c r="C628" s="9"/>
@@ -15641,7 +15644,7 @@
       <c r="T628" s="7"/>
       <c r="U628" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A629" s="7"/>
       <c r="B629" s="8"/>
       <c r="C629" s="9"/>
@@ -15664,7 +15667,7 @@
       <c r="T629" s="7"/>
       <c r="U629" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A630" s="7"/>
       <c r="B630" s="8"/>
       <c r="C630" s="9"/>
@@ -15687,7 +15690,7 @@
       <c r="T630" s="7"/>
       <c r="U630" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A631" s="7"/>
       <c r="B631" s="8"/>
       <c r="C631" s="9"/>
@@ -15710,7 +15713,7 @@
       <c r="T631" s="7"/>
       <c r="U631" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A632" s="7"/>
       <c r="B632" s="8"/>
       <c r="C632" s="9"/>
@@ -15733,7 +15736,7 @@
       <c r="T632" s="7"/>
       <c r="U632" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A633" s="7"/>
       <c r="B633" s="8"/>
       <c r="C633" s="9"/>
@@ -15756,7 +15759,7 @@
       <c r="T633" s="7"/>
       <c r="U633" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A634" s="7"/>
       <c r="B634" s="8"/>
       <c r="C634" s="9"/>
@@ -15779,7 +15782,7 @@
       <c r="T634" s="7"/>
       <c r="U634" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A635" s="7"/>
       <c r="B635" s="8"/>
       <c r="C635" s="9"/>
@@ -15802,7 +15805,7 @@
       <c r="T635" s="7"/>
       <c r="U635" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A636" s="7"/>
       <c r="B636" s="8"/>
       <c r="C636" s="9"/>
@@ -15825,7 +15828,7 @@
       <c r="T636" s="7"/>
       <c r="U636" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A637" s="7"/>
       <c r="B637" s="8"/>
       <c r="C637" s="9"/>
@@ -15848,7 +15851,7 @@
       <c r="T637" s="7"/>
       <c r="U637" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A638" s="7"/>
       <c r="B638" s="8"/>
       <c r="C638" s="9"/>
@@ -15871,7 +15874,7 @@
       <c r="T638" s="7"/>
       <c r="U638" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A639" s="7"/>
       <c r="B639" s="8"/>
       <c r="C639" s="9"/>
@@ -15894,7 +15897,7 @@
       <c r="T639" s="7"/>
       <c r="U639" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A640" s="7"/>
       <c r="B640" s="8"/>
       <c r="C640" s="9"/>
@@ -15917,7 +15920,7 @@
       <c r="T640" s="7"/>
       <c r="U640" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A641" s="7"/>
       <c r="B641" s="8"/>
       <c r="C641" s="9"/>
@@ -15940,7 +15943,7 @@
       <c r="T641" s="7"/>
       <c r="U641" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A642" s="7"/>
       <c r="B642" s="8"/>
       <c r="C642" s="9"/>
@@ -15963,7 +15966,7 @@
       <c r="T642" s="7"/>
       <c r="U642" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A643" s="7"/>
       <c r="B643" s="8"/>
       <c r="C643" s="9"/>
@@ -15986,7 +15989,7 @@
       <c r="T643" s="7"/>
       <c r="U643" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A644" s="7"/>
       <c r="B644" s="8"/>
       <c r="C644" s="9"/>
@@ -16009,7 +16012,7 @@
       <c r="T644" s="7"/>
       <c r="U644" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A645" s="7"/>
       <c r="B645" s="8"/>
       <c r="C645" s="9"/>
@@ -16032,7 +16035,7 @@
       <c r="T645" s="7"/>
       <c r="U645" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A646" s="7"/>
       <c r="B646" s="8"/>
       <c r="C646" s="9"/>
@@ -16055,7 +16058,7 @@
       <c r="T646" s="7"/>
       <c r="U646" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A647" s="7"/>
       <c r="B647" s="8"/>
       <c r="C647" s="9"/>
@@ -16078,7 +16081,7 @@
       <c r="T647" s="7"/>
       <c r="U647" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A648" s="7"/>
       <c r="B648" s="8"/>
       <c r="C648" s="9"/>
@@ -16101,7 +16104,7 @@
       <c r="T648" s="7"/>
       <c r="U648" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A649" s="7"/>
       <c r="B649" s="8"/>
       <c r="C649" s="9"/>
@@ -16124,7 +16127,7 @@
       <c r="T649" s="7"/>
       <c r="U649" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A650" s="7"/>
       <c r="B650" s="8"/>
       <c r="C650" s="9"/>
@@ -16147,7 +16150,7 @@
       <c r="T650" s="7"/>
       <c r="U650" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A651" s="7"/>
       <c r="B651" s="8"/>
       <c r="C651" s="9"/>
@@ -16170,7 +16173,7 @@
       <c r="T651" s="7"/>
       <c r="U651" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A652" s="7"/>
       <c r="B652" s="8"/>
       <c r="C652" s="9"/>
@@ -16193,7 +16196,7 @@
       <c r="T652" s="7"/>
       <c r="U652" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A653" s="7"/>
       <c r="B653" s="8"/>
       <c r="C653" s="9"/>
@@ -16216,7 +16219,7 @@
       <c r="T653" s="7"/>
       <c r="U653" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A654" s="7"/>
       <c r="B654" s="8"/>
       <c r="C654" s="9"/>
@@ -16239,7 +16242,7 @@
       <c r="T654" s="7"/>
       <c r="U654" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A655" s="7"/>
       <c r="B655" s="8"/>
       <c r="C655" s="9"/>
@@ -16262,7 +16265,7 @@
       <c r="T655" s="7"/>
       <c r="U655" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A656" s="7"/>
       <c r="B656" s="8"/>
       <c r="C656" s="9"/>
@@ -16285,7 +16288,7 @@
       <c r="T656" s="7"/>
       <c r="U656" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A657" s="7"/>
       <c r="B657" s="8"/>
       <c r="C657" s="9"/>
@@ -16308,7 +16311,7 @@
       <c r="T657" s="7"/>
       <c r="U657" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A658" s="7"/>
       <c r="B658" s="8"/>
       <c r="C658" s="9"/>
@@ -16331,7 +16334,7 @@
       <c r="T658" s="7"/>
       <c r="U658" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A659" s="7"/>
       <c r="B659" s="8"/>
       <c r="C659" s="9"/>
@@ -16354,7 +16357,7 @@
       <c r="T659" s="7"/>
       <c r="U659" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A660" s="7"/>
       <c r="B660" s="8"/>
       <c r="C660" s="9"/>
@@ -16377,7 +16380,7 @@
       <c r="T660" s="7"/>
       <c r="U660" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A661" s="7"/>
       <c r="B661" s="8"/>
       <c r="C661" s="9"/>
@@ -16400,7 +16403,7 @@
       <c r="T661" s="7"/>
       <c r="U661" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A662" s="7"/>
       <c r="B662" s="8"/>
       <c r="C662" s="9"/>
@@ -16423,7 +16426,7 @@
       <c r="T662" s="7"/>
       <c r="U662" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A663" s="7"/>
       <c r="B663" s="8"/>
       <c r="C663" s="9"/>
@@ -16446,7 +16449,7 @@
       <c r="T663" s="7"/>
       <c r="U663" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A664" s="7"/>
       <c r="B664" s="8"/>
       <c r="C664" s="9"/>
@@ -16469,7 +16472,7 @@
       <c r="T664" s="7"/>
       <c r="U664" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A665" s="7"/>
       <c r="B665" s="8"/>
       <c r="C665" s="9"/>
@@ -16492,7 +16495,7 @@
       <c r="T665" s="7"/>
       <c r="U665" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A666" s="7"/>
       <c r="B666" s="8"/>
       <c r="C666" s="9"/>
@@ -16515,7 +16518,7 @@
       <c r="T666" s="7"/>
       <c r="U666" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A667" s="7"/>
       <c r="B667" s="8"/>
       <c r="C667" s="9"/>
@@ -16538,7 +16541,7 @@
       <c r="T667" s="7"/>
       <c r="U667" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A668" s="7"/>
       <c r="B668" s="8"/>
       <c r="C668" s="9"/>
@@ -16561,7 +16564,7 @@
       <c r="T668" s="7"/>
       <c r="U668" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A669" s="7"/>
       <c r="B669" s="8"/>
       <c r="C669" s="9"/>
@@ -16584,7 +16587,7 @@
       <c r="T669" s="7"/>
       <c r="U669" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A670" s="7"/>
       <c r="B670" s="8"/>
       <c r="C670" s="9"/>
@@ -16607,7 +16610,7 @@
       <c r="T670" s="7"/>
       <c r="U670" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A671" s="7"/>
       <c r="B671" s="8"/>
       <c r="C671" s="9"/>
@@ -16630,7 +16633,7 @@
       <c r="T671" s="7"/>
       <c r="U671" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A672" s="7"/>
       <c r="B672" s="8"/>
       <c r="C672" s="9"/>
@@ -16653,7 +16656,7 @@
       <c r="T672" s="7"/>
       <c r="U672" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A673" s="7"/>
       <c r="B673" s="8"/>
       <c r="C673" s="9"/>
@@ -16676,7 +16679,7 @@
       <c r="T673" s="7"/>
       <c r="U673" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A674" s="7"/>
       <c r="B674" s="8"/>
       <c r="C674" s="9"/>
@@ -16699,7 +16702,7 @@
       <c r="T674" s="7"/>
       <c r="U674" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A675" s="7"/>
       <c r="B675" s="8"/>
       <c r="C675" s="9"/>
@@ -16722,7 +16725,7 @@
       <c r="T675" s="7"/>
       <c r="U675" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A676" s="7"/>
       <c r="B676" s="8"/>
       <c r="C676" s="9"/>
@@ -16745,7 +16748,7 @@
       <c r="T676" s="7"/>
       <c r="U676" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A677" s="7"/>
       <c r="B677" s="8"/>
       <c r="C677" s="9"/>
@@ -16768,7 +16771,7 @@
       <c r="T677" s="7"/>
       <c r="U677" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A678" s="7"/>
       <c r="B678" s="8"/>
       <c r="C678" s="9"/>
@@ -16791,7 +16794,7 @@
       <c r="T678" s="7"/>
       <c r="U678" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A679" s="7"/>
       <c r="B679" s="8"/>
       <c r="C679" s="9"/>
@@ -16814,7 +16817,7 @@
       <c r="T679" s="7"/>
       <c r="U679" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A680" s="7"/>
       <c r="B680" s="8"/>
       <c r="C680" s="9"/>
@@ -16837,7 +16840,7 @@
       <c r="T680" s="7"/>
       <c r="U680" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A681" s="7"/>
       <c r="B681" s="8"/>
       <c r="C681" s="9"/>
@@ -16860,7 +16863,7 @@
       <c r="T681" s="7"/>
       <c r="U681" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A682" s="7"/>
       <c r="B682" s="8"/>
       <c r="C682" s="9"/>
@@ -16883,7 +16886,7 @@
       <c r="T682" s="7"/>
       <c r="U682" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A683" s="7"/>
       <c r="B683" s="8"/>
       <c r="C683" s="9"/>
@@ -16906,7 +16909,7 @@
       <c r="T683" s="7"/>
       <c r="U683" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A684" s="7"/>
       <c r="B684" s="8"/>
       <c r="C684" s="9"/>
@@ -16929,7 +16932,7 @@
       <c r="T684" s="7"/>
       <c r="U684" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A685" s="7"/>
       <c r="B685" s="8"/>
       <c r="C685" s="9"/>
@@ -16952,7 +16955,7 @@
       <c r="T685" s="7"/>
       <c r="U685" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A686" s="7"/>
       <c r="B686" s="8"/>
       <c r="C686" s="9"/>
@@ -16975,7 +16978,7 @@
       <c r="T686" s="7"/>
       <c r="U686" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A687" s="7"/>
       <c r="B687" s="8"/>
       <c r="C687" s="9"/>
@@ -16998,7 +17001,7 @@
       <c r="T687" s="7"/>
       <c r="U687" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A688" s="7"/>
       <c r="B688" s="8"/>
       <c r="C688" s="9"/>
@@ -17021,7 +17024,7 @@
       <c r="T688" s="7"/>
       <c r="U688" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A689" s="7"/>
       <c r="B689" s="8"/>
       <c r="C689" s="9"/>
@@ -17044,7 +17047,7 @@
       <c r="T689" s="7"/>
       <c r="U689" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A690" s="7"/>
       <c r="B690" s="8"/>
       <c r="C690" s="9"/>
@@ -17067,7 +17070,7 @@
       <c r="T690" s="7"/>
       <c r="U690" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A691" s="7"/>
       <c r="B691" s="8"/>
       <c r="C691" s="9"/>
@@ -17090,7 +17093,7 @@
       <c r="T691" s="7"/>
       <c r="U691" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A692" s="7"/>
       <c r="B692" s="8"/>
       <c r="C692" s="9"/>
@@ -17113,7 +17116,7 @@
       <c r="T692" s="7"/>
       <c r="U692" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A693" s="7"/>
       <c r="B693" s="8"/>
       <c r="C693" s="9"/>
@@ -17136,7 +17139,7 @@
       <c r="T693" s="7"/>
       <c r="U693" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A694" s="7"/>
       <c r="B694" s="8"/>
       <c r="C694" s="9"/>
@@ -17159,7 +17162,7 @@
       <c r="T694" s="7"/>
       <c r="U694" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A695" s="7"/>
       <c r="B695" s="8"/>
       <c r="C695" s="9"/>
@@ -17182,7 +17185,7 @@
       <c r="T695" s="7"/>
       <c r="U695" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A696" s="7"/>
       <c r="B696" s="8"/>
       <c r="C696" s="9"/>
@@ -17205,7 +17208,7 @@
       <c r="T696" s="7"/>
       <c r="U696" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A697" s="7"/>
       <c r="B697" s="8"/>
       <c r="C697" s="9"/>
@@ -17228,7 +17231,7 @@
       <c r="T697" s="7"/>
       <c r="U697" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A698" s="7"/>
       <c r="B698" s="8"/>
       <c r="C698" s="9"/>
@@ -17251,7 +17254,7 @@
       <c r="T698" s="7"/>
       <c r="U698" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A699" s="7"/>
       <c r="B699" s="8"/>
       <c r="C699" s="9"/>
@@ -17274,7 +17277,7 @@
       <c r="T699" s="7"/>
       <c r="U699" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A700" s="7"/>
       <c r="B700" s="8"/>
       <c r="C700" s="9"/>
@@ -17297,7 +17300,7 @@
       <c r="T700" s="7"/>
       <c r="U700" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A701" s="7"/>
       <c r="B701" s="8"/>
       <c r="C701" s="9"/>
@@ -17320,7 +17323,7 @@
       <c r="T701" s="7"/>
       <c r="U701" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A702" s="7"/>
       <c r="B702" s="8"/>
       <c r="C702" s="9"/>
@@ -17343,7 +17346,7 @@
       <c r="T702" s="7"/>
       <c r="U702" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A703" s="7"/>
       <c r="B703" s="8"/>
       <c r="C703" s="9"/>
@@ -17366,7 +17369,7 @@
       <c r="T703" s="7"/>
       <c r="U703" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A704" s="7"/>
       <c r="B704" s="8"/>
       <c r="C704" s="9"/>
@@ -17389,7 +17392,7 @@
       <c r="T704" s="7"/>
       <c r="U704" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A705" s="7"/>
       <c r="B705" s="8"/>
       <c r="C705" s="9"/>
@@ -17412,7 +17415,7 @@
       <c r="T705" s="7"/>
       <c r="U705" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A706" s="7"/>
       <c r="B706" s="8"/>
       <c r="C706" s="9"/>
@@ -17435,7 +17438,7 @@
       <c r="T706" s="7"/>
       <c r="U706" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A707" s="7"/>
       <c r="B707" s="8"/>
       <c r="C707" s="9"/>
@@ -17458,7 +17461,7 @@
       <c r="T707" s="7"/>
       <c r="U707" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A708" s="7"/>
       <c r="B708" s="8"/>
       <c r="C708" s="9"/>
@@ -17481,7 +17484,7 @@
       <c r="T708" s="7"/>
       <c r="U708" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A709" s="7"/>
       <c r="B709" s="8"/>
       <c r="C709" s="9"/>
@@ -17504,7 +17507,7 @@
       <c r="T709" s="7"/>
       <c r="U709" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A710" s="7"/>
       <c r="B710" s="8"/>
       <c r="C710" s="9"/>
@@ -17527,7 +17530,7 @@
       <c r="T710" s="7"/>
       <c r="U710" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A711" s="7"/>
       <c r="B711" s="8"/>
       <c r="C711" s="9"/>
@@ -17550,7 +17553,7 @@
       <c r="T711" s="7"/>
       <c r="U711" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A712" s="7"/>
       <c r="B712" s="8"/>
       <c r="C712" s="9"/>
@@ -17573,7 +17576,7 @@
       <c r="T712" s="7"/>
       <c r="U712" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A713" s="7"/>
       <c r="B713" s="8"/>
       <c r="C713" s="9"/>
@@ -17596,7 +17599,7 @@
       <c r="T713" s="7"/>
       <c r="U713" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A714" s="7"/>
       <c r="B714" s="8"/>
       <c r="C714" s="9"/>
@@ -17619,7 +17622,7 @@
       <c r="T714" s="7"/>
       <c r="U714" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A715" s="7"/>
       <c r="B715" s="8"/>
       <c r="C715" s="9"/>
@@ -17642,7 +17645,7 @@
       <c r="T715" s="7"/>
       <c r="U715" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A716" s="7"/>
       <c r="B716" s="8"/>
       <c r="C716" s="9"/>
@@ -17665,7 +17668,7 @@
       <c r="T716" s="7"/>
       <c r="U716" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A717" s="7"/>
       <c r="B717" s="8"/>
       <c r="C717" s="9"/>
@@ -17688,7 +17691,7 @@
       <c r="T717" s="7"/>
       <c r="U717" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A718" s="7"/>
       <c r="B718" s="8"/>
       <c r="C718" s="9"/>
@@ -17711,7 +17714,7 @@
       <c r="T718" s="7"/>
       <c r="U718" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A719" s="7"/>
       <c r="B719" s="8"/>
       <c r="C719" s="9"/>
@@ -17734,7 +17737,7 @@
       <c r="T719" s="7"/>
       <c r="U719" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A720" s="7"/>
       <c r="B720" s="8"/>
       <c r="C720" s="9"/>
@@ -17757,7 +17760,7 @@
       <c r="T720" s="7"/>
       <c r="U720" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A721" s="7"/>
       <c r="B721" s="8"/>
       <c r="C721" s="9"/>
@@ -17780,7 +17783,7 @@
       <c r="T721" s="7"/>
       <c r="U721" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A722" s="7"/>
       <c r="B722" s="8"/>
       <c r="C722" s="9"/>
@@ -17803,7 +17806,7 @@
       <c r="T722" s="7"/>
       <c r="U722" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A723" s="7"/>
       <c r="B723" s="8"/>
       <c r="C723" s="9"/>
@@ -17826,7 +17829,7 @@
       <c r="T723" s="7"/>
       <c r="U723" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A724" s="7"/>
       <c r="B724" s="8"/>
       <c r="C724" s="9"/>
@@ -17849,7 +17852,7 @@
       <c r="T724" s="7"/>
       <c r="U724" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A725" s="7"/>
       <c r="B725" s="8"/>
       <c r="C725" s="9"/>
@@ -17872,7 +17875,7 @@
       <c r="T725" s="7"/>
       <c r="U725" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A726" s="7"/>
       <c r="B726" s="8"/>
       <c r="C726" s="9"/>
@@ -17895,7 +17898,7 @@
       <c r="T726" s="7"/>
       <c r="U726" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A727" s="7"/>
       <c r="B727" s="8"/>
       <c r="C727" s="9"/>
@@ -17918,7 +17921,7 @@
       <c r="T727" s="7"/>
       <c r="U727" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A728" s="7"/>
       <c r="B728" s="8"/>
       <c r="C728" s="9"/>
@@ -17941,7 +17944,7 @@
       <c r="T728" s="7"/>
       <c r="U728" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A729" s="7"/>
       <c r="B729" s="8"/>
       <c r="C729" s="9"/>
@@ -17964,7 +17967,7 @@
       <c r="T729" s="7"/>
       <c r="U729" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A730" s="7"/>
       <c r="B730" s="8"/>
       <c r="C730" s="9"/>
@@ -17987,7 +17990,7 @@
       <c r="T730" s="7"/>
       <c r="U730" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A731" s="7"/>
       <c r="B731" s="8"/>
       <c r="C731" s="9"/>
@@ -18010,7 +18013,7 @@
       <c r="T731" s="7"/>
       <c r="U731" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A732" s="7"/>
       <c r="B732" s="8"/>
       <c r="C732" s="9"/>
@@ -18033,7 +18036,7 @@
       <c r="T732" s="7"/>
       <c r="U732" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A733" s="7"/>
       <c r="B733" s="8"/>
       <c r="C733" s="9"/>
@@ -18056,7 +18059,7 @@
       <c r="T733" s="7"/>
       <c r="U733" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A734" s="7"/>
       <c r="B734" s="8"/>
       <c r="C734" s="9"/>
@@ -18079,7 +18082,7 @@
       <c r="T734" s="7"/>
       <c r="U734" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A735" s="7"/>
       <c r="B735" s="8"/>
       <c r="C735" s="9"/>
@@ -18102,7 +18105,7 @@
       <c r="T735" s="7"/>
       <c r="U735" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A736" s="7"/>
       <c r="B736" s="8"/>
       <c r="C736" s="9"/>
@@ -18125,7 +18128,7 @@
       <c r="T736" s="7"/>
       <c r="U736" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A737" s="7"/>
       <c r="B737" s="8"/>
       <c r="C737" s="9"/>
@@ -18148,7 +18151,7 @@
       <c r="T737" s="7"/>
       <c r="U737" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A738" s="7"/>
       <c r="B738" s="8"/>
       <c r="C738" s="9"/>
@@ -18171,7 +18174,7 @@
       <c r="T738" s="7"/>
       <c r="U738" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A739" s="7"/>
       <c r="B739" s="8"/>
       <c r="C739" s="9"/>
@@ -18194,7 +18197,7 @@
       <c r="T739" s="7"/>
       <c r="U739" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A740" s="7"/>
       <c r="B740" s="8"/>
       <c r="C740" s="9"/>
@@ -18217,7 +18220,7 @@
       <c r="T740" s="7"/>
       <c r="U740" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A741" s="7"/>
       <c r="B741" s="8"/>
       <c r="C741" s="9"/>
@@ -18240,7 +18243,7 @@
       <c r="T741" s="7"/>
       <c r="U741" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A742" s="7"/>
       <c r="B742" s="8"/>
       <c r="C742" s="9"/>
@@ -18263,7 +18266,7 @@
       <c r="T742" s="7"/>
       <c r="U742" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A743" s="7"/>
       <c r="B743" s="8"/>
       <c r="C743" s="9"/>
@@ -18286,7 +18289,7 @@
       <c r="T743" s="7"/>
       <c r="U743" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A744" s="7"/>
       <c r="B744" s="8"/>
       <c r="C744" s="9"/>
@@ -18309,7 +18312,7 @@
       <c r="T744" s="7"/>
       <c r="U744" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A745" s="7"/>
       <c r="B745" s="8"/>
       <c r="C745" s="9"/>
@@ -18332,7 +18335,7 @@
       <c r="T745" s="7"/>
       <c r="U745" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A746" s="7"/>
       <c r="B746" s="8"/>
       <c r="C746" s="9"/>
@@ -18355,7 +18358,7 @@
       <c r="T746" s="7"/>
       <c r="U746" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A747" s="7"/>
       <c r="B747" s="8"/>
       <c r="C747" s="9"/>
@@ -18378,7 +18381,7 @@
       <c r="T747" s="7"/>
       <c r="U747" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A748" s="7"/>
       <c r="B748" s="8"/>
       <c r="C748" s="9"/>
@@ -18401,7 +18404,7 @@
       <c r="T748" s="7"/>
       <c r="U748" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A749" s="7"/>
       <c r="B749" s="8"/>
       <c r="C749" s="9"/>
@@ -18424,7 +18427,7 @@
       <c r="T749" s="7"/>
       <c r="U749" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A750" s="7"/>
       <c r="B750" s="8"/>
       <c r="C750" s="9"/>
@@ -18447,7 +18450,7 @@
       <c r="T750" s="7"/>
       <c r="U750" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A751" s="7"/>
       <c r="B751" s="8"/>
       <c r="C751" s="9"/>
@@ -18470,7 +18473,7 @@
       <c r="T751" s="7"/>
       <c r="U751" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A752" s="7"/>
       <c r="B752" s="8"/>
       <c r="C752" s="9"/>
@@ -18493,7 +18496,7 @@
       <c r="T752" s="7"/>
       <c r="U752" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A753" s="7"/>
       <c r="B753" s="8"/>
       <c r="C753" s="9"/>
@@ -18516,7 +18519,7 @@
       <c r="T753" s="7"/>
       <c r="U753" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A754" s="7"/>
       <c r="B754" s="8"/>
       <c r="C754" s="9"/>
@@ -18539,7 +18542,7 @@
       <c r="T754" s="7"/>
       <c r="U754" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A755" s="7"/>
       <c r="B755" s="8"/>
       <c r="C755" s="9"/>
@@ -18562,7 +18565,7 @@
       <c r="T755" s="7"/>
       <c r="U755" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A756" s="7"/>
       <c r="B756" s="8"/>
       <c r="C756" s="9"/>
@@ -18585,7 +18588,7 @@
       <c r="T756" s="7"/>
       <c r="U756" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A757" s="7"/>
       <c r="B757" s="8"/>
       <c r="C757" s="9"/>
@@ -18608,7 +18611,7 @@
       <c r="T757" s="7"/>
       <c r="U757" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A758" s="7"/>
       <c r="B758" s="8"/>
       <c r="C758" s="9"/>
@@ -18631,7 +18634,7 @@
       <c r="T758" s="7"/>
       <c r="U758" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A759" s="7"/>
       <c r="B759" s="8"/>
       <c r="C759" s="9"/>
@@ -18654,7 +18657,7 @@
       <c r="T759" s="7"/>
       <c r="U759" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A760" s="7"/>
       <c r="B760" s="8"/>
       <c r="C760" s="9"/>
@@ -18677,7 +18680,7 @@
       <c r="T760" s="7"/>
       <c r="U760" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A761" s="7"/>
       <c r="B761" s="8"/>
       <c r="C761" s="9"/>
@@ -18700,7 +18703,7 @@
       <c r="T761" s="7"/>
       <c r="U761" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A762" s="7"/>
       <c r="B762" s="8"/>
       <c r="C762" s="9"/>
@@ -18723,7 +18726,7 @@
       <c r="T762" s="7"/>
       <c r="U762" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A763" s="7"/>
       <c r="B763" s="8"/>
       <c r="C763" s="9"/>
@@ -18746,7 +18749,7 @@
       <c r="T763" s="7"/>
       <c r="U763" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A764" s="7"/>
       <c r="B764" s="8"/>
       <c r="C764" s="9"/>
@@ -18769,7 +18772,7 @@
       <c r="T764" s="7"/>
       <c r="U764" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A765" s="7"/>
       <c r="B765" s="8"/>
       <c r="C765" s="9"/>
@@ -18792,7 +18795,7 @@
       <c r="T765" s="7"/>
       <c r="U765" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A766" s="7"/>
       <c r="B766" s="8"/>
       <c r="C766" s="9"/>
@@ -18815,7 +18818,7 @@
       <c r="T766" s="7"/>
       <c r="U766" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A767" s="7"/>
       <c r="B767" s="8"/>
       <c r="C767" s="9"/>
@@ -18838,7 +18841,7 @@
       <c r="T767" s="7"/>
       <c r="U767" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A768" s="7"/>
       <c r="B768" s="8"/>
       <c r="C768" s="9"/>
@@ -18861,7 +18864,7 @@
       <c r="T768" s="7"/>
       <c r="U768" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A769" s="7"/>
       <c r="B769" s="8"/>
       <c r="C769" s="9"/>
@@ -18884,7 +18887,7 @@
       <c r="T769" s="7"/>
       <c r="U769" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A770" s="7"/>
       <c r="B770" s="8"/>
       <c r="C770" s="9"/>
@@ -18907,7 +18910,7 @@
       <c r="T770" s="7"/>
       <c r="U770" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A771" s="7"/>
       <c r="B771" s="8"/>
       <c r="C771" s="9"/>
@@ -18930,7 +18933,7 @@
       <c r="T771" s="7"/>
       <c r="U771" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A772" s="7"/>
       <c r="B772" s="8"/>
       <c r="C772" s="9"/>
@@ -18953,7 +18956,7 @@
       <c r="T772" s="7"/>
       <c r="U772" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A773" s="7"/>
       <c r="B773" s="8"/>
       <c r="C773" s="9"/>
@@ -18976,7 +18979,7 @@
       <c r="T773" s="7"/>
       <c r="U773" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A774" s="7"/>
       <c r="B774" s="8"/>
       <c r="C774" s="9"/>
@@ -18999,7 +19002,7 @@
       <c r="T774" s="7"/>
       <c r="U774" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A775" s="7"/>
       <c r="B775" s="8"/>
       <c r="C775" s="9"/>
@@ -19022,7 +19025,7 @@
       <c r="T775" s="7"/>
       <c r="U775" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A776" s="7"/>
       <c r="B776" s="8"/>
       <c r="C776" s="9"/>
@@ -19045,7 +19048,7 @@
       <c r="T776" s="7"/>
       <c r="U776" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A777" s="7"/>
       <c r="B777" s="8"/>
       <c r="C777" s="9"/>
@@ -19068,7 +19071,7 @@
       <c r="T777" s="7"/>
       <c r="U777" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A778" s="7"/>
       <c r="B778" s="8"/>
       <c r="C778" s="9"/>
@@ -19091,7 +19094,7 @@
       <c r="T778" s="7"/>
       <c r="U778" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A779" s="7"/>
       <c r="B779" s="8"/>
       <c r="C779" s="9"/>
@@ -19114,7 +19117,7 @@
       <c r="T779" s="7"/>
       <c r="U779" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A780" s="7"/>
       <c r="B780" s="8"/>
       <c r="C780" s="9"/>
@@ -19137,7 +19140,7 @@
       <c r="T780" s="7"/>
       <c r="U780" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A781" s="7"/>
       <c r="B781" s="8"/>
       <c r="C781" s="9"/>
@@ -19160,7 +19163,7 @@
       <c r="T781" s="7"/>
       <c r="U781" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A782" s="7"/>
       <c r="B782" s="8"/>
       <c r="C782" s="9"/>
@@ -19183,7 +19186,7 @@
       <c r="T782" s="7"/>
       <c r="U782" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A783" s="7"/>
       <c r="B783" s="8"/>
       <c r="C783" s="9"/>
@@ -19206,7 +19209,7 @@
       <c r="T783" s="7"/>
       <c r="U783" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A784" s="7"/>
       <c r="B784" s="8"/>
       <c r="C784" s="9"/>
@@ -19229,7 +19232,7 @@
       <c r="T784" s="7"/>
       <c r="U784" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A785" s="7"/>
       <c r="B785" s="8"/>
       <c r="C785" s="9"/>
@@ -19252,7 +19255,7 @@
       <c r="T785" s="7"/>
       <c r="U785" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A786" s="7"/>
       <c r="B786" s="8"/>
       <c r="C786" s="9"/>
@@ -19275,7 +19278,7 @@
       <c r="T786" s="7"/>
       <c r="U786" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A787" s="7"/>
       <c r="B787" s="8"/>
       <c r="C787" s="9"/>
@@ -19298,7 +19301,7 @@
       <c r="T787" s="7"/>
       <c r="U787" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A788" s="7"/>
       <c r="B788" s="8"/>
       <c r="C788" s="9"/>
@@ -19321,7 +19324,7 @@
       <c r="T788" s="7"/>
       <c r="U788" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A789" s="7"/>
       <c r="B789" s="8"/>
       <c r="C789" s="9"/>
@@ -19344,7 +19347,7 @@
       <c r="T789" s="7"/>
       <c r="U789" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A790" s="7"/>
       <c r="B790" s="8"/>
       <c r="C790" s="9"/>
@@ -19367,7 +19370,7 @@
       <c r="T790" s="7"/>
       <c r="U790" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A791" s="7"/>
       <c r="B791" s="8"/>
       <c r="C791" s="9"/>
@@ -19390,7 +19393,7 @@
       <c r="T791" s="7"/>
       <c r="U791" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A792" s="7"/>
       <c r="B792" s="8"/>
       <c r="C792" s="9"/>
@@ -19413,7 +19416,7 @@
       <c r="T792" s="7"/>
       <c r="U792" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A793" s="7"/>
       <c r="B793" s="8"/>
       <c r="C793" s="9"/>
@@ -19436,7 +19439,7 @@
       <c r="T793" s="7"/>
       <c r="U793" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A794" s="7"/>
       <c r="B794" s="8"/>
       <c r="C794" s="9"/>
@@ -19459,7 +19462,7 @@
       <c r="T794" s="7"/>
       <c r="U794" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A795" s="7"/>
       <c r="B795" s="8"/>
       <c r="C795" s="9"/>
@@ -19482,7 +19485,7 @@
       <c r="T795" s="7"/>
       <c r="U795" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A796" s="7"/>
       <c r="B796" s="8"/>
       <c r="C796" s="9"/>
@@ -19505,7 +19508,7 @@
       <c r="T796" s="7"/>
       <c r="U796" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A797" s="7"/>
       <c r="B797" s="8"/>
       <c r="C797" s="9"/>
@@ -19528,7 +19531,7 @@
       <c r="T797" s="7"/>
       <c r="U797" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A798" s="7"/>
       <c r="B798" s="8"/>
       <c r="C798" s="9"/>
@@ -19551,7 +19554,7 @@
       <c r="T798" s="7"/>
       <c r="U798" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A799" s="7"/>
       <c r="B799" s="8"/>
       <c r="C799" s="9"/>
@@ -19574,7 +19577,7 @@
       <c r="T799" s="7"/>
       <c r="U799" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A800" s="7"/>
       <c r="B800" s="8"/>
       <c r="C800" s="9"/>
@@ -19597,7 +19600,7 @@
       <c r="T800" s="7"/>
       <c r="U800" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A801" s="7"/>
       <c r="B801" s="8"/>
       <c r="C801" s="9"/>
@@ -19620,7 +19623,7 @@
       <c r="T801" s="7"/>
       <c r="U801" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A802" s="7"/>
       <c r="B802" s="8"/>
       <c r="C802" s="9"/>
@@ -19643,7 +19646,7 @@
       <c r="T802" s="7"/>
       <c r="U802" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A803" s="7"/>
       <c r="B803" s="8"/>
       <c r="C803" s="9"/>
@@ -19666,7 +19669,7 @@
       <c r="T803" s="7"/>
       <c r="U803" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A804" s="7"/>
       <c r="B804" s="8"/>
       <c r="C804" s="7"/>
@@ -19689,7 +19692,7 @@
       <c r="T804" s="7"/>
       <c r="U804" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A805" s="7"/>
       <c r="B805" s="8"/>
       <c r="C805" s="7"/>
@@ -19712,7 +19715,7 @@
       <c r="T805" s="7"/>
       <c r="U805" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A806" s="7"/>
       <c r="B806" s="8"/>
       <c r="C806" s="7"/>
@@ -19735,7 +19738,7 @@
       <c r="T806" s="7"/>
       <c r="U806" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A807" s="7"/>
       <c r="B807" s="8"/>
       <c r="C807" s="7"/>
@@ -19758,7 +19761,7 @@
       <c r="T807" s="7"/>
       <c r="U807" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A808" s="7"/>
       <c r="B808" s="8"/>
       <c r="C808" s="7"/>
@@ -19781,7 +19784,7 @@
       <c r="T808" s="7"/>
       <c r="U808" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A809" s="7"/>
       <c r="B809" s="8"/>
       <c r="C809" s="7"/>
@@ -19804,7 +19807,7 @@
       <c r="T809" s="7"/>
       <c r="U809" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A810" s="7"/>
       <c r="B810" s="8"/>
       <c r="C810" s="7"/>
@@ -19827,7 +19830,7 @@
       <c r="T810" s="7"/>
       <c r="U810" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A811" s="7"/>
       <c r="B811" s="8"/>
       <c r="C811" s="7"/>
@@ -19850,7 +19853,7 @@
       <c r="T811" s="7"/>
       <c r="U811" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A812" s="7"/>
       <c r="B812" s="8"/>
       <c r="C812" s="7"/>
@@ -19873,7 +19876,7 @@
       <c r="T812" s="7"/>
       <c r="U812" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A813" s="7"/>
       <c r="B813" s="8"/>
       <c r="C813" s="7"/>
@@ -19896,7 +19899,7 @@
       <c r="T813" s="7"/>
       <c r="U813" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="15.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="15.75" customFormat="1" s="1">
       <c r="A814" s="7"/>
       <c r="B814" s="8"/>
       <c r="C814" s="7"/>
@@ -19919,327 +19922,327 @@
       <c r="T814" s="7"/>
       <c r="U814" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="15.75">
-      <c r="A815" s="1"/>
+    <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A815" s="2"/>
       <c r="B815" s="8"/>
-      <c r="C815" s="1"/>
-      <c r="D815" s="1"/>
-      <c r="E815" s="1"/>
-      <c r="F815" s="1"/>
-      <c r="G815" s="1"/>
-      <c r="H815" s="1"/>
-      <c r="I815" s="1"/>
-      <c r="J815" s="1"/>
-      <c r="K815" s="1"/>
-      <c r="L815" s="1"/>
-      <c r="M815" s="1"/>
-      <c r="N815" s="1"/>
-      <c r="O815" s="1"/>
-      <c r="P815" s="1"/>
-      <c r="Q815" s="1"/>
-      <c r="R815" s="1"/>
-      <c r="S815" s="1"/>
-      <c r="T815" s="1"/>
-      <c r="U815" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="15.75">
-      <c r="A816" s="1"/>
+      <c r="C815" s="2"/>
+      <c r="D815" s="2"/>
+      <c r="E815" s="2"/>
+      <c r="F815" s="2"/>
+      <c r="G815" s="2"/>
+      <c r="H815" s="2"/>
+      <c r="I815" s="2"/>
+      <c r="J815" s="2"/>
+      <c r="K815" s="2"/>
+      <c r="L815" s="2"/>
+      <c r="M815" s="2"/>
+      <c r="N815" s="2"/>
+      <c r="O815" s="2"/>
+      <c r="P815" s="2"/>
+      <c r="Q815" s="2"/>
+      <c r="R815" s="2"/>
+      <c r="S815" s="2"/>
+      <c r="T815" s="2"/>
+      <c r="U815" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A816" s="2"/>
       <c r="B816" s="8"/>
-      <c r="C816" s="1"/>
-      <c r="D816" s="1"/>
-      <c r="E816" s="1"/>
-      <c r="F816" s="1"/>
-      <c r="G816" s="1"/>
-      <c r="H816" s="1"/>
-      <c r="I816" s="1"/>
-      <c r="J816" s="1"/>
-      <c r="K816" s="1"/>
-      <c r="L816" s="1"/>
-      <c r="M816" s="1"/>
-      <c r="N816" s="1"/>
-      <c r="O816" s="1"/>
-      <c r="P816" s="1"/>
-      <c r="Q816" s="1"/>
-      <c r="R816" s="1"/>
-      <c r="S816" s="1"/>
-      <c r="T816" s="1"/>
-      <c r="U816" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="15.75">
-      <c r="A817" s="1"/>
+      <c r="C816" s="2"/>
+      <c r="D816" s="2"/>
+      <c r="E816" s="2"/>
+      <c r="F816" s="2"/>
+      <c r="G816" s="2"/>
+      <c r="H816" s="2"/>
+      <c r="I816" s="2"/>
+      <c r="J816" s="2"/>
+      <c r="K816" s="2"/>
+      <c r="L816" s="2"/>
+      <c r="M816" s="2"/>
+      <c r="N816" s="2"/>
+      <c r="O816" s="2"/>
+      <c r="P816" s="2"/>
+      <c r="Q816" s="2"/>
+      <c r="R816" s="2"/>
+      <c r="S816" s="2"/>
+      <c r="T816" s="2"/>
+      <c r="U816" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A817" s="2"/>
       <c r="B817" s="8"/>
-      <c r="C817" s="1"/>
-      <c r="D817" s="1"/>
-      <c r="E817" s="1"/>
-      <c r="F817" s="1"/>
-      <c r="G817" s="1"/>
-      <c r="H817" s="1"/>
-      <c r="I817" s="1"/>
-      <c r="J817" s="1"/>
-      <c r="K817" s="1"/>
-      <c r="L817" s="1"/>
-      <c r="M817" s="1"/>
-      <c r="N817" s="1"/>
-      <c r="O817" s="1"/>
-      <c r="P817" s="1"/>
-      <c r="Q817" s="1"/>
-      <c r="R817" s="1"/>
-      <c r="S817" s="1"/>
-      <c r="T817" s="1"/>
-      <c r="U817" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="15.75">
-      <c r="A818" s="1"/>
+      <c r="C817" s="2"/>
+      <c r="D817" s="2"/>
+      <c r="E817" s="2"/>
+      <c r="F817" s="2"/>
+      <c r="G817" s="2"/>
+      <c r="H817" s="2"/>
+      <c r="I817" s="2"/>
+      <c r="J817" s="2"/>
+      <c r="K817" s="2"/>
+      <c r="L817" s="2"/>
+      <c r="M817" s="2"/>
+      <c r="N817" s="2"/>
+      <c r="O817" s="2"/>
+      <c r="P817" s="2"/>
+      <c r="Q817" s="2"/>
+      <c r="R817" s="2"/>
+      <c r="S817" s="2"/>
+      <c r="T817" s="2"/>
+      <c r="U817" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A818" s="2"/>
       <c r="B818" s="8"/>
-      <c r="C818" s="1"/>
-      <c r="D818" s="1"/>
-      <c r="E818" s="1"/>
-      <c r="F818" s="1"/>
-      <c r="G818" s="1"/>
-      <c r="H818" s="1"/>
-      <c r="I818" s="1"/>
-      <c r="J818" s="1"/>
-      <c r="K818" s="1"/>
-      <c r="L818" s="1"/>
-      <c r="M818" s="1"/>
-      <c r="N818" s="1"/>
-      <c r="O818" s="1"/>
-      <c r="P818" s="1"/>
-      <c r="Q818" s="1"/>
-      <c r="R818" s="1"/>
-      <c r="S818" s="1"/>
-      <c r="T818" s="1"/>
-      <c r="U818" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="15.75">
-      <c r="A819" s="1"/>
+      <c r="C818" s="2"/>
+      <c r="D818" s="2"/>
+      <c r="E818" s="2"/>
+      <c r="F818" s="2"/>
+      <c r="G818" s="2"/>
+      <c r="H818" s="2"/>
+      <c r="I818" s="2"/>
+      <c r="J818" s="2"/>
+      <c r="K818" s="2"/>
+      <c r="L818" s="2"/>
+      <c r="M818" s="2"/>
+      <c r="N818" s="2"/>
+      <c r="O818" s="2"/>
+      <c r="P818" s="2"/>
+      <c r="Q818" s="2"/>
+      <c r="R818" s="2"/>
+      <c r="S818" s="2"/>
+      <c r="T818" s="2"/>
+      <c r="U818" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A819" s="2"/>
       <c r="B819" s="8"/>
-      <c r="C819" s="1"/>
-      <c r="D819" s="1"/>
-      <c r="E819" s="1"/>
-      <c r="F819" s="1"/>
-      <c r="G819" s="1"/>
-      <c r="H819" s="1"/>
-      <c r="I819" s="1"/>
-      <c r="J819" s="1"/>
-      <c r="K819" s="1"/>
-      <c r="L819" s="1"/>
-      <c r="M819" s="1"/>
-      <c r="N819" s="1"/>
-      <c r="O819" s="1"/>
-      <c r="P819" s="1"/>
-      <c r="Q819" s="1"/>
-      <c r="R819" s="1"/>
-      <c r="S819" s="1"/>
-      <c r="T819" s="1"/>
-      <c r="U819" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="15.75">
-      <c r="A820" s="1"/>
+      <c r="C819" s="2"/>
+      <c r="D819" s="2"/>
+      <c r="E819" s="2"/>
+      <c r="F819" s="2"/>
+      <c r="G819" s="2"/>
+      <c r="H819" s="2"/>
+      <c r="I819" s="2"/>
+      <c r="J819" s="2"/>
+      <c r="K819" s="2"/>
+      <c r="L819" s="2"/>
+      <c r="M819" s="2"/>
+      <c r="N819" s="2"/>
+      <c r="O819" s="2"/>
+      <c r="P819" s="2"/>
+      <c r="Q819" s="2"/>
+      <c r="R819" s="2"/>
+      <c r="S819" s="2"/>
+      <c r="T819" s="2"/>
+      <c r="U819" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A820" s="2"/>
       <c r="B820" s="8"/>
-      <c r="C820" s="1"/>
-      <c r="D820" s="1"/>
-      <c r="E820" s="1"/>
-      <c r="F820" s="1"/>
-      <c r="G820" s="1"/>
-      <c r="H820" s="1"/>
-      <c r="I820" s="1"/>
-      <c r="J820" s="1"/>
-      <c r="K820" s="1"/>
-      <c r="L820" s="1"/>
-      <c r="M820" s="1"/>
-      <c r="N820" s="1"/>
-      <c r="O820" s="1"/>
-      <c r="P820" s="1"/>
-      <c r="Q820" s="1"/>
-      <c r="R820" s="1"/>
-      <c r="S820" s="1"/>
-      <c r="T820" s="1"/>
-      <c r="U820" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="15.75">
-      <c r="A821" s="1"/>
+      <c r="C820" s="2"/>
+      <c r="D820" s="2"/>
+      <c r="E820" s="2"/>
+      <c r="F820" s="2"/>
+      <c r="G820" s="2"/>
+      <c r="H820" s="2"/>
+      <c r="I820" s="2"/>
+      <c r="J820" s="2"/>
+      <c r="K820" s="2"/>
+      <c r="L820" s="2"/>
+      <c r="M820" s="2"/>
+      <c r="N820" s="2"/>
+      <c r="O820" s="2"/>
+      <c r="P820" s="2"/>
+      <c r="Q820" s="2"/>
+      <c r="R820" s="2"/>
+      <c r="S820" s="2"/>
+      <c r="T820" s="2"/>
+      <c r="U820" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A821" s="2"/>
       <c r="B821" s="8"/>
-      <c r="C821" s="1"/>
-      <c r="D821" s="1"/>
-      <c r="E821" s="1"/>
-      <c r="F821" s="1"/>
-      <c r="G821" s="1"/>
-      <c r="H821" s="1"/>
-      <c r="I821" s="1"/>
-      <c r="J821" s="1"/>
-      <c r="K821" s="1"/>
-      <c r="L821" s="1"/>
-      <c r="M821" s="1"/>
-      <c r="N821" s="1"/>
-      <c r="O821" s="1"/>
-      <c r="P821" s="1"/>
-      <c r="Q821" s="1"/>
-      <c r="R821" s="1"/>
-      <c r="S821" s="1"/>
-      <c r="T821" s="1"/>
-      <c r="U821" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="15.75">
-      <c r="A822" s="1"/>
+      <c r="C821" s="2"/>
+      <c r="D821" s="2"/>
+      <c r="E821" s="2"/>
+      <c r="F821" s="2"/>
+      <c r="G821" s="2"/>
+      <c r="H821" s="2"/>
+      <c r="I821" s="2"/>
+      <c r="J821" s="2"/>
+      <c r="K821" s="2"/>
+      <c r="L821" s="2"/>
+      <c r="M821" s="2"/>
+      <c r="N821" s="2"/>
+      <c r="O821" s="2"/>
+      <c r="P821" s="2"/>
+      <c r="Q821" s="2"/>
+      <c r="R821" s="2"/>
+      <c r="S821" s="2"/>
+      <c r="T821" s="2"/>
+      <c r="U821" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A822" s="2"/>
       <c r="B822" s="8"/>
-      <c r="C822" s="1"/>
-      <c r="D822" s="1"/>
-      <c r="E822" s="1"/>
-      <c r="F822" s="1"/>
-      <c r="G822" s="1"/>
-      <c r="H822" s="1"/>
-      <c r="I822" s="1"/>
-      <c r="J822" s="1"/>
-      <c r="K822" s="1"/>
-      <c r="L822" s="1"/>
-      <c r="M822" s="1"/>
-      <c r="N822" s="1"/>
-      <c r="O822" s="1"/>
-      <c r="P822" s="1"/>
-      <c r="Q822" s="1"/>
-      <c r="R822" s="1"/>
-      <c r="S822" s="1"/>
-      <c r="T822" s="1"/>
-      <c r="U822" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="15.75">
-      <c r="A823" s="1"/>
+      <c r="C822" s="2"/>
+      <c r="D822" s="2"/>
+      <c r="E822" s="2"/>
+      <c r="F822" s="2"/>
+      <c r="G822" s="2"/>
+      <c r="H822" s="2"/>
+      <c r="I822" s="2"/>
+      <c r="J822" s="2"/>
+      <c r="K822" s="2"/>
+      <c r="L822" s="2"/>
+      <c r="M822" s="2"/>
+      <c r="N822" s="2"/>
+      <c r="O822" s="2"/>
+      <c r="P822" s="2"/>
+      <c r="Q822" s="2"/>
+      <c r="R822" s="2"/>
+      <c r="S822" s="2"/>
+      <c r="T822" s="2"/>
+      <c r="U822" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A823" s="2"/>
       <c r="B823" s="8"/>
-      <c r="C823" s="1"/>
-      <c r="D823" s="1"/>
-      <c r="E823" s="1"/>
-      <c r="F823" s="1"/>
-      <c r="G823" s="1"/>
-      <c r="H823" s="1"/>
-      <c r="I823" s="1"/>
-      <c r="J823" s="1"/>
-      <c r="K823" s="1"/>
-      <c r="L823" s="1"/>
-      <c r="M823" s="1"/>
-      <c r="N823" s="1"/>
-      <c r="O823" s="1"/>
-      <c r="P823" s="1"/>
-      <c r="Q823" s="1"/>
-      <c r="R823" s="1"/>
-      <c r="S823" s="1"/>
-      <c r="T823" s="1"/>
-      <c r="U823" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="15.75">
-      <c r="A824" s="1"/>
+      <c r="C823" s="2"/>
+      <c r="D823" s="2"/>
+      <c r="E823" s="2"/>
+      <c r="F823" s="2"/>
+      <c r="G823" s="2"/>
+      <c r="H823" s="2"/>
+      <c r="I823" s="2"/>
+      <c r="J823" s="2"/>
+      <c r="K823" s="2"/>
+      <c r="L823" s="2"/>
+      <c r="M823" s="2"/>
+      <c r="N823" s="2"/>
+      <c r="O823" s="2"/>
+      <c r="P823" s="2"/>
+      <c r="Q823" s="2"/>
+      <c r="R823" s="2"/>
+      <c r="S823" s="2"/>
+      <c r="T823" s="2"/>
+      <c r="U823" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A824" s="2"/>
       <c r="B824" s="8"/>
-      <c r="C824" s="1"/>
-      <c r="D824" s="1"/>
-      <c r="E824" s="1"/>
-      <c r="F824" s="1"/>
-      <c r="G824" s="1"/>
-      <c r="H824" s="1"/>
-      <c r="I824" s="1"/>
-      <c r="J824" s="1"/>
-      <c r="K824" s="1"/>
-      <c r="L824" s="1"/>
-      <c r="M824" s="1"/>
-      <c r="N824" s="1"/>
-      <c r="O824" s="1"/>
-      <c r="P824" s="1"/>
-      <c r="Q824" s="1"/>
-      <c r="R824" s="1"/>
-      <c r="S824" s="1"/>
-      <c r="T824" s="1"/>
-      <c r="U824" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="15.75">
-      <c r="A825" s="1"/>
+      <c r="C824" s="2"/>
+      <c r="D824" s="2"/>
+      <c r="E824" s="2"/>
+      <c r="F824" s="2"/>
+      <c r="G824" s="2"/>
+      <c r="H824" s="2"/>
+      <c r="I824" s="2"/>
+      <c r="J824" s="2"/>
+      <c r="K824" s="2"/>
+      <c r="L824" s="2"/>
+      <c r="M824" s="2"/>
+      <c r="N824" s="2"/>
+      <c r="O824" s="2"/>
+      <c r="P824" s="2"/>
+      <c r="Q824" s="2"/>
+      <c r="R824" s="2"/>
+      <c r="S824" s="2"/>
+      <c r="T824" s="2"/>
+      <c r="U824" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A825" s="2"/>
       <c r="B825" s="8"/>
-      <c r="C825" s="1"/>
-      <c r="D825" s="1"/>
-      <c r="E825" s="1"/>
-      <c r="F825" s="1"/>
-      <c r="G825" s="1"/>
-      <c r="H825" s="1"/>
-      <c r="I825" s="1"/>
-      <c r="J825" s="1"/>
-      <c r="K825" s="1"/>
-      <c r="L825" s="1"/>
-      <c r="M825" s="1"/>
-      <c r="N825" s="1"/>
-      <c r="O825" s="1"/>
-      <c r="P825" s="1"/>
-      <c r="Q825" s="1"/>
-      <c r="R825" s="1"/>
-      <c r="S825" s="1"/>
-      <c r="T825" s="1"/>
-      <c r="U825" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="15.75">
-      <c r="A826" s="1"/>
+      <c r="C825" s="2"/>
+      <c r="D825" s="2"/>
+      <c r="E825" s="2"/>
+      <c r="F825" s="2"/>
+      <c r="G825" s="2"/>
+      <c r="H825" s="2"/>
+      <c r="I825" s="2"/>
+      <c r="J825" s="2"/>
+      <c r="K825" s="2"/>
+      <c r="L825" s="2"/>
+      <c r="M825" s="2"/>
+      <c r="N825" s="2"/>
+      <c r="O825" s="2"/>
+      <c r="P825" s="2"/>
+      <c r="Q825" s="2"/>
+      <c r="R825" s="2"/>
+      <c r="S825" s="2"/>
+      <c r="T825" s="2"/>
+      <c r="U825" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A826" s="2"/>
       <c r="B826" s="8"/>
-      <c r="C826" s="1"/>
-      <c r="D826" s="1"/>
-      <c r="E826" s="1"/>
-      <c r="F826" s="1"/>
-      <c r="G826" s="1"/>
-      <c r="H826" s="1"/>
-      <c r="I826" s="1"/>
-      <c r="J826" s="1"/>
-      <c r="K826" s="1"/>
-      <c r="L826" s="1"/>
-      <c r="M826" s="1"/>
-      <c r="N826" s="1"/>
-      <c r="O826" s="1"/>
-      <c r="P826" s="1"/>
-      <c r="Q826" s="1"/>
-      <c r="R826" s="1"/>
-      <c r="S826" s="1"/>
-      <c r="T826" s="1"/>
-      <c r="U826" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="15.75">
-      <c r="A827" s="1"/>
+      <c r="C826" s="2"/>
+      <c r="D826" s="2"/>
+      <c r="E826" s="2"/>
+      <c r="F826" s="2"/>
+      <c r="G826" s="2"/>
+      <c r="H826" s="2"/>
+      <c r="I826" s="2"/>
+      <c r="J826" s="2"/>
+      <c r="K826" s="2"/>
+      <c r="L826" s="2"/>
+      <c r="M826" s="2"/>
+      <c r="N826" s="2"/>
+      <c r="O826" s="2"/>
+      <c r="P826" s="2"/>
+      <c r="Q826" s="2"/>
+      <c r="R826" s="2"/>
+      <c r="S826" s="2"/>
+      <c r="T826" s="2"/>
+      <c r="U826" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A827" s="2"/>
       <c r="B827" s="8"/>
-      <c r="C827" s="1"/>
-      <c r="D827" s="1"/>
-      <c r="E827" s="1"/>
-      <c r="F827" s="1"/>
-      <c r="G827" s="1"/>
-      <c r="H827" s="1"/>
-      <c r="I827" s="1"/>
-      <c r="J827" s="1"/>
-      <c r="K827" s="1"/>
-      <c r="L827" s="1"/>
-      <c r="M827" s="1"/>
-      <c r="N827" s="1"/>
-      <c r="O827" s="1"/>
-      <c r="P827" s="1"/>
-      <c r="Q827" s="1"/>
-      <c r="R827" s="1"/>
-      <c r="S827" s="1"/>
-      <c r="T827" s="1"/>
-      <c r="U827" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="15.75">
-      <c r="A828" s="1"/>
+      <c r="C827" s="2"/>
+      <c r="D827" s="2"/>
+      <c r="E827" s="2"/>
+      <c r="F827" s="2"/>
+      <c r="G827" s="2"/>
+      <c r="H827" s="2"/>
+      <c r="I827" s="2"/>
+      <c r="J827" s="2"/>
+      <c r="K827" s="2"/>
+      <c r="L827" s="2"/>
+      <c r="M827" s="2"/>
+      <c r="N827" s="2"/>
+      <c r="O827" s="2"/>
+      <c r="P827" s="2"/>
+      <c r="Q827" s="2"/>
+      <c r="R827" s="2"/>
+      <c r="S827" s="2"/>
+      <c r="T827" s="2"/>
+      <c r="U827" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A828" s="2"/>
       <c r="B828" s="8"/>
-      <c r="C828" s="1"/>
-      <c r="D828" s="1"/>
-      <c r="E828" s="1"/>
-      <c r="F828" s="1"/>
-      <c r="G828" s="1"/>
-      <c r="H828" s="1"/>
-      <c r="I828" s="1"/>
-      <c r="J828" s="1"/>
-      <c r="K828" s="1"/>
-      <c r="L828" s="1"/>
-      <c r="M828" s="1"/>
-      <c r="N828" s="1"/>
-      <c r="O828" s="1"/>
-      <c r="P828" s="1"/>
-      <c r="Q828" s="1"/>
-      <c r="R828" s="1"/>
-      <c r="S828" s="1"/>
-      <c r="T828" s="1"/>
-      <c r="U828" s="1"/>
+      <c r="C828" s="2"/>
+      <c r="D828" s="2"/>
+      <c r="E828" s="2"/>
+      <c r="F828" s="2"/>
+      <c r="G828" s="2"/>
+      <c r="H828" s="2"/>
+      <c r="I828" s="2"/>
+      <c r="J828" s="2"/>
+      <c r="K828" s="2"/>
+      <c r="L828" s="2"/>
+      <c r="M828" s="2"/>
+      <c r="N828" s="2"/>
+      <c r="O828" s="2"/>
+      <c r="P828" s="2"/>
+      <c r="Q828" s="2"/>
+      <c r="R828" s="2"/>
+      <c r="S828" s="2"/>
+      <c r="T828" s="2"/>
+      <c r="U828" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -377,6 +377,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="22"/>
       <color rgb="FF000000"/>
@@ -392,12 +398,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -530,19 +530,19 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
@@ -551,28 +551,28 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
@@ -582,7 +582,7 @@
       <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1370,7 +1370,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="126.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="121.5" customFormat="1" s="1">
       <c r="A17" s="7"/>
       <c r="B17" s="13">
         <v>13</v>
@@ -1399,7 +1399,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="49.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A18" s="7"/>
       <c r="B18" s="13">
         <v>14</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -1506,7 +1506,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="44.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A22" s="2"/>
       <c r="B22" s="12">
         <v>18</v>
@@ -1535,7 +1535,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A23" s="2"/>
       <c r="B23" s="12">
         <v>19</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -1564,7 +1564,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="36" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A24" s="2"/>
       <c r="B24" s="12">
         <v>20</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -2260,7 +2260,7 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="123.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="121.5" customFormat="1" s="1">
       <c r="A48" s="2"/>
       <c r="B48" s="12">
         <v>44</v>
@@ -2289,7 +2289,7 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="69" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="64.5" customFormat="1" s="1">
       <c r="A49" s="2"/>
       <c r="B49" s="12">
         <v>45</v>
@@ -2318,7 +2318,7 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="15.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A50" s="2"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
@@ -2341,7 +2341,7 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A51" s="2"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
@@ -2364,7 +2364,7 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="15.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A52" s="2"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
@@ -2387,7 +2387,7 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="15.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A53" s="2"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
@@ -2410,7 +2410,7 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="15.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A54" s="2"/>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
@@ -2433,7 +2433,7 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="15.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A55" s="2"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
@@ -2456,7 +2456,7 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="15.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A56" s="2"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
@@ -2479,7 +2479,7 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="15.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A57" s="2"/>
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -1593,7 +1593,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="87" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="75" customFormat="1" s="1">
       <c r="A25" s="2"/>
       <c r="B25" s="12">
         <v>21</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -1622,7 +1622,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="55.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="49.5" customFormat="1" s="1">
       <c r="A26" s="2"/>
       <c r="B26" s="12">
         <v>22</v>
@@ -1651,7 +1651,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="56.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="49.5" customFormat="1" s="1">
       <c r="A27" s="2"/>
       <c r="B27" s="12">
         <v>23</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -1738,7 +1738,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="15.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="51" customFormat="1" s="1">
       <c r="A30" s="2"/>
       <c r="B30" s="12">
         <v>26</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -1767,7 +1767,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="41.25" customFormat="1" s="1">
       <c r="A31" s="2"/>
       <c r="B31" s="12">
         <v>27</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -1767,7 +1767,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="41.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A31" s="2"/>
       <c r="B31" s="12">
         <v>27</v>
@@ -1796,7 +1796,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="84.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="78" customFormat="1" s="1">
       <c r="A32" s="2"/>
       <c r="B32" s="12">
         <v>28</v>
@@ -1825,7 +1825,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="45.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A33" s="2"/>
       <c r="B33" s="12">
         <v>29</v>
@@ -1854,7 +1854,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="71.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="61.5" customFormat="1" s="1">
       <c r="A34" s="2"/>
       <c r="B34" s="12">
         <v>30</v>
@@ -1883,7 +1883,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="48.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A35" s="2"/>
       <c r="B35" s="12">
         <v>31</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -1738,7 +1738,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="51" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A30" s="2"/>
       <c r="B30" s="12">
         <v>26</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -1680,7 +1680,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="108" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="102.75" customFormat="1" s="1">
       <c r="A28" s="2"/>
       <c r="B28" s="12">
         <v>24</v>
@@ -1709,7 +1709,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="63.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="61.5" customFormat="1" s="1">
       <c r="A29" s="2"/>
       <c r="B29" s="12">
         <v>25</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -1912,7 +1912,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="96" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="92.25" customFormat="1" s="1">
       <c r="A36" s="2"/>
       <c r="B36" s="12">
         <v>32</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -1941,7 +1941,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="69" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="63.75" customFormat="1" s="1">
       <c r="A37" s="2"/>
       <c r="B37" s="12">
         <v>33</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -1999,7 +1999,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="53.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="49.5" customFormat="1" s="1">
       <c r="A39" s="2"/>
       <c r="B39" s="12">
         <v>35</v>
@@ -2028,7 +2028,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="67.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="63.75" customFormat="1" s="1">
       <c r="A40" s="2"/>
       <c r="B40" s="12">
         <v>36</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -2057,7 +2057,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="69" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="75" customFormat="1" s="1">
       <c r="A41" s="2"/>
       <c r="B41" s="12">
         <v>37</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -2057,7 +2057,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="63.75" customFormat="1" s="1">
       <c r="A41" s="2"/>
       <c r="B41" s="12">
         <v>37</v>
@@ -2086,7 +2086,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="83.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="78" customFormat="1" s="1">
       <c r="A42" s="2"/>
       <c r="B42" s="12">
         <v>38</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -2115,7 +2115,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="127.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="121.5" customFormat="1" s="1">
       <c r="A43" s="2"/>
       <c r="B43" s="12">
         <v>39</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -2144,7 +2144,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="44.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A44" s="2"/>
       <c r="B44" s="12">
         <v>40</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -2173,7 +2173,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="111.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="106.5" customFormat="1" s="1">
       <c r="A45" s="2"/>
       <c r="B45" s="12">
         <v>41</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -2202,7 +2202,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="162.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="157.5" customFormat="1" s="1">
       <c r="A46" s="2"/>
       <c r="B46" s="12">
         <v>42</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -2231,7 +2231,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="120.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="116.25" customFormat="1" s="1">
       <c r="A47" s="2"/>
       <c r="B47" s="12">
         <v>43</v>

--- a/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
+++ b/SQL-Basic/5.3 BÀI TẬP THỰC HÀNH SQL  TRÊN W3C.xlsx
@@ -34,7 +34,7 @@
     <t>Câu truy vấn</t>
   </si>
   <si>
-    <t>Thắc mắc</t>
+    <t/>
   </si>
   <si>
     <t>Lấy ra toàn bộ thông tin trong bảng khách hàng</t>
@@ -519,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -552,6 +552,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -886,27 +889,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="2.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="5.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="51.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="48.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="2.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="5.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="51.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="48.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="32.25" customFormat="1" s="1">
@@ -993,7 +996,7 @@
       <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2"/>
@@ -1015,16 +1018,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="12">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1044,16 +1047,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="12">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1073,16 +1076,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="12">
+      <c r="B7" s="13">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1102,16 +1105,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="12">
+      <c r="B8" s="13">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1131,16 +1134,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="12">
+      <c r="B9" s="13">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1160,16 +1163,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="12">
+      <c r="B10" s="13">
         <v>6</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1189,16 +1192,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="12">
+      <c r="B11" s="13">
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1218,16 +1221,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="12">
+      <c r="B12" s="13">
         <v>8</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1247,16 +1250,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="12">
+      <c r="B13" s="13">
         <v>9</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1276,16 +1279,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="12">
+      <c r="B14" s="13">
         <v>10</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1305,16 +1308,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="12">
+      <c r="B15" s="13">
         <v>11</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1334,16 +1337,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="12">
+      <c r="B16" s="13">
         <v>12</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1363,16 +1366,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="121.5" customFormat="1" s="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="12">
+      <c r="B17" s="13">
         <v>13</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1392,16 +1395,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="12">
+      <c r="B18" s="13">
         <v>14</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1421,16 +1424,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="12">
+      <c r="B19" s="13">
         <v>15</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1450,16 +1453,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="12">
+      <c r="B20" s="13">
         <v>16</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1479,16 +1482,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="12">
+      <c r="B21" s="13">
         <v>17</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1508,16 +1511,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="12">
+      <c r="B22" s="13">
         <v>18</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1537,16 +1540,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="12">
+      <c r="B23" s="13">
         <v>19</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1566,16 +1569,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="12">
+      <c r="B24" s="13">
         <v>20</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1595,16 +1598,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="75" customFormat="1" s="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="12">
+      <c r="B25" s="13">
         <v>21</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1624,16 +1627,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="49.5" customFormat="1" s="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="12">
+      <c r="B26" s="13">
         <v>22</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1653,16 +1656,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="49.5" customFormat="1" s="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="12">
+      <c r="B27" s="13">
         <v>23</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1682,16 +1685,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="102.75" customFormat="1" s="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <v>24</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1711,16 +1714,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="61.5" customFormat="1" s="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="12">
+      <c r="B29" s="13">
         <v>25</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1740,16 +1743,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A30" s="2"/>
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <v>26</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1769,16 +1772,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="12">
+      <c r="B31" s="13">
         <v>27</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1798,16 +1801,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="78" customFormat="1" s="1">
       <c r="A32" s="2"/>
-      <c r="B32" s="12">
+      <c r="B32" s="13">
         <v>28</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="13"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1827,16 +1830,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A33" s="2"/>
-      <c r="B33" s="12">
+      <c r="B33" s="13">
         <v>29</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1856,16 +1859,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="61.5" customFormat="1" s="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="12">
+      <c r="B34" s="13">
         <v>30</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1885,16 +1888,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="12">
+      <c r="B35" s="13">
         <v>31</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="13"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1914,16 +1917,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="92.25" customFormat="1" s="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="12">
+      <c r="B36" s="13">
         <v>32</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="13"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1943,16 +1946,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="63.75" customFormat="1" s="1">
       <c r="A37" s="2"/>
-      <c r="B37" s="12">
+      <c r="B37" s="13">
         <v>33</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="13"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1972,16 +1975,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="63.75" customFormat="1" s="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="12">
+      <c r="B38" s="13">
         <v>34</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="13"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2001,16 +2004,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="49.5" customFormat="1" s="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="12">
+      <c r="B39" s="13">
         <v>35</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="13"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2030,16 +2033,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="63.75" customFormat="1" s="1">
       <c r="A40" s="2"/>
-      <c r="B40" s="12">
+      <c r="B40" s="13">
         <v>36</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="13"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2059,16 +2062,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="63.75" customFormat="1" s="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="12">
+      <c r="B41" s="13">
         <v>37</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="13"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2088,16 +2091,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="78" customFormat="1" s="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="12">
+      <c r="B42" s="13">
         <v>38</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="13"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2117,16 +2120,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="121.5" customFormat="1" s="1">
       <c r="A43" s="2"/>
-      <c r="B43" s="12">
+      <c r="B43" s="13">
         <v>39</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="13"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2146,16 +2149,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="34.5" customFormat="1" s="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="12">
+      <c r="B44" s="13">
         <v>40</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="13"/>
+      <c r="E44" s="14"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2175,16 +2178,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="106.5" customFormat="1" s="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="12">
+      <c r="B45" s="13">
         <v>41</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="13"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2204,16 +2207,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="157.5" customFormat="1" s="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="12">
+      <c r="B46" s="13">
         <v>42</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="13"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2233,16 +2236,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="116.25" customFormat="1" s="1">
       <c r="A47" s="2"/>
-      <c r="B47" s="12">
+      <c r="B47" s="13">
         <v>43</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="13"/>
+      <c r="E47" s="14"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2262,16 +2265,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="121.5" customFormat="1" s="1">
       <c r="A48" s="2"/>
-      <c r="B48" s="12">
+      <c r="B48" s="13">
         <v>44</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="13"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2291,16 +2294,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="64.5" customFormat="1" s="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="12">
+      <c r="B49" s="13">
         <v>45</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E49" s="13"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2322,7 +2325,7 @@
       <c r="A50" s="2"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="16"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2345,7 +2348,7 @@
       <c r="A51" s="2"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="16"/>
+      <c r="D51" s="17"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2368,7 +2371,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="16"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2391,7 +2394,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="16"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2414,7 +2417,7 @@
       <c r="A54" s="2"/>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="16"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -2437,7 +2440,7 @@
       <c r="A55" s="2"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="16"/>
+      <c r="D55" s="17"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -2460,7 +2463,7 @@
       <c r="A56" s="2"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="16"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2483,7 +2486,7 @@
       <c r="A57" s="2"/>
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="16"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -2506,7 +2509,7 @@
       <c r="A58" s="2"/>
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="16"/>
+      <c r="D58" s="17"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2529,7 +2532,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="16"/>
+      <c r="D59" s="17"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -2552,7 +2555,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="16"/>
+      <c r="D60" s="17"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -2575,7 +2578,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="16"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -2598,7 +2601,7 @@
       <c r="A62" s="2"/>
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="16"/>
+      <c r="D62" s="17"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -2621,7 +2624,7 @@
       <c r="A63" s="2"/>
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="16"/>
+      <c r="D63" s="17"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -2644,7 +2647,7 @@
       <c r="A64" s="2"/>
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="16"/>
+      <c r="D64" s="17"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -2667,7 +2670,7 @@
       <c r="A65" s="2"/>
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="16"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -2690,7 +2693,7 @@
       <c r="A66" s="2"/>
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="16"/>
+      <c r="D66" s="17"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -2713,7 +2716,7 @@
       <c r="A67" s="2"/>
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="16"/>
+      <c r="D67" s="17"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -2736,7 +2739,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="16"/>
+      <c r="D68" s="17"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -2759,7 +2762,7 @@
       <c r="A69" s="2"/>
       <c r="B69" s="7"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="16"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -2782,7 +2785,7 @@
       <c r="A70" s="2"/>
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="16"/>
+      <c r="D70" s="17"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -2805,7 +2808,7 @@
       <c r="A71" s="2"/>
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="16"/>
+      <c r="D71" s="17"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -2828,7 +2831,7 @@
       <c r="A72" s="2"/>
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="16"/>
+      <c r="D72" s="17"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -2851,7 +2854,7 @@
       <c r="A73" s="2"/>
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="16"/>
+      <c r="D73" s="17"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2874,7 +2877,7 @@
       <c r="A74" s="2"/>
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="16"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -2897,7 +2900,7 @@
       <c r="A75" s="2"/>
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="16"/>
+      <c r="D75" s="17"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -2920,7 +2923,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="16"/>
+      <c r="D76" s="17"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -2943,7 +2946,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="16"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -2966,7 +2969,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="16"/>
+      <c r="D78" s="17"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -2989,7 +2992,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="16"/>
+      <c r="D79" s="17"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -3012,7 +3015,7 @@
       <c r="A80" s="2"/>
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
-      <c r="D80" s="16"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -3035,7 +3038,7 @@
       <c r="A81" s="2"/>
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="16"/>
+      <c r="D81" s="17"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -3058,7 +3061,7 @@
       <c r="A82" s="2"/>
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
-      <c r="D82" s="16"/>
+      <c r="D82" s="17"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -3081,7 +3084,7 @@
       <c r="A83" s="2"/>
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="16"/>
+      <c r="D83" s="17"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -3104,7 +3107,7 @@
       <c r="A84" s="2"/>
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
-      <c r="D84" s="16"/>
+      <c r="D84" s="17"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -3127,7 +3130,7 @@
       <c r="A85" s="2"/>
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
-      <c r="D85" s="16"/>
+      <c r="D85" s="17"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -3150,7 +3153,7 @@
       <c r="A86" s="2"/>
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
-      <c r="D86" s="16"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -3173,7 +3176,7 @@
       <c r="A87" s="2"/>
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="16"/>
+      <c r="D87" s="17"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -3196,7 +3199,7 @@
       <c r="A88" s="2"/>
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
-      <c r="D88" s="16"/>
+      <c r="D88" s="17"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -3219,7 +3222,7 @@
       <c r="A89" s="2"/>
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="16"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -3242,7 +3245,7 @@
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="16"/>
+      <c r="D90" s="17"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -3265,7 +3268,7 @@
       <c r="A91" s="2"/>
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="16"/>
+      <c r="D91" s="17"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -3288,7 +3291,7 @@
       <c r="A92" s="2"/>
       <c r="B92" s="7"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="16"/>
+      <c r="D92" s="17"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -3311,7 +3314,7 @@
       <c r="A93" s="2"/>
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
-      <c r="D93" s="16"/>
+      <c r="D93" s="17"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -3334,7 +3337,7 @@
       <c r="A94" s="2"/>
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="16"/>
+      <c r="D94" s="17"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -3357,7 +3360,7 @@
       <c r="A95" s="2"/>
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="16"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -3380,7 +3383,7 @@
       <c r="A96" s="2"/>
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="16"/>
+      <c r="D96" s="17"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -3403,7 +3406,7 @@
       <c r="A97" s="2"/>
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="16"/>
+      <c r="D97" s="17"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -3426,7 +3429,7 @@
       <c r="A98" s="2"/>
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="16"/>
+      <c r="D98" s="17"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -3449,7 +3452,7 @@
       <c r="A99" s="2"/>
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="16"/>
+      <c r="D99" s="17"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -3472,7 +3475,7 @@
       <c r="A100" s="2"/>
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="16"/>
+      <c r="D100" s="17"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -3495,7 +3498,7 @@
       <c r="A101" s="2"/>
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="16"/>
+      <c r="D101" s="17"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -3518,7 +3521,7 @@
       <c r="A102" s="2"/>
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="16"/>
+      <c r="D102" s="17"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -3541,7 +3544,7 @@
       <c r="A103" s="2"/>
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="16"/>
+      <c r="D103" s="17"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -3564,7 +3567,7 @@
       <c r="A104" s="2"/>
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="16"/>
+      <c r="D104" s="17"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -3587,7 +3590,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="16"/>
+      <c r="D105" s="17"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -3610,7 +3613,7 @@
       <c r="A106" s="2"/>
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="16"/>
+      <c r="D106" s="17"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -3633,7 +3636,7 @@
       <c r="A107" s="2"/>
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="16"/>
+      <c r="D107" s="17"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -3656,7 +3659,7 @@
       <c r="A108" s="2"/>
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="16"/>
+      <c r="D108" s="17"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -3679,7 +3682,7 @@
       <c r="A109" s="2"/>
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="16"/>
+      <c r="D109" s="17"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -3702,7 +3705,7 @@
       <c r="A110" s="2"/>
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="16"/>
+      <c r="D110" s="17"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -3725,7 +3728,7 @@
       <c r="A111" s="2"/>
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="16"/>
+      <c r="D111" s="17"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -3748,7 +3751,7 @@
       <c r="A112" s="2"/>
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="16"/>
+      <c r="D112" s="17"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -3771,7 +3774,7 @@
       <c r="A113" s="2"/>
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="16"/>
+      <c r="D113" s="17"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -3794,7 +3797,7 @@
       <c r="A114" s="2"/>
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="16"/>
+      <c r="D114" s="17"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -3817,7 +3820,7 @@
       <c r="A115" s="2"/>
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="16"/>
+      <c r="D115" s="17"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -3840,7 +3843,7 @@
       <c r="A116" s="2"/>
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="16"/>
+      <c r="D116" s="17"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -3863,7 +3866,7 @@
       <c r="A117" s="2"/>
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
-      <c r="D117" s="16"/>
+      <c r="D117" s="17"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -3886,7 +3889,7 @@
       <c r="A118" s="2"/>
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
-      <c r="D118" s="16"/>
+      <c r="D118" s="17"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -3909,7 +3912,7 @@
       <c r="A119" s="2"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
-      <c r="D119" s="16"/>
+      <c r="D119" s="17"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -3932,7 +3935,7 @@
       <c r="A120" s="2"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
-      <c r="D120" s="16"/>
+      <c r="D120" s="17"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -3955,7 +3958,7 @@
       <c r="A121" s="2"/>
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
-      <c r="D121" s="16"/>
+      <c r="D121" s="17"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -3978,7 +3981,7 @@
       <c r="A122" s="2"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
-      <c r="D122" s="16"/>
+      <c r="D122" s="17"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -4001,7 +4004,7 @@
       <c r="A123" s="2"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
-      <c r="D123" s="16"/>
+      <c r="D123" s="17"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -4024,7 +4027,7 @@
       <c r="A124" s="2"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
-      <c r="D124" s="16"/>
+      <c r="D124" s="17"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -4047,7 +4050,7 @@
       <c r="A125" s="2"/>
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
-      <c r="D125" s="16"/>
+      <c r="D125" s="17"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -4070,7 +4073,7 @@
       <c r="A126" s="2"/>
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
-      <c r="D126" s="16"/>
+      <c r="D126" s="17"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -4093,7 +4096,7 @@
       <c r="A127" s="2"/>
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
-      <c r="D127" s="16"/>
+      <c r="D127" s="17"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -4116,7 +4119,7 @@
       <c r="A128" s="2"/>
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
-      <c r="D128" s="16"/>
+      <c r="D128" s="17"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -4139,7 +4142,7 @@
       <c r="A129" s="2"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
-      <c r="D129" s="16"/>
+      <c r="D129" s="17"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -4162,7 +4165,7 @@
       <c r="A130" s="2"/>
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
-      <c r="D130" s="16"/>
+      <c r="D130" s="17"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -4185,7 +4188,7 @@
       <c r="A131" s="2"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
-      <c r="D131" s="16"/>
+      <c r="D131" s="17"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -4208,7 +4211,7 @@
       <c r="A132" s="2"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
-      <c r="D132" s="16"/>
+      <c r="D132" s="17"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -4231,7 +4234,7 @@
       <c r="A133" s="2"/>
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
-      <c r="D133" s="16"/>
+      <c r="D133" s="17"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -4254,7 +4257,7 @@
       <c r="A134" s="2"/>
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
-      <c r="D134" s="16"/>
+      <c r="D134" s="17"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -4277,7 +4280,7 @@
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
-      <c r="D135" s="16"/>
+      <c r="D135" s="17"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -4300,7 +4303,7 @@
       <c r="A136" s="2"/>
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
-      <c r="D136" s="16"/>
+      <c r="D136" s="17"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -4323,7 +4326,7 @@
       <c r="A137" s="2"/>
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
-      <c r="D137" s="16"/>
+      <c r="D137" s="17"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -4346,7 +4349,7 @@
       <c r="A138" s="2"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
-      <c r="D138" s="16"/>
+      <c r="D138" s="17"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -4369,7 +4372,7 @@
       <c r="A139" s="2"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
-      <c r="D139" s="16"/>
+      <c r="D139" s="17"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -4392,7 +4395,7 @@
       <c r="A140" s="2"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
-      <c r="D140" s="16"/>
+      <c r="D140" s="17"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -4415,7 +4418,7 @@
       <c r="A141" s="2"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
-      <c r="D141" s="16"/>
+      <c r="D141" s="17"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
@@ -4438,7 +4441,7 @@
       <c r="A142" s="2"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
-      <c r="D142" s="16"/>
+      <c r="D142" s="17"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -4461,7 +4464,7 @@
       <c r="A143" s="2"/>
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
-      <c r="D143" s="16"/>
+      <c r="D143" s="17"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -4484,7 +4487,7 @@
       <c r="A144" s="2"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
-      <c r="D144" s="16"/>
+      <c r="D144" s="17"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -4507,7 +4510,7 @@
       <c r="A145" s="2"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
-      <c r="D145" s="16"/>
+      <c r="D145" s="17"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
@@ -4530,7 +4533,7 @@
       <c r="A146" s="2"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
-      <c r="D146" s="16"/>
+      <c r="D146" s="17"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -4553,7 +4556,7 @@
       <c r="A147" s="2"/>
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
-      <c r="D147" s="16"/>
+      <c r="D147" s="17"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -4576,7 +4579,7 @@
       <c r="A148" s="2"/>
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
-      <c r="D148" s="16"/>
+      <c r="D148" s="17"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -4599,7 +4602,7 @@
       <c r="A149" s="2"/>
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
-      <c r="D149" s="16"/>
+      <c r="D149" s="17"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -4622,7 +4625,7 @@
       <c r="A150" s="2"/>
       <c r="B150" s="7"/>
       <c r="C150" s="8"/>
-      <c r="D150" s="16"/>
+      <c r="D150" s="17"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -4645,7 +4648,7 @@
       <c r="A151" s="2"/>
       <c r="B151" s="7"/>
       <c r="C151" s="8"/>
-      <c r="D151" s="16"/>
+      <c r="D151" s="17"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -4668,7 +4671,7 @@
       <c r="A152" s="2"/>
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
-      <c r="D152" s="16"/>
+      <c r="D152" s="17"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
@@ -4691,7 +4694,7 @@
       <c r="A153" s="2"/>
       <c r="B153" s="7"/>
       <c r="C153" s="8"/>
-      <c r="D153" s="16"/>
+      <c r="D153" s="17"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -4714,7 +4717,7 @@
       <c r="A154" s="2"/>
       <c r="B154" s="7"/>
       <c r="C154" s="8"/>
-      <c r="D154" s="16"/>
+      <c r="D154" s="17"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -4737,7 +4740,7 @@
       <c r="A155" s="2"/>
       <c r="B155" s="7"/>
       <c r="C155" s="8"/>
-      <c r="D155" s="16"/>
+      <c r="D155" s="17"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -4760,7 +4763,7 @@
       <c r="A156" s="2"/>
       <c r="B156" s="7"/>
       <c r="C156" s="8"/>
-      <c r="D156" s="16"/>
+      <c r="D156" s="17"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -4783,7 +4786,7 @@
       <c r="A157" s="2"/>
       <c r="B157" s="7"/>
       <c r="C157" s="8"/>
-      <c r="D157" s="16"/>
+      <c r="D157" s="17"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -4806,7 +4809,7 @@
       <c r="A158" s="2"/>
       <c r="B158" s="7"/>
       <c r="C158" s="8"/>
-      <c r="D158" s="16"/>
+      <c r="D158" s="17"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -4829,7 +4832,7 @@
       <c r="A159" s="2"/>
       <c r="B159" s="7"/>
       <c r="C159" s="8"/>
-      <c r="D159" s="16"/>
+      <c r="D159" s="17"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
@@ -4852,7 +4855,7 @@
       <c r="A160" s="2"/>
       <c r="B160" s="7"/>
       <c r="C160" s="8"/>
-      <c r="D160" s="16"/>
+      <c r="D160" s="17"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -4875,7 +4878,7 @@
       <c r="A161" s="2"/>
       <c r="B161" s="7"/>
       <c r="C161" s="8"/>
-      <c r="D161" s="16"/>
+      <c r="D161" s="17"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -4898,7 +4901,7 @@
       <c r="A162" s="2"/>
       <c r="B162" s="7"/>
       <c r="C162" s="8"/>
-      <c r="D162" s="16"/>
+      <c r="D162" s="17"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -4921,7 +4924,7 @@
       <c r="A163" s="2"/>
       <c r="B163" s="7"/>
       <c r="C163" s="8"/>
-      <c r="D163" s="16"/>
+      <c r="D163" s="17"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -4944,7 +4947,7 @@
       <c r="A164" s="2"/>
       <c r="B164" s="7"/>
       <c r="C164" s="8"/>
-      <c r="D164" s="16"/>
+      <c r="D164" s="17"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -4967,7 +4970,7 @@
       <c r="A165" s="2"/>
       <c r="B165" s="7"/>
       <c r="C165" s="8"/>
-      <c r="D165" s="16"/>
+      <c r="D165" s="17"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -4990,7 +4993,7 @@
       <c r="A166" s="2"/>
       <c r="B166" s="7"/>
       <c r="C166" s="8"/>
-      <c r="D166" s="16"/>
+      <c r="D166" s="17"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -5013,7 +5016,7 @@
       <c r="A167" s="2"/>
       <c r="B167" s="7"/>
       <c r="C167" s="8"/>
-      <c r="D167" s="16"/>
+      <c r="D167" s="17"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -5036,7 +5039,7 @@
       <c r="A168" s="2"/>
       <c r="B168" s="7"/>
       <c r="C168" s="8"/>
-      <c r="D168" s="16"/>
+      <c r="D168" s="17"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -5059,7 +5062,7 @@
       <c r="A169" s="2"/>
       <c r="B169" s="7"/>
       <c r="C169" s="8"/>
-      <c r="D169" s="16"/>
+      <c r="D169" s="17"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -5082,7 +5085,7 @@
       <c r="A170" s="2"/>
       <c r="B170" s="7"/>
       <c r="C170" s="8"/>
-      <c r="D170" s="16"/>
+      <c r="D170" s="17"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -5105,7 +5108,7 @@
       <c r="A171" s="2"/>
       <c r="B171" s="7"/>
       <c r="C171" s="8"/>
-      <c r="D171" s="16"/>
+      <c r="D171" s="17"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -5128,7 +5131,7 @@
       <c r="A172" s="2"/>
       <c r="B172" s="7"/>
       <c r="C172" s="8"/>
-      <c r="D172" s="16"/>
+      <c r="D172" s="17"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -5151,7 +5154,7 @@
       <c r="A173" s="2"/>
       <c r="B173" s="7"/>
       <c r="C173" s="8"/>
-      <c r="D173" s="16"/>
+      <c r="D173" s="17"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -5174,7 +5177,7 @@
       <c r="A174" s="2"/>
       <c r="B174" s="7"/>
       <c r="C174" s="8"/>
-      <c r="D174" s="16"/>
+      <c r="D174" s="17"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -5197,7 +5200,7 @@
       <c r="A175" s="2"/>
       <c r="B175" s="7"/>
       <c r="C175" s="8"/>
-      <c r="D175" s="16"/>
+      <c r="D175" s="17"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -5220,7 +5223,7 @@
       <c r="A176" s="2"/>
       <c r="B176" s="7"/>
       <c r="C176" s="8"/>
-      <c r="D176" s="16"/>
+      <c r="D176" s="17"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -5243,7 +5246,7 @@
       <c r="A177" s="2"/>
       <c r="B177" s="7"/>
       <c r="C177" s="8"/>
-      <c r="D177" s="16"/>
+      <c r="D177" s="17"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
@@ -5266,7 +5269,7 @@
       <c r="A178" s="2"/>
       <c r="B178" s="7"/>
       <c r="C178" s="8"/>
-      <c r="D178" s="16"/>
+      <c r="D178" s="17"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -5289,7 +5292,7 @@
       <c r="A179" s="2"/>
       <c r="B179" s="7"/>
       <c r="C179" s="8"/>
-      <c r="D179" s="16"/>
+      <c r="D179" s="17"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
@@ -5312,7 +5315,7 @@
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="8"/>
-      <c r="D180" s="16"/>
+      <c r="D180" s="17"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -5335,7 +5338,7 @@
       <c r="A181" s="2"/>
       <c r="B181" s="7"/>
       <c r="C181" s="8"/>
-      <c r="D181" s="16"/>
+      <c r="D181" s="17"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
@@ -5358,7 +5361,7 @@
       <c r="A182" s="2"/>
       <c r="B182" s="7"/>
       <c r="C182" s="8"/>
-      <c r="D182" s="16"/>
+      <c r="D182" s="17"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
@@ -5381,7 +5384,7 @@
       <c r="A183" s="2"/>
       <c r="B183" s="7"/>
       <c r="C183" s="8"/>
-      <c r="D183" s="16"/>
+      <c r="D183" s="17"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -5404,7 +5407,7 @@
       <c r="A184" s="2"/>
       <c r="B184" s="7"/>
       <c r="C184" s="8"/>
-      <c r="D184" s="16"/>
+      <c r="D184" s="17"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -5427,7 +5430,7 @@
       <c r="A185" s="2"/>
       <c r="B185" s="7"/>
       <c r="C185" s="8"/>
-      <c r="D185" s="16"/>
+      <c r="D185" s="17"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -5450,7 +5453,7 @@
       <c r="A186" s="2"/>
       <c r="B186" s="7"/>
       <c r="C186" s="8"/>
-      <c r="D186" s="16"/>
+      <c r="D186" s="17"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
@@ -5473,7 +5476,7 @@
       <c r="A187" s="2"/>
       <c r="B187" s="7"/>
       <c r="C187" s="8"/>
-      <c r="D187" s="16"/>
+      <c r="D187" s="17"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
@@ -5496,7 +5499,7 @@
       <c r="A188" s="2"/>
       <c r="B188" s="7"/>
       <c r="C188" s="8"/>
-      <c r="D188" s="16"/>
+      <c r="D188" s="17"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -5519,7 +5522,7 @@
       <c r="A189" s="2"/>
       <c r="B189" s="7"/>
       <c r="C189" s="8"/>
-      <c r="D189" s="16"/>
+      <c r="D189" s="17"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
@@ -5542,7 +5545,7 @@
       <c r="A190" s="2"/>
       <c r="B190" s="7"/>
       <c r="C190" s="8"/>
-      <c r="D190" s="16"/>
+      <c r="D190" s="17"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -5565,7 +5568,7 @@
       <c r="A191" s="2"/>
       <c r="B191" s="7"/>
       <c r="C191" s="8"/>
-      <c r="D191" s="16"/>
+      <c r="D191" s="17"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -5588,7 +5591,7 @@
       <c r="A192" s="2"/>
       <c r="B192" s="7"/>
       <c r="C192" s="8"/>
-      <c r="D192" s="16"/>
+      <c r="D192" s="17"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
@@ -5611,7 +5614,7 @@
       <c r="A193" s="2"/>
       <c r="B193" s="7"/>
       <c r="C193" s="8"/>
-      <c r="D193" s="16"/>
+      <c r="D193" s="17"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -5634,7 +5637,7 @@
       <c r="A194" s="2"/>
       <c r="B194" s="7"/>
       <c r="C194" s="8"/>
-      <c r="D194" s="16"/>
+      <c r="D194" s="17"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -5657,7 +5660,7 @@
       <c r="A195" s="2"/>
       <c r="B195" s="7"/>
       <c r="C195" s="8"/>
-      <c r="D195" s="16"/>
+      <c r="D195" s="17"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -5680,7 +5683,7 @@
       <c r="A196" s="2"/>
       <c r="B196" s="7"/>
       <c r="C196" s="8"/>
-      <c r="D196" s="16"/>
+      <c r="D196" s="17"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -5703,7 +5706,7 @@
       <c r="A197" s="2"/>
       <c r="B197" s="7"/>
       <c r="C197" s="8"/>
-      <c r="D197" s="16"/>
+      <c r="D197" s="17"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
@@ -5726,7 +5729,7 @@
       <c r="A198" s="2"/>
       <c r="B198" s="7"/>
       <c r="C198" s="8"/>
-      <c r="D198" s="16"/>
+      <c r="D198" s="17"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
@@ -5749,7 +5752,7 @@
       <c r="A199" s="2"/>
       <c r="B199" s="7"/>
       <c r="C199" s="8"/>
-      <c r="D199" s="16"/>
+      <c r="D199" s="17"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
@@ -5772,7 +5775,7 @@
       <c r="A200" s="2"/>
       <c r="B200" s="7"/>
       <c r="C200" s="8"/>
-      <c r="D200" s="16"/>
+      <c r="D200" s="17"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
@@ -5795,7 +5798,7 @@
       <c r="A201" s="2"/>
       <c r="B201" s="7"/>
       <c r="C201" s="8"/>
-      <c r="D201" s="16"/>
+      <c r="D201" s="17"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
@@ -5818,7 +5821,7 @@
       <c r="A202" s="2"/>
       <c r="B202" s="7"/>
       <c r="C202" s="8"/>
-      <c r="D202" s="16"/>
+      <c r="D202" s="17"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -5841,7 +5844,7 @@
       <c r="A203" s="2"/>
       <c r="B203" s="7"/>
       <c r="C203" s="8"/>
-      <c r="D203" s="16"/>
+      <c r="D203" s="17"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
@@ -5864,7 +5867,7 @@
       <c r="A204" s="2"/>
       <c r="B204" s="7"/>
       <c r="C204" s="8"/>
-      <c r="D204" s="16"/>
+      <c r="D204" s="17"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
@@ -5887,7 +5890,7 @@
       <c r="A205" s="2"/>
       <c r="B205" s="7"/>
       <c r="C205" s="8"/>
-      <c r="D205" s="16"/>
+      <c r="D205" s="17"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
@@ -5910,7 +5913,7 @@
       <c r="A206" s="2"/>
       <c r="B206" s="7"/>
       <c r="C206" s="8"/>
-      <c r="D206" s="16"/>
+      <c r="D206" s="17"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -5933,7 +5936,7 @@
       <c r="A207" s="2"/>
       <c r="B207" s="7"/>
       <c r="C207" s="8"/>
-      <c r="D207" s="16"/>
+      <c r="D207" s="17"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
@@ -5956,7 +5959,7 @@
       <c r="A208" s="2"/>
       <c r="B208" s="7"/>
       <c r="C208" s="8"/>
-      <c r="D208" s="16"/>
+      <c r="D208" s="17"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
@@ -5979,7 +5982,7 @@
       <c r="A209" s="2"/>
       <c r="B209" s="7"/>
       <c r="C209" s="8"/>
-      <c r="D209" s="16"/>
+      <c r="D209" s="17"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
@@ -6002,7 +6005,7 @@
       <c r="A210" s="2"/>
       <c r="B210" s="7"/>
       <c r="C210" s="8"/>
-      <c r="D210" s="16"/>
+      <c r="D210" s="17"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
@@ -6025,7 +6028,7 @@
       <c r="A211" s="2"/>
       <c r="B211" s="7"/>
       <c r="C211" s="8"/>
-      <c r="D211" s="16"/>
+      <c r="D211" s="17"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
@@ -6048,7 +6051,7 @@
       <c r="A212" s="2"/>
       <c r="B212" s="7"/>
       <c r="C212" s="8"/>
-      <c r="D212" s="16"/>
+      <c r="D212" s="17"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
@@ -6071,7 +6074,7 @@
       <c r="A213" s="2"/>
       <c r="B213" s="7"/>
       <c r="C213" s="8"/>
-      <c r="D213" s="16"/>
+      <c r="D213" s="17"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
@@ -6094,7 +6097,7 @@
       <c r="A214" s="2"/>
       <c r="B214" s="7"/>
       <c r="C214" s="8"/>
-      <c r="D214" s="16"/>
+      <c r="D214" s="17"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
@@ -6117,7 +6120,7 @@
       <c r="A215" s="2"/>
       <c r="B215" s="7"/>
       <c r="C215" s="8"/>
-      <c r="D215" s="16"/>
+      <c r="D215" s="17"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
@@ -6140,7 +6143,7 @@
       <c r="A216" s="2"/>
       <c r="B216" s="7"/>
       <c r="C216" s="8"/>
-      <c r="D216" s="16"/>
+      <c r="D216" s="17"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
@@ -6163,7 +6166,7 @@
       <c r="A217" s="2"/>
       <c r="B217" s="7"/>
       <c r="C217" s="8"/>
-      <c r="D217" s="16"/>
+      <c r="D217" s="17"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
@@ -6186,7 +6189,7 @@
       <c r="A218" s="2"/>
       <c r="B218" s="7"/>
       <c r="C218" s="8"/>
-      <c r="D218" s="16"/>
+      <c r="D218" s="17"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
@@ -6209,7 +6212,7 @@
       <c r="A219" s="2"/>
       <c r="B219" s="7"/>
       <c r="C219" s="8"/>
-      <c r="D219" s="16"/>
+      <c r="D219" s="17"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
@@ -6232,7 +6235,7 @@
       <c r="A220" s="2"/>
       <c r="B220" s="7"/>
       <c r="C220" s="8"/>
-      <c r="D220" s="16"/>
+      <c r="D220" s="17"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
@@ -6255,7 +6258,7 @@
       <c r="A221" s="2"/>
       <c r="B221" s="7"/>
       <c r="C221" s="8"/>
-      <c r="D221" s="16"/>
+      <c r="D221" s="17"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
@@ -6278,7 +6281,7 @@
       <c r="A222" s="2"/>
       <c r="B222" s="7"/>
       <c r="C222" s="8"/>
-      <c r="D222" s="16"/>
+      <c r="D222" s="17"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
@@ -6301,7 +6304,7 @@
       <c r="A223" s="2"/>
       <c r="B223" s="7"/>
       <c r="C223" s="8"/>
-      <c r="D223" s="16"/>
+      <c r="D223" s="17"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -6324,7 +6327,7 @@
       <c r="A224" s="2"/>
       <c r="B224" s="7"/>
       <c r="C224" s="8"/>
-      <c r="D224" s="16"/>
+      <c r="D224" s="17"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
@@ -6347,7 +6350,7 @@
       <c r="A225" s="2"/>
       <c r="B225" s="7"/>
       <c r="C225" s="8"/>
-      <c r="D225" s="16"/>
+      <c r="D225" s="17"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
@@ -6370,7 +6373,7 @@
       <c r="A226" s="2"/>
       <c r="B226" s="7"/>
       <c r="C226" s="8"/>
-      <c r="D226" s="16"/>
+      <c r="D226" s="17"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
@@ -6393,7 +6396,7 @@
       <c r="A227" s="2"/>
       <c r="B227" s="7"/>
       <c r="C227" s="8"/>
-      <c r="D227" s="16"/>
+      <c r="D227" s="17"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
@@ -6416,7 +6419,7 @@
       <c r="A228" s="2"/>
       <c r="B228" s="7"/>
       <c r="C228" s="8"/>
-      <c r="D228" s="16"/>
+      <c r="D228" s="17"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
@@ -6439,7 +6442,7 @@
       <c r="A229" s="2"/>
       <c r="B229" s="7"/>
       <c r="C229" s="8"/>
-      <c r="D229" s="16"/>
+      <c r="D229" s="17"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
@@ -6462,7 +6465,7 @@
       <c r="A230" s="2"/>
       <c r="B230" s="7"/>
       <c r="C230" s="8"/>
-      <c r="D230" s="16"/>
+      <c r="D230" s="17"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -6485,7 +6488,7 @@
       <c r="A231" s="2"/>
       <c r="B231" s="7"/>
       <c r="C231" s="8"/>
-      <c r="D231" s="16"/>
+      <c r="D231" s="17"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
@@ -6508,7 +6511,7 @@
       <c r="A232" s="2"/>
       <c r="B232" s="7"/>
       <c r="C232" s="8"/>
-      <c r="D232" s="16"/>
+      <c r="D232" s="17"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
@@ -6531,7 +6534,7 @@
       <c r="A233" s="2"/>
       <c r="B233" s="7"/>
       <c r="C233" s="8"/>
-      <c r="D233" s="16"/>
+      <c r="D233" s="17"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
@@ -6554,7 +6557,7 @@
       <c r="A234" s="2"/>
       <c r="B234" s="7"/>
       <c r="C234" s="8"/>
-      <c r="D234" s="16"/>
+      <c r="D234" s="17"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
@@ -6577,7 +6580,7 @@
       <c r="A235" s="2"/>
       <c r="B235" s="7"/>
       <c r="C235" s="8"/>
-      <c r="D235" s="16"/>
+      <c r="D235" s="17"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
@@ -6600,7 +6603,7 @@
       <c r="A236" s="2"/>
       <c r="B236" s="7"/>
       <c r="C236" s="8"/>
-      <c r="D236" s="16"/>
+      <c r="D236" s="17"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
@@ -6623,7 +6626,7 @@
       <c r="A237" s="2"/>
       <c r="B237" s="7"/>
       <c r="C237" s="8"/>
-      <c r="D237" s="16"/>
+      <c r="D237" s="17"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
@@ -6646,7 +6649,7 @@
       <c r="A238" s="2"/>
       <c r="B238" s="7"/>
       <c r="C238" s="8"/>
-      <c r="D238" s="16"/>
+      <c r="D238" s="17"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
@@ -6669,7 +6672,7 @@
       <c r="A239" s="2"/>
       <c r="B239" s="7"/>
       <c r="C239" s="8"/>
-      <c r="D239" s="16"/>
+      <c r="D239" s="17"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
@@ -6692,7 +6695,7 @@
       <c r="A240" s="2"/>
       <c r="B240" s="7"/>
       <c r="C240" s="8"/>
-      <c r="D240" s="16"/>
+      <c r="D240" s="17"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
@@ -6715,7 +6718,7 @@
       <c r="A241" s="2"/>
       <c r="B241" s="7"/>
       <c r="C241" s="8"/>
-      <c r="D241" s="16"/>
+      <c r="D241" s="17"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
@@ -6738,7 +6741,7 @@
       <c r="A242" s="2"/>
       <c r="B242" s="7"/>
       <c r="C242" s="8"/>
-      <c r="D242" s="16"/>
+      <c r="D242" s="17"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -6761,7 +6764,7 @@
       <c r="A243" s="2"/>
       <c r="B243" s="7"/>
       <c r="C243" s="8"/>
-      <c r="D243" s="16"/>
+      <c r="D243" s="17"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
@@ -6784,7 +6787,7 @@
       <c r="A244" s="2"/>
       <c r="B244" s="7"/>
       <c r="C244" s="8"/>
-      <c r="D244" s="16"/>
+      <c r="D244" s="17"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
@@ -6807,7 +6810,7 @@
       <c r="A245" s="2"/>
       <c r="B245" s="7"/>
       <c r="C245" s="8"/>
-      <c r="D245" s="16"/>
+      <c r="D245" s="17"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
@@ -6830,7 +6833,7 @@
       <c r="A246" s="2"/>
       <c r="B246" s="7"/>
       <c r="C246" s="8"/>
-      <c r="D246" s="16"/>
+      <c r="D246" s="17"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
@@ -6853,7 +6856,7 @@
       <c r="A247" s="2"/>
       <c r="B247" s="7"/>
       <c r="C247" s="8"/>
-      <c r="D247" s="16"/>
+      <c r="D247" s="17"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
@@ -6876,7 +6879,7 @@
       <c r="A248" s="2"/>
       <c r="B248" s="7"/>
       <c r="C248" s="8"/>
-      <c r="D248" s="16"/>
+      <c r="D248" s="17"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
@@ -6899,7 +6902,7 @@
       <c r="A249" s="2"/>
       <c r="B249" s="7"/>
       <c r="C249" s="8"/>
-      <c r="D249" s="16"/>
+      <c r="D249" s="17"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -6922,7 +6925,7 @@
       <c r="A250" s="2"/>
       <c r="B250" s="7"/>
       <c r="C250" s="8"/>
-      <c r="D250" s="16"/>
+      <c r="D250" s="17"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
@@ -6945,7 +6948,7 @@
       <c r="A251" s="2"/>
       <c r="B251" s="7"/>
       <c r="C251" s="8"/>
-      <c r="D251" s="16"/>
+      <c r="D251" s="17"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
@@ -6968,7 +6971,7 @@
       <c r="A252" s="2"/>
       <c r="B252" s="7"/>
       <c r="C252" s="8"/>
-      <c r="D252" s="16"/>
+      <c r="D252" s="17"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
@@ -6991,7 +6994,7 @@
       <c r="A253" s="2"/>
       <c r="B253" s="7"/>
       <c r="C253" s="8"/>
-      <c r="D253" s="16"/>
+      <c r="D253" s="17"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
@@ -7014,7 +7017,7 @@
       <c r="A254" s="2"/>
       <c r="B254" s="7"/>
       <c r="C254" s="8"/>
-      <c r="D254" s="16"/>
+      <c r="D254" s="17"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
@@ -7037,7 +7040,7 @@
       <c r="A255" s="2"/>
       <c r="B255" s="7"/>
       <c r="C255" s="8"/>
-      <c r="D255" s="16"/>
+      <c r="D255" s="17"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
@@ -7060,7 +7063,7 @@
       <c r="A256" s="2"/>
       <c r="B256" s="7"/>
       <c r="C256" s="8"/>
-      <c r="D256" s="16"/>
+      <c r="D256" s="17"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
@@ -7083,7 +7086,7 @@
       <c r="A257" s="2"/>
       <c r="B257" s="7"/>
       <c r="C257" s="8"/>
-      <c r="D257" s="16"/>
+      <c r="D257" s="17"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
@@ -7106,7 +7109,7 @@
       <c r="A258" s="2"/>
       <c r="B258" s="7"/>
       <c r="C258" s="8"/>
-      <c r="D258" s="16"/>
+      <c r="D258" s="17"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
@@ -7129,7 +7132,7 @@
       <c r="A259" s="2"/>
       <c r="B259" s="7"/>
       <c r="C259" s="8"/>
-      <c r="D259" s="16"/>
+      <c r="D259" s="17"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
@@ -7152,7 +7155,7 @@
       <c r="A260" s="2"/>
       <c r="B260" s="7"/>
       <c r="C260" s="8"/>
-      <c r="D260" s="16"/>
+      <c r="D260" s="17"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
@@ -7175,7 +7178,7 @@
       <c r="A261" s="2"/>
       <c r="B261" s="7"/>
       <c r="C261" s="8"/>
-      <c r="D261" s="16"/>
+      <c r="D261" s="17"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
@@ -7198,7 +7201,7 @@
       <c r="A262" s="2"/>
       <c r="B262" s="7"/>
       <c r="C262" s="8"/>
-      <c r="D262" s="16"/>
+      <c r="D262" s="17"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
@@ -7221,7 +7224,7 @@
       <c r="A263" s="2"/>
       <c r="B263" s="7"/>
       <c r="C263" s="8"/>
-      <c r="D263" s="16"/>
+      <c r="D263" s="17"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
@@ -7244,7 +7247,7 @@
       <c r="A264" s="2"/>
       <c r="B264" s="7"/>
       <c r="C264" s="8"/>
-      <c r="D264" s="16"/>
+      <c r="D264" s="17"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
@@ -7267,7 +7270,7 @@
       <c r="A265" s="2"/>
       <c r="B265" s="7"/>
       <c r="C265" s="8"/>
-      <c r="D265" s="16"/>
+      <c r="D265" s="17"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
@@ -7290,7 +7293,7 @@
       <c r="A266" s="2"/>
       <c r="B266" s="7"/>
       <c r="C266" s="8"/>
-      <c r="D266" s="16"/>
+      <c r="D266" s="17"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
@@ -7313,7 +7316,7 @@
       <c r="A267" s="2"/>
       <c r="B267" s="7"/>
       <c r="C267" s="8"/>
-      <c r="D267" s="16"/>
+      <c r="D267" s="17"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
@@ -7336,7 +7339,7 @@
       <c r="A268" s="2"/>
       <c r="B268" s="7"/>
       <c r="C268" s="8"/>
-      <c r="D268" s="16"/>
+      <c r="D268" s="17"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
@@ -7359,7 +7362,7 @@
       <c r="A269" s="2"/>
       <c r="B269" s="7"/>
       <c r="C269" s="8"/>
-      <c r="D269" s="16"/>
+      <c r="D269" s="17"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
@@ -7382,7 +7385,7 @@
       <c r="A270" s="2"/>
       <c r="B270" s="7"/>
       <c r="C270" s="8"/>
-      <c r="D270" s="16"/>
+      <c r="D270" s="17"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
@@ -7405,7 +7408,7 @@
       <c r="A271" s="2"/>
       <c r="B271" s="7"/>
       <c r="C271" s="8"/>
-      <c r="D271" s="16"/>
+      <c r="D271" s="17"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
@@ -7428,7 +7431,7 @@
       <c r="A272" s="2"/>
       <c r="B272" s="7"/>
       <c r="C272" s="8"/>
-      <c r="D272" s="16"/>
+      <c r="D272" s="17"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
@@ -7451,7 +7454,7 @@
       <c r="A273" s="2"/>
       <c r="B273" s="7"/>
       <c r="C273" s="8"/>
-      <c r="D273" s="16"/>
+      <c r="D273" s="17"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
@@ -7474,7 +7477,7 @@
       <c r="A274" s="2"/>
       <c r="B274" s="7"/>
       <c r="C274" s="8"/>
-      <c r="D274" s="16"/>
+      <c r="D274" s="17"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
@@ -7497,7 +7500,7 @@
       <c r="A275" s="2"/>
       <c r="B275" s="7"/>
       <c r="C275" s="8"/>
-      <c r="D275" s="16"/>
+      <c r="D275" s="17"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
@@ -7520,7 +7523,7 @@
       <c r="A276" s="2"/>
       <c r="B276" s="7"/>
       <c r="C276" s="8"/>
-      <c r="D276" s="16"/>
+      <c r="D276" s="17"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
@@ -7543,7 +7546,7 @@
       <c r="A277" s="2"/>
       <c r="B277" s="7"/>
       <c r="C277" s="8"/>
-      <c r="D277" s="16"/>
+      <c r="D277" s="17"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
@@ -7566,7 +7569,7 @@
       <c r="A278" s="2"/>
       <c r="B278" s="7"/>
       <c r="C278" s="8"/>
-      <c r="D278" s="16"/>
+      <c r="D278" s="17"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
@@ -7589,7 +7592,7 @@
       <c r="A279" s="2"/>
       <c r="B279" s="7"/>
       <c r="C279" s="8"/>
-      <c r="D279" s="16"/>
+      <c r="D279" s="17"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
@@ -7612,7 +7615,7 @@
       <c r="A280" s="2"/>
       <c r="B280" s="7"/>
       <c r="C280" s="8"/>
-      <c r="D280" s="16"/>
+      <c r="D280" s="17"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
@@ -7635,7 +7638,7 @@
       <c r="A281" s="2"/>
       <c r="B281" s="7"/>
       <c r="C281" s="8"/>
-      <c r="D281" s="16"/>
+      <c r="D281" s="17"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
@@ -7658,7 +7661,7 @@
       <c r="A282" s="2"/>
       <c r="B282" s="7"/>
       <c r="C282" s="8"/>
-      <c r="D282" s="16"/>
+      <c r="D282" s="17"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
@@ -7681,7 +7684,7 @@
       <c r="A283" s="2"/>
       <c r="B283" s="7"/>
       <c r="C283" s="8"/>
-      <c r="D283" s="16"/>
+      <c r="D283" s="17"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
@@ -7704,7 +7707,7 @@
       <c r="A284" s="2"/>
       <c r="B284" s="7"/>
       <c r="C284" s="8"/>
-      <c r="D284" s="16"/>
+      <c r="D284" s="17"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
@@ -7727,7 +7730,7 @@
       <c r="A285" s="2"/>
       <c r="B285" s="7"/>
       <c r="C285" s="8"/>
-      <c r="D285" s="16"/>
+      <c r="D285" s="17"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
@@ -7750,7 +7753,7 @@
       <c r="A286" s="2"/>
       <c r="B286" s="7"/>
       <c r="C286" s="8"/>
-      <c r="D286" s="16"/>
+      <c r="D286" s="17"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
       <c r="G286" s="2"/>
@@ -7773,7 +7776,7 @@
       <c r="A287" s="2"/>
       <c r="B287" s="7"/>
       <c r="C287" s="8"/>
-      <c r="D287" s="16"/>
+      <c r="D287" s="17"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
@@ -7796,7 +7799,7 @@
       <c r="A288" s="2"/>
       <c r="B288" s="7"/>
       <c r="C288" s="8"/>
-      <c r="D288" s="16"/>
+      <c r="D288" s="17"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="2"/>
@@ -7819,7 +7822,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="7"/>
       <c r="C289" s="8"/>
-      <c r="D289" s="16"/>
+      <c r="D289" s="17"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="2"/>
@@ -7842,7 +7845,7 @@
       <c r="A290" s="2"/>
       <c r="B290" s="7"/>
       <c r="C290" s="8"/>
-      <c r="D290" s="16"/>
+      <c r="D290" s="17"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
       <c r="G290" s="2"/>
@@ -7865,7 +7868,7 @@
       <c r="A291" s="2"/>
       <c r="B291" s="7"/>
       <c r="C291" s="8"/>
-      <c r="D291" s="16"/>
+      <c r="D291" s="17"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
       <c r="G291" s="2"/>
@@ -7888,7 +7891,7 @@
       <c r="A292" s="2"/>
       <c r="B292" s="7"/>
       <c r="C292" s="8"/>
-      <c r="D292" s="16"/>
+      <c r="D292" s="17"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="2"/>
@@ -7911,7 +7914,7 @@
       <c r="A293" s="2"/>
       <c r="B293" s="7"/>
       <c r="C293" s="8"/>
-      <c r="D293" s="16"/>
+      <c r="D293" s="17"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="2"/>
@@ -7934,7 +7937,7 @@
       <c r="A294" s="2"/>
       <c r="B294" s="7"/>
       <c r="C294" s="8"/>
-      <c r="D294" s="16"/>
+      <c r="D294" s="17"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
@@ -7957,7 +7960,7 @@
       <c r="A295" s="2"/>
       <c r="B295" s="7"/>
       <c r="C295" s="8"/>
-      <c r="D295" s="16"/>
+      <c r="D295" s="17"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
@@ -7980,7 +7983,7 @@
       <c r="A296" s="2"/>
       <c r="B296" s="7"/>
       <c r="C296" s="8"/>
-      <c r="D296" s="16"/>
+      <c r="D296" s="17"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
@@ -8003,7 +8006,7 @@
       <c r="A297" s="2"/>
       <c r="B297" s="7"/>
       <c r="C297" s="8"/>
-      <c r="D297" s="16"/>
+      <c r="D297" s="17"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2"/>
@@ -8026,7 +8029,7 @@
       <c r="A298" s="2"/>
       <c r="B298" s="7"/>
       <c r="C298" s="8"/>
-      <c r="D298" s="16"/>
+      <c r="D298" s="17"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
       <c r="G298" s="2"/>
@@ -8049,7 +8052,7 @@
       <c r="A299" s="2"/>
       <c r="B299" s="7"/>
       <c r="C299" s="8"/>
-      <c r="D299" s="16"/>
+      <c r="D299" s="17"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
@@ -8072,7 +8075,7 @@
       <c r="A300" s="2"/>
       <c r="B300" s="7"/>
       <c r="C300" s="8"/>
-      <c r="D300" s="16"/>
+      <c r="D300" s="17"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="2"/>
@@ -8095,7 +8098,7 @@
       <c r="A301" s="2"/>
       <c r="B301" s="7"/>
       <c r="C301" s="8"/>
-      <c r="D301" s="16"/>
+      <c r="D301" s="17"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="2"/>
@@ -8118,7 +8121,7 @@
       <c r="A302" s="2"/>
       <c r="B302" s="7"/>
       <c r="C302" s="8"/>
-      <c r="D302" s="16"/>
+      <c r="D302" s="17"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="2"/>
@@ -8141,7 +8144,7 @@
       <c r="A303" s="2"/>
       <c r="B303" s="7"/>
       <c r="C303" s="8"/>
-      <c r="D303" s="16"/>
+      <c r="D303" s="17"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
       <c r="G303" s="2"/>
@@ -8164,7 +8167,7 @@
       <c r="A304" s="2"/>
       <c r="B304" s="7"/>
       <c r="C304" s="8"/>
-      <c r="D304" s="16"/>
+      <c r="D304" s="17"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
@@ -8187,7 +8190,7 @@
       <c r="A305" s="2"/>
       <c r="B305" s="7"/>
       <c r="C305" s="8"/>
-      <c r="D305" s="16"/>
+      <c r="D305" s="17"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
       <c r="G305" s="2"/>
@@ -8210,7 +8213,7 @@
       <c r="A306" s="2"/>
       <c r="B306" s="7"/>
       <c r="C306" s="8"/>
-      <c r="D306" s="16"/>
+      <c r="D306" s="17"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
       <c r="G306" s="2"/>
@@ -8233,7 +8236,7 @@
       <c r="A307" s="2"/>
       <c r="B307" s="7"/>
       <c r="C307" s="8"/>
-      <c r="D307" s="16"/>
+      <c r="D307" s="17"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
       <c r="G307" s="2"/>
@@ -8256,7 +8259,7 @@
       <c r="A308" s="2"/>
       <c r="B308" s="7"/>
       <c r="C308" s="8"/>
-      <c r="D308" s="16"/>
+      <c r="D308" s="17"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
       <c r="G308" s="2"/>
@@ -8279,7 +8282,7 @@
       <c r="A309" s="2"/>
       <c r="B309" s="7"/>
       <c r="C309" s="8"/>
-      <c r="D309" s="16"/>
+      <c r="D309" s="17"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
       <c r="G309" s="2"/>
@@ -8302,7 +8305,7 @@
       <c r="A310" s="2"/>
       <c r="B310" s="7"/>
       <c r="C310" s="8"/>
-      <c r="D310" s="16"/>
+      <c r="D310" s="17"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
       <c r="G310" s="2"/>
@@ -8325,7 +8328,7 @@
       <c r="A311" s="2"/>
       <c r="B311" s="7"/>
       <c r="C311" s="8"/>
-      <c r="D311" s="16"/>
+      <c r="D311" s="17"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
@@ -8348,7 +8351,7 @@
       <c r="A312" s="2"/>
       <c r="B312" s="7"/>
       <c r="C312" s="8"/>
-      <c r="D312" s="16"/>
+      <c r="D312" s="17"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
       <c r="G312" s="2"/>
@@ -8371,7 +8374,7 @@
       <c r="A313" s="2"/>
       <c r="B313" s="7"/>
       <c r="C313" s="8"/>
-      <c r="D313" s="16"/>
+      <c r="D313" s="17"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
       <c r="G313" s="2"/>
@@ -8394,7 +8397,7 @@
       <c r="A314" s="2"/>
       <c r="B314" s="7"/>
       <c r="C314" s="8"/>
-      <c r="D314" s="16"/>
+      <c r="D314" s="17"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
       <c r="G314" s="2"/>
@@ -8417,7 +8420,7 @@
       <c r="A315" s="2"/>
       <c r="B315" s="7"/>
       <c r="C315" s="8"/>
-      <c r="D315" s="16"/>
+      <c r="D315" s="17"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
       <c r="G315" s="2"/>
@@ -8440,7 +8443,7 @@
       <c r="A316" s="2"/>
       <c r="B316" s="7"/>
       <c r="C316" s="8"/>
-      <c r="D316" s="16"/>
+      <c r="D316" s="17"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
       <c r="G316" s="2"/>
@@ -8463,7 +8466,7 @@
       <c r="A317" s="2"/>
       <c r="B317" s="7"/>
       <c r="C317" s="8"/>
-      <c r="D317" s="16"/>
+      <c r="D317" s="17"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
       <c r="G317" s="2"/>
@@ -8486,7 +8489,7 @@
       <c r="A318" s="2"/>
       <c r="B318" s="7"/>
       <c r="C318" s="8"/>
-      <c r="D318" s="16"/>
+      <c r="D318" s="17"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
       <c r="G318" s="2"/>
@@ -8509,7 +8512,7 @@
       <c r="A319" s="2"/>
       <c r="B319" s="7"/>
       <c r="C319" s="8"/>
-      <c r="D319" s="16"/>
+      <c r="D319" s="17"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
       <c r="G319" s="2"/>
@@ -8532,7 +8535,7 @@
       <c r="A320" s="2"/>
       <c r="B320" s="7"/>
       <c r="C320" s="8"/>
-      <c r="D320" s="16"/>
+      <c r="D320" s="17"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
       <c r="G320" s="2"/>
@@ -8555,7 +8558,7 @@
       <c r="A321" s="2"/>
       <c r="B321" s="7"/>
       <c r="C321" s="8"/>
-      <c r="D321" s="16"/>
+      <c r="D321" s="17"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
       <c r="G321" s="2"/>
@@ -8578,7 +8581,7 @@
       <c r="A322" s="2"/>
       <c r="B322" s="7"/>
       <c r="C322" s="8"/>
-      <c r="D322" s="16"/>
+      <c r="D322" s="17"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
       <c r="G322" s="2"/>
@@ -8601,7 +8604,7 @@
       <c r="A323" s="2"/>
       <c r="B323" s="7"/>
       <c r="C323" s="8"/>
-      <c r="D323" s="16"/>
+      <c r="D323" s="17"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
       <c r="G323" s="2"/>
@@ -8624,7 +8627,7 @@
       <c r="A324" s="2"/>
       <c r="B324" s="7"/>
       <c r="C324" s="8"/>
-      <c r="D324" s="16"/>
+      <c r="D324" s="17"/>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
       <c r="G324" s="2"/>
@@ -8647,7 +8650,7 @@
       <c r="A325" s="2"/>
       <c r="B325" s="7"/>
       <c r="C325" s="8"/>
-      <c r="D325" s="16"/>
+      <c r="D325" s="17"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
       <c r="G325" s="2"/>
@@ -8670,7 +8673,7 @@
       <c r="A326" s="2"/>
       <c r="B326" s="7"/>
       <c r="C326" s="8"/>
-      <c r="D326" s="16"/>
+      <c r="D326" s="17"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
@@ -8693,7 +8696,7 @@
       <c r="A327" s="2"/>
       <c r="B327" s="7"/>
       <c r="C327" s="8"/>
-      <c r="D327" s="16"/>
+      <c r="D327" s="17"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
       <c r="G327" s="2"/>
@@ -8716,7 +8719,7 @@
       <c r="A328" s="2"/>
       <c r="B328" s="7"/>
       <c r="C328" s="8"/>
-      <c r="D328" s="16"/>
+      <c r="D328" s="17"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
       <c r="G328" s="2"/>
@@ -8739,7 +8742,7 @@
       <c r="A329" s="2"/>
       <c r="B329" s="7"/>
       <c r="C329" s="8"/>
-      <c r="D329" s="16"/>
+      <c r="D329" s="17"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
       <c r="G329" s="2"/>
@@ -8762,7 +8765,7 @@
       <c r="A330" s="2"/>
       <c r="B330" s="7"/>
       <c r="C330" s="8"/>
-      <c r="D330" s="16"/>
+      <c r="D330" s="17"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
       <c r="G330" s="2"/>
@@ -8785,7 +8788,7 @@
       <c r="A331" s="2"/>
       <c r="B331" s="7"/>
       <c r="C331" s="8"/>
-      <c r="D331" s="16"/>
+      <c r="D331" s="17"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
       <c r="G331" s="2"/>
@@ -8808,7 +8811,7 @@
       <c r="A332" s="2"/>
       <c r="B332" s="7"/>
       <c r="C332" s="8"/>
-      <c r="D332" s="16"/>
+      <c r="D332" s="17"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
       <c r="G332" s="2"/>
@@ -8831,7 +8834,7 @@
       <c r="A333" s="2"/>
       <c r="B333" s="7"/>
       <c r="C333" s="8"/>
-      <c r="D333" s="16"/>
+      <c r="D333" s="17"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
       <c r="G333" s="2"/>
@@ -8854,7 +8857,7 @@
       <c r="A334" s="2"/>
       <c r="B334" s="7"/>
       <c r="C334" s="8"/>
-      <c r="D334" s="16"/>
+      <c r="D334" s="17"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
       <c r="G334" s="2"/>
@@ -8877,7 +8880,7 @@
       <c r="A335" s="2"/>
       <c r="B335" s="7"/>
       <c r="C335" s="8"/>
-      <c r="D335" s="16"/>
+      <c r="D335" s="17"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
@@ -8900,7 +8903,7 @@
       <c r="A336" s="2"/>
       <c r="B336" s="7"/>
       <c r="C336" s="8"/>
-      <c r="D336" s="16"/>
+      <c r="D336" s="17"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
@@ -8923,7 +8926,7 @@
       <c r="A337" s="2"/>
       <c r="B337" s="7"/>
       <c r="C337" s="8"/>
-      <c r="D337" s="16"/>
+      <c r="D337" s="17"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
       <c r="G337" s="2"/>
@@ -8946,7 +8949,7 @@
       <c r="A338" s="2"/>
       <c r="B338" s="7"/>
       <c r="C338" s="8"/>
-      <c r="D338" s="16"/>
+      <c r="D338" s="17"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
@@ -8969,7 +8972,7 @@
       <c r="A339" s="2"/>
       <c r="B339" s="7"/>
       <c r="C339" s="8"/>
-      <c r="D339" s="16"/>
+      <c r="D339" s="17"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
       <c r="G339" s="2"/>
@@ -8992,7 +8995,7 @@
       <c r="A340" s="2"/>
       <c r="B340" s="7"/>
       <c r="C340" s="8"/>
-      <c r="D340" s="16"/>
+      <c r="D340" s="17"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
       <c r="G340" s="2"/>
@@ -9015,7 +9018,7 @@
       <c r="A341" s="2"/>
       <c r="B341" s="7"/>
       <c r="C341" s="8"/>
-      <c r="D341" s="16"/>
+      <c r="D341" s="17"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
       <c r="G341" s="2"/>
@@ -9038,7 +9041,7 @@
       <c r="A342" s="2"/>
       <c r="B342" s="7"/>
       <c r="C342" s="8"/>
-      <c r="D342" s="16"/>
+      <c r="D342" s="17"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
       <c r="G342" s="2"/>
@@ -9061,7 +9064,7 @@
       <c r="A343" s="2"/>
       <c r="B343" s="7"/>
       <c r="C343" s="8"/>
-      <c r="D343" s="16"/>
+      <c r="D343" s="17"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
       <c r="G343" s="2"/>
@@ -9084,7 +9087,7 @@
       <c r="A344" s="2"/>
       <c r="B344" s="7"/>
       <c r="C344" s="8"/>
-      <c r="D344" s="16"/>
+      <c r="D344" s="17"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
       <c r="G344" s="2"/>
@@ -9107,7 +9110,7 @@
       <c r="A345" s="2"/>
       <c r="B345" s="7"/>
       <c r="C345" s="8"/>
-      <c r="D345" s="16"/>
+      <c r="D345" s="17"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="2"/>
@@ -9130,7 +9133,7 @@
       <c r="A346" s="2"/>
       <c r="B346" s="7"/>
       <c r="C346" s="8"/>
-      <c r="D346" s="16"/>
+      <c r="D346" s="17"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
       <c r="G346" s="2"/>
@@ -9153,7 +9156,7 @@
       <c r="A347" s="2"/>
       <c r="B347" s="7"/>
       <c r="C347" s="8"/>
-      <c r="D347" s="16"/>
+      <c r="D347" s="17"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
@@ -9176,7 +9179,7 @@
       <c r="A348" s="2"/>
       <c r="B348" s="7"/>
       <c r="C348" s="8"/>
-      <c r="D348" s="16"/>
+      <c r="D348" s="17"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
       <c r="G348" s="2"/>
@@ -9199,7 +9202,7 @@
       <c r="A349" s="2"/>
       <c r="B349" s="7"/>
       <c r="C349" s="8"/>
-      <c r="D349" s="16"/>
+      <c r="D349" s="17"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
       <c r="G349" s="2"/>
@@ -9222,7 +9225,7 @@
       <c r="A350" s="2"/>
       <c r="B350" s="7"/>
       <c r="C350" s="8"/>
-      <c r="D350" s="16"/>
+      <c r="D350" s="17"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
       <c r="G350" s="2"/>
@@ -9245,7 +9248,7 @@
       <c r="A351" s="2"/>
       <c r="B351" s="7"/>
       <c r="C351" s="8"/>
-      <c r="D351" s="16"/>
+      <c r="D351" s="17"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
       <c r="G351" s="2"/>
@@ -9268,7 +9271,7 @@
       <c r="A352" s="2"/>
       <c r="B352" s="7"/>
       <c r="C352" s="8"/>
-      <c r="D352" s="16"/>
+      <c r="D352" s="17"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="2"/>
@@ -9291,7 +9294,7 @@
       <c r="A353" s="2"/>
       <c r="B353" s="7"/>
       <c r="C353" s="8"/>
-      <c r="D353" s="16"/>
+      <c r="D353" s="17"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
       <c r="G353" s="2"/>
@@ -9314,7 +9317,7 @@
       <c r="A354" s="2"/>
       <c r="B354" s="7"/>
       <c r="C354" s="8"/>
-      <c r="D354" s="16"/>
+      <c r="D354" s="17"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
       <c r="G354" s="2"/>
@@ -9337,7 +9340,7 @@
       <c r="A355" s="2"/>
       <c r="B355" s="7"/>
       <c r="C355" s="8"/>
-      <c r="D355" s="16"/>
+      <c r="D355" s="17"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
       <c r="G355" s="2"/>
@@ -9360,7 +9363,7 @@
       <c r="A356" s="2"/>
       <c r="B356" s="7"/>
       <c r="C356" s="8"/>
-      <c r="D356" s="16"/>
+      <c r="D356" s="17"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
       <c r="G356" s="2"/>
@@ -9383,7 +9386,7 @@
       <c r="A357" s="2"/>
       <c r="B357" s="7"/>
       <c r="C357" s="8"/>
-      <c r="D357" s="16"/>
+      <c r="D357" s="17"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
       <c r="G357" s="2"/>
@@ -9406,7 +9409,7 @@
       <c r="A358" s="2"/>
       <c r="B358" s="7"/>
       <c r="C358" s="8"/>
-      <c r="D358" s="16"/>
+      <c r="D358" s="17"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
       <c r="G358" s="2"/>
@@ -9429,7 +9432,7 @@
       <c r="A359" s="2"/>
       <c r="B359" s="7"/>
       <c r="C359" s="8"/>
-      <c r="D359" s="16"/>
+      <c r="D359" s="17"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
       <c r="G359" s="2"/>
@@ -9452,7 +9455,7 @@
       <c r="A360" s="2"/>
       <c r="B360" s="7"/>
       <c r="C360" s="8"/>
-      <c r="D360" s="16"/>
+      <c r="D360" s="17"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
       <c r="G360" s="2"/>
@@ -9475,7 +9478,7 @@
       <c r="A361" s="2"/>
       <c r="B361" s="7"/>
       <c r="C361" s="8"/>
-      <c r="D361" s="16"/>
+      <c r="D361" s="17"/>
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
       <c r="G361" s="2"/>
@@ -9498,7 +9501,7 @@
       <c r="A362" s="2"/>
       <c r="B362" s="7"/>
       <c r="C362" s="8"/>
-      <c r="D362" s="16"/>
+      <c r="D362" s="17"/>
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
       <c r="G362" s="2"/>
@@ -9521,7 +9524,7 @@
       <c r="A363" s="2"/>
       <c r="B363" s="7"/>
       <c r="C363" s="8"/>
-      <c r="D363" s="16"/>
+      <c r="D363" s="17"/>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
       <c r="G363" s="2"/>
@@ -9544,7 +9547,7 @@
       <c r="A364" s="2"/>
       <c r="B364" s="7"/>
       <c r="C364" s="8"/>
-      <c r="D364" s="16"/>
+      <c r="D364" s="17"/>
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
       <c r="G364" s="2"/>
@@ -9567,7 +9570,7 @@
       <c r="A365" s="2"/>
       <c r="B365" s="7"/>
       <c r="C365" s="8"/>
-      <c r="D365" s="16"/>
+      <c r="D365" s="17"/>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
       <c r="G365" s="2"/>
@@ -9590,7 +9593,7 @@
       <c r="A366" s="2"/>
       <c r="B366" s="7"/>
       <c r="C366" s="8"/>
-      <c r="D366" s="16"/>
+      <c r="D366" s="17"/>
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
@@ -9613,7 +9616,7 @@
       <c r="A367" s="2"/>
       <c r="B367" s="7"/>
       <c r="C367" s="8"/>
-      <c r="D367" s="16"/>
+      <c r="D367" s="17"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
@@ -9636,7 +9639,7 @@
       <c r="A368" s="2"/>
       <c r="B368" s="7"/>
       <c r="C368" s="8"/>
-      <c r="D368" s="16"/>
+      <c r="D368" s="17"/>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
@@ -9659,7 +9662,7 @@
       <c r="A369" s="2"/>
       <c r="B369" s="7"/>
       <c r="C369" s="8"/>
-      <c r="D369" s="16"/>
+      <c r="D369" s="17"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
@@ -9682,7 +9685,7 @@
       <c r="A370" s="2"/>
       <c r="B370" s="7"/>
       <c r="C370" s="8"/>
-      <c r="D370" s="16"/>
+      <c r="D370" s="17"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
@@ -9705,7 +9708,7 @@
       <c r="A371" s="2"/>
       <c r="B371" s="7"/>
       <c r="C371" s="8"/>
-      <c r="D371" s="16"/>
+      <c r="D371" s="17"/>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
@@ -9728,7 +9731,7 @@
       <c r="A372" s="2"/>
       <c r="B372" s="7"/>
       <c r="C372" s="8"/>
-      <c r="D372" s="16"/>
+      <c r="D372" s="17"/>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
@@ -9751,7 +9754,7 @@
       <c r="A373" s="2"/>
       <c r="B373" s="7"/>
       <c r="C373" s="8"/>
-      <c r="D373" s="16"/>
+      <c r="D373" s="17"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
@@ -9774,7 +9777,7 @@
       <c r="A374" s="2"/>
       <c r="B374" s="7"/>
       <c r="C374" s="8"/>
-      <c r="D374" s="16"/>
+      <c r="D374" s="17"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
@@ -9797,7 +9800,7 @@
       <c r="A375" s="2"/>
       <c r="B375" s="7"/>
       <c r="C375" s="8"/>
-      <c r="D375" s="16"/>
+      <c r="D375" s="17"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
@@ -9820,7 +9823,7 @@
       <c r="A376" s="2"/>
       <c r="B376" s="7"/>
       <c r="C376" s="8"/>
-      <c r="D376" s="16"/>
+      <c r="D376" s="17"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
@@ -9843,7 +9846,7 @@
       <c r="A377" s="2"/>
       <c r="B377" s="7"/>
       <c r="C377" s="8"/>
-      <c r="D377" s="16"/>
+      <c r="D377" s="17"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
@@ -9866,7 +9869,7 @@
       <c r="A378" s="2"/>
       <c r="B378" s="7"/>
       <c r="C378" s="8"/>
-      <c r="D378" s="16"/>
+      <c r="D378" s="17"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
@@ -9889,7 +9892,7 @@
       <c r="A379" s="2"/>
       <c r="B379" s="7"/>
       <c r="C379" s="8"/>
-      <c r="D379" s="16"/>
+      <c r="D379" s="17"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
@@ -9912,7 +9915,7 @@
       <c r="A380" s="2"/>
       <c r="B380" s="7"/>
       <c r="C380" s="8"/>
-      <c r="D380" s="16"/>
+      <c r="D380" s="17"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
@@ -9935,7 +9938,7 @@
       <c r="A381" s="2"/>
       <c r="B381" s="7"/>
       <c r="C381" s="8"/>
-      <c r="D381" s="16"/>
+      <c r="D381" s="17"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
@@ -9958,7 +9961,7 @@
       <c r="A382" s="2"/>
       <c r="B382" s="7"/>
       <c r="C382" s="8"/>
-      <c r="D382" s="16"/>
+      <c r="D382" s="17"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
@@ -9981,7 +9984,7 @@
       <c r="A383" s="2"/>
       <c r="B383" s="7"/>
       <c r="C383" s="8"/>
-      <c r="D383" s="16"/>
+      <c r="D383" s="17"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
@@ -10004,7 +10007,7 @@
       <c r="A384" s="2"/>
       <c r="B384" s="7"/>
       <c r="C384" s="8"/>
-      <c r="D384" s="16"/>
+      <c r="D384" s="17"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
@@ -10027,7 +10030,7 @@
       <c r="A385" s="2"/>
       <c r="B385" s="7"/>
       <c r="C385" s="8"/>
-      <c r="D385" s="16"/>
+      <c r="D385" s="17"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
@@ -10050,7 +10053,7 @@
       <c r="A386" s="2"/>
       <c r="B386" s="7"/>
       <c r="C386" s="8"/>
-      <c r="D386" s="16"/>
+      <c r="D386" s="17"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
@@ -10073,7 +10076,7 @@
       <c r="A387" s="2"/>
       <c r="B387" s="7"/>
       <c r="C387" s="8"/>
-      <c r="D387" s="16"/>
+      <c r="D387" s="17"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
@@ -10096,7 +10099,7 @@
       <c r="A388" s="2"/>
       <c r="B388" s="7"/>
       <c r="C388" s="8"/>
-      <c r="D388" s="16"/>
+      <c r="D388" s="17"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
@@ -10119,7 +10122,7 @@
       <c r="A389" s="2"/>
       <c r="B389" s="7"/>
       <c r="C389" s="8"/>
-      <c r="D389" s="16"/>
+      <c r="D389" s="17"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
@@ -10142,7 +10145,7 @@
       <c r="A390" s="2"/>
       <c r="B390" s="7"/>
       <c r="C390" s="8"/>
-      <c r="D390" s="16"/>
+      <c r="D390" s="17"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
@@ -10165,7 +10168,7 @@
       <c r="A391" s="2"/>
       <c r="B391" s="7"/>
       <c r="C391" s="8"/>
-      <c r="D391" s="16"/>
+      <c r="D391" s="17"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
@@ -10188,7 +10191,7 @@
       <c r="A392" s="2"/>
       <c r="B392" s="7"/>
       <c r="C392" s="8"/>
-      <c r="D392" s="16"/>
+      <c r="D392" s="17"/>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
@@ -10211,7 +10214,7 @@
       <c r="A393" s="2"/>
       <c r="B393" s="7"/>
       <c r="C393" s="8"/>
-      <c r="D393" s="16"/>
+      <c r="D393" s="17"/>
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
@@ -10234,7 +10237,7 @@
       <c r="A394" s="2"/>
       <c r="B394" s="7"/>
       <c r="C394" s="8"/>
-      <c r="D394" s="16"/>
+      <c r="D394" s="17"/>
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
@@ -10257,7 +10260,7 @@
       <c r="A395" s="2"/>
       <c r="B395" s="7"/>
       <c r="C395" s="8"/>
-      <c r="D395" s="16"/>
+      <c r="D395" s="17"/>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
@@ -10280,7 +10283,7 @@
       <c r="A396" s="2"/>
       <c r="B396" s="7"/>
       <c r="C396" s="8"/>
-      <c r="D396" s="16"/>
+      <c r="D396" s="17"/>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
       <c r="G396" s="2"/>
@@ -10303,7 +10306,7 @@
       <c r="A397" s="2"/>
       <c r="B397" s="7"/>
       <c r="C397" s="8"/>
-      <c r="D397" s="16"/>
+      <c r="D397" s="17"/>
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
       <c r="G397" s="2"/>
@@ -10326,7 +10329,7 @@
       <c r="A398" s="2"/>
       <c r="B398" s="7"/>
       <c r="C398" s="8"/>
-      <c r="D398" s="16"/>
+      <c r="D398" s="17"/>
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
@@ -10349,7 +10352,7 @@
       <c r="A399" s="2"/>
       <c r="B399" s="7"/>
       <c r="C399" s="8"/>
-      <c r="D399" s="16"/>
+      <c r="D399" s="17"/>
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
@@ -10372,7 +10375,7 @@
       <c r="A400" s="2"/>
       <c r="B400" s="7"/>
       <c r="C400" s="8"/>
-      <c r="D400" s="16"/>
+      <c r="D400" s="17"/>
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
@@ -10395,7 +10398,7 @@
       <c r="A401" s="2"/>
       <c r="B401" s="7"/>
       <c r="C401" s="8"/>
-      <c r="D401" s="16"/>
+      <c r="D401" s="17"/>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
@@ -10418,7 +10421,7 @@
       <c r="A402" s="2"/>
       <c r="B402" s="7"/>
       <c r="C402" s="8"/>
-      <c r="D402" s="16"/>
+      <c r="D402" s="17"/>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
       <c r="G402" s="2"/>
@@ -10441,7 +10444,7 @@
       <c r="A403" s="2"/>
       <c r="B403" s="7"/>
       <c r="C403" s="8"/>
-      <c r="D403" s="16"/>
+      <c r="D403" s="17"/>
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
       <c r="G403" s="2"/>
@@ -10464,7 +10467,7 @@
       <c r="A404" s="2"/>
       <c r="B404" s="7"/>
       <c r="C404" s="8"/>
-      <c r="D404" s="16"/>
+      <c r="D404" s="17"/>
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
       <c r="G404" s="2"/>
@@ -10487,7 +10490,7 @@
       <c r="A405" s="2"/>
       <c r="B405" s="7"/>
       <c r="C405" s="8"/>
-      <c r="D405" s="16"/>
+      <c r="D405" s="17"/>
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -10510,7 +10513,7 @@
       <c r="A406" s="2"/>
       <c r="B406" s="7"/>
       <c r="C406" s="8"/>
-      <c r="D406" s="16"/>
+      <c r="D406" s="17"/>
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
       <c r="G406" s="2"/>
@@ -10533,7 +10536,7 @@
       <c r="A407" s="2"/>
       <c r="B407" s="7"/>
       <c r="C407" s="8"/>
-      <c r="D407" s="16"/>
+      <c r="D407" s="17"/>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
       <c r="G407" s="2"/>
@@ -10556,7 +10559,7 @@
       <c r="A408" s="2"/>
       <c r="B408" s="7"/>
       <c r="C408" s="8"/>
-      <c r="D408" s="16"/>
+      <c r="D408" s="17"/>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
       <c r="G408" s="2"/>
@@ -10579,7 +10582,7 @@
       <c r="A409" s="2"/>
       <c r="B409" s="7"/>
       <c r="C409" s="8"/>
-      <c r="D409" s="16"/>
+      <c r="D409" s="17"/>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
       <c r="G409" s="2"/>
@@ -10602,7 +10605,7 @@
       <c r="A410" s="2"/>
       <c r="B410" s="7"/>
       <c r="C410" s="8"/>
-      <c r="D410" s="16"/>
+      <c r="D410" s="17"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
@@ -10625,7 +10628,7 @@
       <c r="A411" s="2"/>
       <c r="B411" s="7"/>
       <c r="C411" s="8"/>
-      <c r="D411" s="16"/>
+      <c r="D411" s="17"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
@@ -10648,7 +10651,7 @@
       <c r="A412" s="2"/>
       <c r="B412" s="7"/>
       <c r="C412" s="8"/>
-      <c r="D412" s="16"/>
+      <c r="D412" s="17"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
@@ -10671,7 +10674,7 @@
       <c r="A413" s="2"/>
       <c r="B413" s="7"/>
       <c r="C413" s="8"/>
-      <c r="D413" s="16"/>
+      <c r="D413" s="17"/>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
@@ -10694,7 +10697,7 @@
       <c r="A414" s="2"/>
       <c r="B414" s="7"/>
       <c r="C414" s="8"/>
-      <c r="D414" s="16"/>
+      <c r="D414" s="17"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
@@ -10717,7 +10720,7 @@
       <c r="A415" s="2"/>
       <c r="B415" s="7"/>
       <c r="C415" s="8"/>
-      <c r="D415" s="16"/>
+      <c r="D415" s="17"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
       <c r="G415" s="2"/>
@@ -10740,7 +10743,7 @@
       <c r="A416" s="2"/>
       <c r="B416" s="7"/>
       <c r="C416" s="8"/>
-      <c r="D416" s="16"/>
+      <c r="D416" s="17"/>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
@@ -10763,7 +10766,7 @@
       <c r="A417" s="2"/>
       <c r="B417" s="7"/>
       <c r="C417" s="8"/>
-      <c r="D417" s="16"/>
+      <c r="D417" s="17"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
       <c r="G417" s="2"/>
@@ -10786,7 +10789,7 @@
       <c r="A418" s="2"/>
       <c r="B418" s="7"/>
       <c r="C418" s="8"/>
-      <c r="D418" s="16"/>
+      <c r="D418" s="17"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
       <c r="G418" s="2"/>
@@ -10809,7 +10812,7 @@
       <c r="A419" s="2"/>
       <c r="B419" s="7"/>
       <c r="C419" s="8"/>
-      <c r="D419" s="16"/>
+      <c r="D419" s="17"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
       <c r="G419" s="2"/>
@@ -10832,7 +10835,7 @@
       <c r="A420" s="2"/>
       <c r="B420" s="7"/>
       <c r="C420" s="8"/>
-      <c r="D420" s="16"/>
+      <c r="D420" s="17"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
       <c r="G420" s="2"/>
@@ -10855,7 +10858,7 @@
       <c r="A421" s="2"/>
       <c r="B421" s="7"/>
       <c r="C421" s="8"/>
-      <c r="D421" s="16"/>
+      <c r="D421" s="17"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
       <c r="G421" s="2"/>
@@ -10878,7 +10881,7 @@
       <c r="A422" s="2"/>
       <c r="B422" s="7"/>
       <c r="C422" s="8"/>
-      <c r="D422" s="16"/>
+      <c r="D422" s="17"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
       <c r="G422" s="2"/>
@@ -10901,7 +10904,7 @@
       <c r="A423" s="2"/>
       <c r="B423" s="7"/>
       <c r="C423" s="8"/>
-      <c r="D423" s="16"/>
+      <c r="D423" s="17"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
@@ -10924,7 +10927,7 @@
       <c r="A424" s="2"/>
       <c r="B424" s="7"/>
       <c r="C424" s="8"/>
-      <c r="D424" s="16"/>
+      <c r="D424" s="17"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
@@ -10947,7 +10950,7 @@
       <c r="A425" s="2"/>
       <c r="B425" s="7"/>
       <c r="C425" s="8"/>
-      <c r="D425" s="16"/>
+      <c r="D425" s="17"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
@@ -10970,7 +10973,7 @@
       <c r="A426" s="2"/>
       <c r="B426" s="7"/>
       <c r="C426" s="8"/>
-      <c r="D426" s="16"/>
+      <c r="D426" s="17"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
       <c r="G426" s="2"/>
@@ -10993,7 +10996,7 @@
       <c r="A427" s="2"/>
       <c r="B427" s="7"/>
       <c r="C427" s="8"/>
-      <c r="D427" s="16"/>
+      <c r="D427" s="17"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
       <c r="G427" s="2"/>
@@ -11016,7 +11019,7 @@
       <c r="A428" s="2"/>
       <c r="B428" s="7"/>
       <c r="C428" s="8"/>
-      <c r="D428" s="16"/>
+      <c r="D428" s="17"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
       <c r="G428" s="2"/>
@@ -11039,7 +11042,7 @@
       <c r="A429" s="2"/>
       <c r="B429" s="7"/>
       <c r="C429" s="8"/>
-      <c r="D429" s="16"/>
+      <c r="D429" s="17"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
       <c r="G429" s="2"/>
@@ -11062,7 +11065,7 @@
       <c r="A430" s="2"/>
       <c r="B430" s="7"/>
       <c r="C430" s="8"/>
-      <c r="D430" s="16"/>
+      <c r="D430" s="17"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
@@ -11085,7 +11088,7 @@
       <c r="A431" s="2"/>
       <c r="B431" s="7"/>
       <c r="C431" s="8"/>
-      <c r="D431" s="16"/>
+      <c r="D431" s="17"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
       <c r="G431" s="2"/>
@@ -11108,7 +11111,7 @@
       <c r="A432" s="2"/>
       <c r="B432" s="7"/>
       <c r="C432" s="8"/>
-      <c r="D432" s="16"/>
+      <c r="D432" s="17"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
       <c r="G432" s="2"/>
@@ -11131,7 +11134,7 @@
       <c r="A433" s="2"/>
       <c r="B433" s="7"/>
       <c r="C433" s="8"/>
-      <c r="D433" s="16"/>
+      <c r="D433" s="17"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
       <c r="G433" s="2"/>
@@ -11154,7 +11157,7 @@
       <c r="A434" s="2"/>
       <c r="B434" s="7"/>
       <c r="C434" s="8"/>
-      <c r="D434" s="16"/>
+      <c r="D434" s="17"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
       <c r="G434" s="2"/>
@@ -11177,7 +11180,7 @@
       <c r="A435" s="2"/>
       <c r="B435" s="7"/>
       <c r="C435" s="8"/>
-      <c r="D435" s="16"/>
+      <c r="D435" s="17"/>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
       <c r="G435" s="2"/>
@@ -11200,7 +11203,7 @@
       <c r="A436" s="2"/>
       <c r="B436" s="7"/>
       <c r="C436" s="8"/>
-      <c r="D436" s="16"/>
+      <c r="D436" s="17"/>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
@@ -11223,7 +11226,7 @@
       <c r="A437" s="2"/>
       <c r="B437" s="7"/>
       <c r="C437" s="8"/>
-      <c r="D437" s="16"/>
+      <c r="D437" s="17"/>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
       <c r="G437" s="2"/>
@@ -11246,7 +11249,7 @@
       <c r="A438" s="2"/>
       <c r="B438" s="7"/>
       <c r="C438" s="8"/>
-      <c r="D438" s="16"/>
+      <c r="D438" s="17"/>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
       <c r="G438" s="2"/>
@@ -11269,7 +11272,7 @@
       <c r="A439" s="2"/>
       <c r="B439" s="7"/>
       <c r="C439" s="8"/>
-      <c r="D439" s="16"/>
+      <c r="D439" s="17"/>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
       <c r="G439" s="2"/>
@@ -11292,7 +11295,7 @@
       <c r="A440" s="2"/>
       <c r="B440" s="7"/>
       <c r="C440" s="8"/>
-      <c r="D440" s="16"/>
+      <c r="D440" s="17"/>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
       <c r="G440" s="2"/>
@@ -11315,7 +11318,7 @@
       <c r="A441" s="2"/>
       <c r="B441" s="7"/>
       <c r="C441" s="8"/>
-      <c r="D441" s="16"/>
+      <c r="D441" s="17"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
       <c r="G441" s="2"/>
@@ -11338,7 +11341,7 @@
       <c r="A442" s="2"/>
       <c r="B442" s="7"/>
       <c r="C442" s="8"/>
-      <c r="D442" s="16"/>
+      <c r="D442" s="17"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
       <c r="G442" s="2"/>
@@ -11361,7 +11364,7 @@
       <c r="A443" s="2"/>
       <c r="B443" s="7"/>
       <c r="C443" s="8"/>
-      <c r="D443" s="16"/>
+      <c r="D443" s="17"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
       <c r="G443" s="2"/>
@@ -11384,7 +11387,7 @@
       <c r="A444" s="2"/>
       <c r="B444" s="7"/>
       <c r="C444" s="8"/>
-      <c r="D444" s="16"/>
+      <c r="D444" s="17"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
       <c r="G444" s="2"/>
@@ -11407,7 +11410,7 @@
       <c r="A445" s="2"/>
       <c r="B445" s="7"/>
       <c r="C445" s="8"/>
-      <c r="D445" s="16"/>
+      <c r="D445" s="17"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
       <c r="G445" s="2"/>
@@ -11430,7 +11433,7 @@
       <c r="A446" s="2"/>
       <c r="B446" s="7"/>
       <c r="C446" s="8"/>
-      <c r="D446" s="16"/>
+      <c r="D446" s="17"/>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
       <c r="G446" s="2"/>
@@ -11453,7 +11456,7 @@
       <c r="A447" s="2"/>
       <c r="B447" s="7"/>
       <c r="C447" s="8"/>
-      <c r="D447" s="16"/>
+      <c r="D447" s="17"/>
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
@@ -11476,7 +11479,7 @@
       <c r="A448" s="2"/>
       <c r="B448" s="7"/>
       <c r="C448" s="8"/>
-      <c r="D448" s="16"/>
+      <c r="D448" s="17"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
@@ -11499,7 +11502,7 @@
       <c r="A449" s="2"/>
       <c r="B449" s="7"/>
       <c r="C449" s="8"/>
-      <c r="D449" s="16"/>
+      <c r="D449" s="17"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
@@ -11522,7 +11525,7 @@
       <c r="A450" s="2"/>
       <c r="B450" s="7"/>
       <c r="C450" s="8"/>
-      <c r="D450" s="16"/>
+      <c r="D450" s="17"/>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
       <c r="G450" s="2"/>
@@ -11545,7 +11548,7 @@
       <c r="A451" s="2"/>
       <c r="B451" s="7"/>
       <c r="C451" s="8"/>
-      <c r="D451" s="16"/>
+      <c r="D451" s="17"/>
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
       <c r="G451" s="2"/>
@@ -11568,7 +11571,7 @@
       <c r="A452" s="2"/>
       <c r="B452" s="7"/>
       <c r="C452" s="8"/>
-      <c r="D452" s="16"/>
+      <c r="D452" s="17"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
       <c r="G452" s="2"/>
@@ -11591,7 +11594,7 @@
       <c r="A453" s="2"/>
       <c r="B453" s="7"/>
       <c r="C453" s="8"/>
-      <c r="D453" s="16"/>
+      <c r="D453" s="17"/>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
@@ -11614,7 +11617,7 @@
       <c r="A454" s="2"/>
       <c r="B454" s="7"/>
       <c r="C454" s="8"/>
-      <c r="D454" s="16"/>
+      <c r="D454" s="17"/>
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
       <c r="G454" s="2"/>
@@ -11637,7 +11640,7 @@
       <c r="A455" s="2"/>
       <c r="B455" s="7"/>
       <c r="C455" s="8"/>
-      <c r="D455" s="16"/>
+      <c r="D455" s="17"/>
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
       <c r="G455" s="2"/>
@@ -11660,7 +11663,7 @@
       <c r="A456" s="2"/>
       <c r="B456" s="7"/>
       <c r="C456" s="8"/>
-      <c r="D456" s="16"/>
+      <c r="D456" s="17"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
       <c r="G456" s="2"/>
@@ -11683,7 +11686,7 @@
       <c r="A457" s="2"/>
       <c r="B457" s="7"/>
       <c r="C457" s="8"/>
-      <c r="D457" s="16"/>
+      <c r="D457" s="17"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
       <c r="G457" s="2"/>
@@ -11706,7 +11709,7 @@
       <c r="A458" s="2"/>
       <c r="B458" s="7"/>
       <c r="C458" s="8"/>
-      <c r="D458" s="16"/>
+      <c r="D458" s="17"/>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
       <c r="G458" s="2"/>
@@ -11729,7 +11732,7 @@
       <c r="A459" s="2"/>
       <c r="B459" s="7"/>
       <c r="C459" s="8"/>
-      <c r="D459" s="16"/>
+      <c r="D459" s="17"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
       <c r="G459" s="2"/>
@@ -11752,7 +11755,7 @@
       <c r="A460" s="2"/>
       <c r="B460" s="7"/>
       <c r="C460" s="8"/>
-      <c r="D460" s="16"/>
+      <c r="D460" s="17"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
       <c r="G460" s="2"/>
@@ -11775,7 +11778,7 @@
       <c r="A461" s="2"/>
       <c r="B461" s="7"/>
       <c r="C461" s="8"/>
-      <c r="D461" s="16"/>
+      <c r="D461" s="17"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
       <c r="G461" s="2"/>
@@ -11798,7 +11801,7 @@
       <c r="A462" s="2"/>
       <c r="B462" s="7"/>
       <c r="C462" s="8"/>
-      <c r="D462" s="16"/>
+      <c r="D462" s="17"/>
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
       <c r="G462" s="2"/>
@@ -11821,7 +11824,7 @@
       <c r="A463" s="2"/>
       <c r="B463" s="7"/>
       <c r="C463" s="8"/>
-      <c r="D463" s="16"/>
+      <c r="D463" s="17"/>
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
       <c r="G463" s="2"/>
@@ -11844,7 +11847,7 @@
       <c r="A464" s="2"/>
       <c r="B464" s="7"/>
       <c r="C464" s="8"/>
-      <c r="D464" s="16"/>
+      <c r="D464" s="17"/>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
       <c r="G464" s="2"/>
@@ -11867,7 +11870,7 @@
       <c r="A465" s="2"/>
       <c r="B465" s="7"/>
       <c r="C465" s="8"/>
-      <c r="D465" s="16"/>
+      <c r="D465" s="17"/>
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
       <c r="G465" s="2"/>
@@ -11890,7 +11893,7 @@
       <c r="A466" s="2"/>
       <c r="B466" s="7"/>
       <c r="C466" s="8"/>
-      <c r="D466" s="16"/>
+      <c r="D466" s="17"/>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
       <c r="G466" s="2"/>
@@ -11913,7 +11916,7 @@
       <c r="A467" s="2"/>
       <c r="B467" s="7"/>
       <c r="C467" s="8"/>
-      <c r="D467" s="16"/>
+      <c r="D467" s="17"/>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
       <c r="G467" s="2"/>
@@ -11936,7 +11939,7 @@
       <c r="A468" s="2"/>
       <c r="B468" s="7"/>
       <c r="C468" s="8"/>
-      <c r="D468" s="16"/>
+      <c r="D468" s="17"/>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
       <c r="G468" s="2"/>
@@ -11959,7 +11962,7 @@
       <c r="A469" s="2"/>
       <c r="B469" s="7"/>
       <c r="C469" s="8"/>
-      <c r="D469" s="16"/>
+      <c r="D469" s="17"/>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
       <c r="G469" s="2"/>
@@ -11982,7 +11985,7 @@
       <c r="A470" s="2"/>
       <c r="B470" s="7"/>
       <c r="C470" s="8"/>
-      <c r="D470" s="16"/>
+      <c r="D470" s="17"/>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
       <c r="G470" s="2"/>
@@ -12005,7 +12008,7 @@
       <c r="A471" s="2"/>
       <c r="B471" s="7"/>
       <c r="C471" s="8"/>
-      <c r="D471" s="16"/>
+      <c r="D471" s="17"/>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
       <c r="G471" s="2"/>
@@ -12028,7 +12031,7 @@
       <c r="A472" s="2"/>
       <c r="B472" s="7"/>
       <c r="C472" s="8"/>
-      <c r="D472" s="16"/>
+      <c r="D472" s="17"/>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
       <c r="G472" s="2"/>
@@ -12051,7 +12054,7 @@
       <c r="A473" s="2"/>
       <c r="B473" s="7"/>
       <c r="C473" s="8"/>
-      <c r="D473" s="16"/>
+      <c r="D473" s="17"/>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
       <c r="G473" s="2"/>
@@ -12074,7 +12077,7 @@
       <c r="A474" s="2"/>
       <c r="B474" s="7"/>
       <c r="C474" s="8"/>
-      <c r="D474" s="16"/>
+      <c r="D474" s="17"/>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
       <c r="G474" s="2"/>
@@ -12097,7 +12100,7 @@
       <c r="A475" s="2"/>
       <c r="B475" s="7"/>
       <c r="C475" s="8"/>
-      <c r="D475" s="16"/>
+      <c r="D475" s="17"/>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
       <c r="G475" s="2"/>
@@ -12120,7 +12123,7 @@
       <c r="A476" s="2"/>
       <c r="B476" s="7"/>
       <c r="C476" s="8"/>
-      <c r="D476" s="16"/>
+      <c r="D476" s="17"/>
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
       <c r="G476" s="2"/>
@@ -12143,7 +12146,7 @@
       <c r="A477" s="2"/>
       <c r="B477" s="7"/>
       <c r="C477" s="8"/>
-      <c r="D477" s="16"/>
+      <c r="D477" s="17"/>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
       <c r="G477" s="2"/>
@@ -12166,7 +12169,7 @@
       <c r="A478" s="2"/>
       <c r="B478" s="7"/>
       <c r="C478" s="8"/>
-      <c r="D478" s="16"/>
+      <c r="D478" s="17"/>
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
       <c r="G478" s="2"/>
@@ -12189,7 +12192,7 @@
       <c r="A479" s="2"/>
       <c r="B479" s="7"/>
       <c r="C479" s="8"/>
-      <c r="D479" s="16"/>
+      <c r="D479" s="17"/>
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
       <c r="G479" s="2"/>
@@ -12212,7 +12215,7 @@
       <c r="A480" s="2"/>
       <c r="B480" s="7"/>
       <c r="C480" s="8"/>
-      <c r="D480" s="16"/>
+      <c r="D480" s="17"/>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
       <c r="G480" s="2"/>
@@ -12235,7 +12238,7 @@
       <c r="A481" s="2"/>
       <c r="B481" s="7"/>
       <c r="C481" s="8"/>
-      <c r="D481" s="16"/>
+      <c r="D481" s="17"/>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
       <c r="G481" s="2"/>
@@ -12258,7 +12261,7 @@
       <c r="A482" s="2"/>
       <c r="B482" s="7"/>
       <c r="C482" s="8"/>
-      <c r="D482" s="16"/>
+      <c r="D482" s="17"/>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
       <c r="G482" s="2"/>
@@ -12281,7 +12284,7 @@
       <c r="A483" s="2"/>
       <c r="B483" s="7"/>
       <c r="C483" s="8"/>
-      <c r="D483" s="16"/>
+      <c r="D483" s="17"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
       <c r="G483" s="2"/>
@@ -12304,7 +12307,7 @@
       <c r="A484" s="2"/>
       <c r="B484" s="7"/>
       <c r="C484" s="8"/>
-      <c r="D484" s="16"/>
+      <c r="D484" s="17"/>
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
       <c r="G484" s="2"/>
@@ -12327,7 +12330,7 @@
       <c r="A485" s="2"/>
       <c r="B485" s="7"/>
       <c r="C485" s="8"/>
-      <c r="D485" s="16"/>
+      <c r="D485" s="17"/>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
       <c r="G485" s="2"/>
@@ -12350,7 +12353,7 @@
       <c r="A486" s="2"/>
       <c r="B486" s="7"/>
       <c r="C486" s="8"/>
-      <c r="D486" s="16"/>
+      <c r="D486" s="17"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
       <c r="G486" s="2"/>
@@ -12373,7 +12376,7 @@
       <c r="A487" s="2"/>
       <c r="B487" s="7"/>
       <c r="C487" s="8"/>
-      <c r="D487" s="16"/>
+      <c r="D487" s="17"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
       <c r="G487" s="2"/>
@@ -12396,7 +12399,7 @@
       <c r="A488" s="2"/>
       <c r="B488" s="7"/>
       <c r="C488" s="8"/>
-      <c r="D488" s="16"/>
+      <c r="D488" s="17"/>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
       <c r="G488" s="2"/>
@@ -12419,7 +12422,7 @@
       <c r="A489" s="2"/>
       <c r="B489" s="7"/>
       <c r="C489" s="8"/>
-      <c r="D489" s="16"/>
+      <c r="D489" s="17"/>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
       <c r="G489" s="2"/>
@@ -12442,7 +12445,7 @@
       <c r="A490" s="2"/>
       <c r="B490" s="7"/>
       <c r="C490" s="8"/>
-      <c r="D490" s="16"/>
+      <c r="D490" s="17"/>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
       <c r="G490" s="2"/>
@@ -12465,7 +12468,7 @@
       <c r="A491" s="2"/>
       <c r="B491" s="7"/>
       <c r="C491" s="8"/>
-      <c r="D491" s="16"/>
+      <c r="D491" s="17"/>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
       <c r="G491" s="2"/>
@@ -12488,7 +12491,7 @@
       <c r="A492" s="2"/>
       <c r="B492" s="7"/>
       <c r="C492" s="8"/>
-      <c r="D492" s="16"/>
+      <c r="D492" s="17"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
       <c r="G492" s="2"/>
@@ -12511,7 +12514,7 @@
       <c r="A493" s="2"/>
       <c r="B493" s="7"/>
       <c r="C493" s="8"/>
-      <c r="D493" s="16"/>
+      <c r="D493" s="17"/>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
       <c r="G493" s="2"/>
@@ -12534,7 +12537,7 @@
       <c r="A494" s="2"/>
       <c r="B494" s="7"/>
       <c r="C494" s="8"/>
-      <c r="D494" s="16"/>
+      <c r="D494" s="17"/>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
       <c r="G494" s="2"/>
@@ -12557,7 +12560,7 @@
       <c r="A495" s="2"/>
       <c r="B495" s="7"/>
       <c r="C495" s="8"/>
-      <c r="D495" s="16"/>
+      <c r="D495" s="17"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
       <c r="G495" s="2"/>
@@ -12580,7 +12583,7 @@
       <c r="A496" s="2"/>
       <c r="B496" s="7"/>
       <c r="C496" s="8"/>
-      <c r="D496" s="16"/>
+      <c r="D496" s="17"/>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
       <c r="G496" s="2"/>
@@ -12603,7 +12606,7 @@
       <c r="A497" s="2"/>
       <c r="B497" s="7"/>
       <c r="C497" s="8"/>
-      <c r="D497" s="16"/>
+      <c r="D497" s="17"/>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
       <c r="G497" s="2"/>
@@ -12626,7 +12629,7 @@
       <c r="A498" s="2"/>
       <c r="B498" s="7"/>
       <c r="C498" s="8"/>
-      <c r="D498" s="16"/>
+      <c r="D498" s="17"/>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
       <c r="G498" s="2"/>
@@ -12649,7 +12652,7 @@
       <c r="A499" s="2"/>
       <c r="B499" s="7"/>
       <c r="C499" s="8"/>
-      <c r="D499" s="16"/>
+      <c r="D499" s="17"/>
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
       <c r="G499" s="2"/>
@@ -12672,7 +12675,7 @@
       <c r="A500" s="2"/>
       <c r="B500" s="7"/>
       <c r="C500" s="8"/>
-      <c r="D500" s="16"/>
+      <c r="D500" s="17"/>
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
       <c r="G500" s="2"/>
@@ -12695,7 +12698,7 @@
       <c r="A501" s="2"/>
       <c r="B501" s="7"/>
       <c r="C501" s="8"/>
-      <c r="D501" s="16"/>
+      <c r="D501" s="17"/>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
       <c r="G501" s="2"/>
@@ -12718,7 +12721,7 @@
       <c r="A502" s="2"/>
       <c r="B502" s="7"/>
       <c r="C502" s="8"/>
-      <c r="D502" s="16"/>
+      <c r="D502" s="17"/>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
       <c r="G502" s="2"/>
@@ -12741,7 +12744,7 @@
       <c r="A503" s="2"/>
       <c r="B503" s="7"/>
       <c r="C503" s="8"/>
-      <c r="D503" s="16"/>
+      <c r="D503" s="17"/>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
       <c r="G503" s="2"/>
@@ -12764,7 +12767,7 @@
       <c r="A504" s="2"/>
       <c r="B504" s="7"/>
       <c r="C504" s="8"/>
-      <c r="D504" s="16"/>
+      <c r="D504" s="17"/>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
       <c r="G504" s="2"/>
@@ -12787,7 +12790,7 @@
       <c r="A505" s="2"/>
       <c r="B505" s="7"/>
       <c r="C505" s="8"/>
-      <c r="D505" s="16"/>
+      <c r="D505" s="17"/>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
       <c r="G505" s="2"/>
@@ -12810,7 +12813,7 @@
       <c r="A506" s="2"/>
       <c r="B506" s="7"/>
       <c r="C506" s="8"/>
-      <c r="D506" s="16"/>
+      <c r="D506" s="17"/>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
       <c r="G506" s="2"/>
@@ -12833,7 +12836,7 @@
       <c r="A507" s="2"/>
       <c r="B507" s="7"/>
       <c r="C507" s="8"/>
-      <c r="D507" s="16"/>
+      <c r="D507" s="17"/>
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
       <c r="G507" s="2"/>
@@ -12856,7 +12859,7 @@
       <c r="A508" s="2"/>
       <c r="B508" s="7"/>
       <c r="C508" s="8"/>
-      <c r="D508" s="16"/>
+      <c r="D508" s="17"/>
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
       <c r="G508" s="2"/>
@@ -12879,7 +12882,7 @@
       <c r="A509" s="2"/>
       <c r="B509" s="7"/>
       <c r="C509" s="8"/>
-      <c r="D509" s="16"/>
+      <c r="D509" s="17"/>
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
       <c r="G509" s="2"/>
@@ -12902,7 +12905,7 @@
       <c r="A510" s="2"/>
       <c r="B510" s="7"/>
       <c r="C510" s="8"/>
-      <c r="D510" s="16"/>
+      <c r="D510" s="17"/>
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
       <c r="G510" s="2"/>
@@ -12925,7 +12928,7 @@
       <c r="A511" s="2"/>
       <c r="B511" s="7"/>
       <c r="C511" s="8"/>
-      <c r="D511" s="16"/>
+      <c r="D511" s="17"/>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
       <c r="G511" s="2"/>
@@ -12948,7 +12951,7 @@
       <c r="A512" s="2"/>
       <c r="B512" s="7"/>
       <c r="C512" s="8"/>
-      <c r="D512" s="16"/>
+      <c r="D512" s="17"/>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
       <c r="G512" s="2"/>
@@ -12971,7 +12974,7 @@
       <c r="A513" s="2"/>
       <c r="B513" s="7"/>
       <c r="C513" s="8"/>
-      <c r="D513" s="16"/>
+      <c r="D513" s="17"/>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
       <c r="G513" s="2"/>
@@ -12994,7 +12997,7 @@
       <c r="A514" s="2"/>
       <c r="B514" s="7"/>
       <c r="C514" s="8"/>
-      <c r="D514" s="16"/>
+      <c r="D514" s="17"/>
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
       <c r="G514" s="2"/>
@@ -13017,7 +13020,7 @@
       <c r="A515" s="2"/>
       <c r="B515" s="7"/>
       <c r="C515" s="8"/>
-      <c r="D515" s="16"/>
+      <c r="D515" s="17"/>
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
       <c r="G515" s="2"/>
@@ -13040,7 +13043,7 @@
       <c r="A516" s="2"/>
       <c r="B516" s="7"/>
       <c r="C516" s="8"/>
-      <c r="D516" s="16"/>
+      <c r="D516" s="17"/>
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
       <c r="G516" s="2"/>
@@ -13063,7 +13066,7 @@
       <c r="A517" s="2"/>
       <c r="B517" s="7"/>
       <c r="C517" s="8"/>
-      <c r="D517" s="16"/>
+      <c r="D517" s="17"/>
       <c r="E517" s="2"/>
       <c r="F517" s="2"/>
       <c r="G517" s="2"/>
@@ -13086,7 +13089,7 @@
       <c r="A518" s="2"/>
       <c r="B518" s="7"/>
       <c r="C518" s="8"/>
-      <c r="D518" s="16"/>
+      <c r="D518" s="17"/>
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
       <c r="G518" s="2"/>
@@ -13109,7 +13112,7 @@
       <c r="A519" s="2"/>
       <c r="B519" s="7"/>
       <c r="C519" s="8"/>
-      <c r="D519" s="16"/>
+      <c r="D519" s="17"/>
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
       <c r="G519" s="2"/>
@@ -13132,7 +13135,7 @@
       <c r="A520" s="2"/>
       <c r="B520" s="7"/>
       <c r="C520" s="8"/>
-      <c r="D520" s="16"/>
+      <c r="D520" s="17"/>
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
       <c r="G520" s="2"/>
@@ -13155,7 +13158,7 @@
       <c r="A521" s="2"/>
       <c r="B521" s="7"/>
       <c r="C521" s="8"/>
-      <c r="D521" s="16"/>
+      <c r="D521" s="17"/>
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
       <c r="G521" s="2"/>
@@ -13178,7 +13181,7 @@
       <c r="A522" s="2"/>
       <c r="B522" s="7"/>
       <c r="C522" s="8"/>
-      <c r="D522" s="16"/>
+      <c r="D522" s="17"/>
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
       <c r="G522" s="2"/>
@@ -13201,7 +13204,7 @@
       <c r="A523" s="2"/>
       <c r="B523" s="7"/>
       <c r="C523" s="8"/>
-      <c r="D523" s="16"/>
+      <c r="D523" s="17"/>
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
       <c r="G523" s="2"/>
@@ -13224,7 +13227,7 @@
       <c r="A524" s="2"/>
       <c r="B524" s="7"/>
       <c r="C524" s="8"/>
-      <c r="D524" s="16"/>
+      <c r="D524" s="17"/>
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
       <c r="G524" s="2"/>
@@ -13247,7 +13250,7 @@
       <c r="A525" s="2"/>
       <c r="B525" s="7"/>
       <c r="C525" s="8"/>
-      <c r="D525" s="16"/>
+      <c r="D525" s="17"/>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
       <c r="G525" s="2"/>
@@ -13270,7 +13273,7 @@
       <c r="A526" s="2"/>
       <c r="B526" s="7"/>
       <c r="C526" s="8"/>
-      <c r="D526" s="16"/>
+      <c r="D526" s="17"/>
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
       <c r="G526" s="2"/>
@@ -13293,7 +13296,7 @@
       <c r="A527" s="2"/>
       <c r="B527" s="7"/>
       <c r="C527" s="8"/>
-      <c r="D527" s="16"/>
+      <c r="D527" s="17"/>
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
       <c r="G527" s="2"/>
@@ -13316,7 +13319,7 @@
       <c r="A528" s="2"/>
       <c r="B528" s="7"/>
       <c r="C528" s="8"/>
-      <c r="D528" s="16"/>
+      <c r="D528" s="17"/>
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
       <c r="G528" s="2"/>
@@ -13339,7 +13342,7 @@
       <c r="A529" s="2"/>
       <c r="B529" s="7"/>
       <c r="C529" s="8"/>
-      <c r="D529" s="16"/>
+      <c r="D529" s="17"/>
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
       <c r="G529" s="2"/>
@@ -13362,7 +13365,7 @@
       <c r="A530" s="2"/>
       <c r="B530" s="7"/>
       <c r="C530" s="8"/>
-      <c r="D530" s="16"/>
+      <c r="D530" s="17"/>
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
       <c r="G530" s="2"/>
@@ -13385,7 +13388,7 @@
       <c r="A531" s="2"/>
       <c r="B531" s="7"/>
       <c r="C531" s="8"/>
-      <c r="D531" s="16"/>
+      <c r="D531" s="17"/>
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
       <c r="G531" s="2"/>
@@ -13408,7 +13411,7 @@
       <c r="A532" s="2"/>
       <c r="B532" s="7"/>
       <c r="C532" s="8"/>
-      <c r="D532" s="16"/>
+      <c r="D532" s="17"/>
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
       <c r="G532" s="2"/>
@@ -13431,7 +13434,7 @@
       <c r="A533" s="2"/>
       <c r="B533" s="7"/>
       <c r="C533" s="8"/>
-      <c r="D533" s="16"/>
+      <c r="D533" s="17"/>
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
       <c r="G533" s="2"/>
@@ -13454,7 +13457,7 @@
       <c r="A534" s="2"/>
       <c r="B534" s="7"/>
       <c r="C534" s="8"/>
-      <c r="D534" s="16"/>
+      <c r="D534" s="17"/>
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
       <c r="G534" s="2"/>
@@ -13477,7 +13480,7 @@
       <c r="A535" s="2"/>
       <c r="B535" s="7"/>
       <c r="C535" s="8"/>
-      <c r="D535" s="16"/>
+      <c r="D535" s="17"/>
       <c r="E535" s="2"/>
       <c r="F535" s="2"/>
       <c r="G535" s="2"/>
@@ -13500,7 +13503,7 @@
       <c r="A536" s="2"/>
       <c r="B536" s="7"/>
       <c r="C536" s="8"/>
-      <c r="D536" s="16"/>
+      <c r="D536" s="17"/>
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
       <c r="G536" s="2"/>
@@ -13523,7 +13526,7 @@
       <c r="A537" s="2"/>
       <c r="B537" s="7"/>
       <c r="C537" s="8"/>
-      <c r="D537" s="16"/>
+      <c r="D537" s="17"/>
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
       <c r="G537" s="2"/>
@@ -13546,7 +13549,7 @@
       <c r="A538" s="2"/>
       <c r="B538" s="7"/>
       <c r="C538" s="8"/>
-      <c r="D538" s="16"/>
+      <c r="D538" s="17"/>
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
       <c r="G538" s="2"/>
@@ -13569,7 +13572,7 @@
       <c r="A539" s="2"/>
       <c r="B539" s="7"/>
       <c r="C539" s="8"/>
-      <c r="D539" s="16"/>
+      <c r="D539" s="17"/>
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
       <c r="G539" s="2"/>
@@ -13592,7 +13595,7 @@
       <c r="A540" s="2"/>
       <c r="B540" s="7"/>
       <c r="C540" s="8"/>
-      <c r="D540" s="16"/>
+      <c r="D540" s="17"/>
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
       <c r="G540" s="2"/>
@@ -13615,7 +13618,7 @@
       <c r="A541" s="2"/>
       <c r="B541" s="7"/>
       <c r="C541" s="8"/>
-      <c r="D541" s="16"/>
+      <c r="D541" s="17"/>
       <c r="E541" s="2"/>
       <c r="F541" s="2"/>
       <c r="G541" s="2"/>
@@ -13638,7 +13641,7 @@
       <c r="A542" s="2"/>
       <c r="B542" s="7"/>
       <c r="C542" s="8"/>
-      <c r="D542" s="16"/>
+      <c r="D542" s="17"/>
       <c r="E542" s="2"/>
       <c r="F542" s="2"/>
       <c r="G542" s="2"/>
@@ -13661,7 +13664,7 @@
       <c r="A543" s="2"/>
       <c r="B543" s="7"/>
       <c r="C543" s="8"/>
-      <c r="D543" s="16"/>
+      <c r="D543" s="17"/>
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
       <c r="G543" s="2"/>
@@ -13684,7 +13687,7 @@
       <c r="A544" s="2"/>
       <c r="B544" s="7"/>
       <c r="C544" s="8"/>
-      <c r="D544" s="16"/>
+      <c r="D544" s="17"/>
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
       <c r="G544" s="2"/>
@@ -13707,7 +13710,7 @@
       <c r="A545" s="2"/>
       <c r="B545" s="7"/>
       <c r="C545" s="8"/>
-      <c r="D545" s="16"/>
+      <c r="D545" s="17"/>
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
       <c r="G545" s="2"/>
@@ -13730,7 +13733,7 @@
       <c r="A546" s="2"/>
       <c r="B546" s="7"/>
       <c r="C546" s="8"/>
-      <c r="D546" s="16"/>
+      <c r="D546" s="17"/>
       <c r="E546" s="2"/>
       <c r="F546" s="2"/>
       <c r="G546" s="2"/>
@@ -13753,7 +13756,7 @@
       <c r="A547" s="2"/>
       <c r="B547" s="7"/>
       <c r="C547" s="8"/>
-      <c r="D547" s="16"/>
+      <c r="D547" s="17"/>
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
       <c r="G547" s="2"/>
@@ -13776,7 +13779,7 @@
       <c r="A548" s="2"/>
       <c r="B548" s="7"/>
       <c r="C548" s="8"/>
-      <c r="D548" s="16"/>
+      <c r="D548" s="17"/>
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
       <c r="G548" s="2"/>
@@ -13799,7 +13802,7 @@
       <c r="A549" s="2"/>
       <c r="B549" s="7"/>
       <c r="C549" s="8"/>
-      <c r="D549" s="16"/>
+      <c r="D549" s="17"/>
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
       <c r="G549" s="2"/>
@@ -13822,7 +13825,7 @@
       <c r="A550" s="2"/>
       <c r="B550" s="7"/>
       <c r="C550" s="8"/>
-      <c r="D550" s="16"/>
+      <c r="D550" s="17"/>
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
       <c r="G550" s="2"/>
@@ -13845,7 +13848,7 @@
       <c r="A551" s="2"/>
       <c r="B551" s="7"/>
       <c r="C551" s="8"/>
-      <c r="D551" s="16"/>
+      <c r="D551" s="17"/>
       <c r="E551" s="2"/>
       <c r="F551" s="2"/>
       <c r="G551" s="2"/>
@@ -13868,7 +13871,7 @@
       <c r="A552" s="2"/>
       <c r="B552" s="7"/>
       <c r="C552" s="8"/>
-      <c r="D552" s="16"/>
+      <c r="D552" s="17"/>
       <c r="E552" s="2"/>
       <c r="F552" s="2"/>
       <c r="G552" s="2"/>
@@ -13891,7 +13894,7 @@
       <c r="A553" s="2"/>
       <c r="B553" s="7"/>
       <c r="C553" s="8"/>
-      <c r="D553" s="16"/>
+      <c r="D553" s="17"/>
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
       <c r="G553" s="2"/>
@@ -13914,7 +13917,7 @@
       <c r="A554" s="2"/>
       <c r="B554" s="7"/>
       <c r="C554" s="8"/>
-      <c r="D554" s="16"/>
+      <c r="D554" s="17"/>
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
       <c r="G554" s="2"/>
@@ -13937,7 +13940,7 @@
       <c r="A555" s="2"/>
       <c r="B555" s="7"/>
       <c r="C555" s="8"/>
-      <c r="D555" s="16"/>
+      <c r="D555" s="17"/>
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
       <c r="G555" s="2"/>
@@ -13960,7 +13963,7 @@
       <c r="A556" s="2"/>
       <c r="B556" s="7"/>
       <c r="C556" s="8"/>
-      <c r="D556" s="16"/>
+      <c r="D556" s="17"/>
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
       <c r="G556" s="2"/>
@@ -13983,7 +13986,7 @@
       <c r="A557" s="2"/>
       <c r="B557" s="7"/>
       <c r="C557" s="8"/>
-      <c r="D557" s="16"/>
+      <c r="D557" s="17"/>
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
       <c r="G557" s="2"/>
@@ -14006,7 +14009,7 @@
       <c r="A558" s="2"/>
       <c r="B558" s="7"/>
       <c r="C558" s="8"/>
-      <c r="D558" s="16"/>
+      <c r="D558" s="17"/>
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
       <c r="G558" s="2"/>
@@ -14029,7 +14032,7 @@
       <c r="A559" s="2"/>
       <c r="B559" s="7"/>
       <c r="C559" s="8"/>
-      <c r="D559" s="16"/>
+      <c r="D559" s="17"/>
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
       <c r="G559" s="2"/>
@@ -14052,7 +14055,7 @@
       <c r="A560" s="2"/>
       <c r="B560" s="7"/>
       <c r="C560" s="8"/>
-      <c r="D560" s="16"/>
+      <c r="D560" s="17"/>
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
       <c r="G560" s="2"/>
@@ -14075,7 +14078,7 @@
       <c r="A561" s="2"/>
       <c r="B561" s="7"/>
       <c r="C561" s="8"/>
-      <c r="D561" s="16"/>
+      <c r="D561" s="17"/>
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
       <c r="G561" s="2"/>
@@ -14098,7 +14101,7 @@
       <c r="A562" s="2"/>
       <c r="B562" s="7"/>
       <c r="C562" s="8"/>
-      <c r="D562" s="16"/>
+      <c r="D562" s="17"/>
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
       <c r="G562" s="2"/>
@@ -14121,7 +14124,7 @@
       <c r="A563" s="2"/>
       <c r="B563" s="7"/>
       <c r="C563" s="8"/>
-      <c r="D563" s="16"/>
+      <c r="D563" s="17"/>
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
       <c r="G563" s="2"/>
@@ -14144,7 +14147,7 @@
       <c r="A564" s="2"/>
       <c r="B564" s="7"/>
       <c r="C564" s="8"/>
-      <c r="D564" s="16"/>
+      <c r="D564" s="17"/>
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
       <c r="G564" s="2"/>
@@ -14167,7 +14170,7 @@
       <c r="A565" s="2"/>
       <c r="B565" s="7"/>
       <c r="C565" s="8"/>
-      <c r="D565" s="16"/>
+      <c r="D565" s="17"/>
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
       <c r="G565" s="2"/>
@@ -14190,7 +14193,7 @@
       <c r="A566" s="2"/>
       <c r="B566" s="7"/>
       <c r="C566" s="8"/>
-      <c r="D566" s="16"/>
+      <c r="D566" s="17"/>
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
       <c r="G566" s="2"/>
@@ -14213,7 +14216,7 @@
       <c r="A567" s="2"/>
       <c r="B567" s="7"/>
       <c r="C567" s="8"/>
-      <c r="D567" s="16"/>
+      <c r="D567" s="17"/>
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
       <c r="G567" s="2"/>
@@ -14236,7 +14239,7 @@
       <c r="A568" s="2"/>
       <c r="B568" s="7"/>
       <c r="C568" s="8"/>
-      <c r="D568" s="16"/>
+      <c r="D568" s="17"/>
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
       <c r="G568" s="2"/>
@@ -14259,7 +14262,7 @@
       <c r="A569" s="2"/>
       <c r="B569" s="7"/>
       <c r="C569" s="8"/>
-      <c r="D569" s="16"/>
+      <c r="D569" s="17"/>
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
       <c r="G569" s="2"/>
@@ -14282,7 +14285,7 @@
       <c r="A570" s="2"/>
       <c r="B570" s="7"/>
       <c r="C570" s="8"/>
-      <c r="D570" s="16"/>
+      <c r="D570" s="17"/>
       <c r="E570" s="2"/>
       <c r="F570" s="2"/>
       <c r="G570" s="2"/>
@@ -14305,7 +14308,7 @@
       <c r="A571" s="2"/>
       <c r="B571" s="7"/>
       <c r="C571" s="8"/>
-      <c r="D571" s="16"/>
+      <c r="D571" s="17"/>
       <c r="E571" s="2"/>
       <c r="F571" s="2"/>
       <c r="G571" s="2"/>
@@ -14328,7 +14331,7 @@
       <c r="A572" s="2"/>
       <c r="B572" s="7"/>
       <c r="C572" s="8"/>
-      <c r="D572" s="16"/>
+      <c r="D572" s="17"/>
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
       <c r="G572" s="2"/>
@@ -14351,7 +14354,7 @@
       <c r="A573" s="2"/>
       <c r="B573" s="7"/>
       <c r="C573" s="8"/>
-      <c r="D573" s="16"/>
+      <c r="D573" s="17"/>
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
       <c r="G573" s="2"/>
@@ -14374,7 +14377,7 @@
       <c r="A574" s="2"/>
       <c r="B574" s="7"/>
       <c r="C574" s="8"/>
-      <c r="D574" s="16"/>
+      <c r="D574" s="17"/>
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
       <c r="G574" s="2"/>
@@ -14397,7 +14400,7 @@
       <c r="A575" s="2"/>
       <c r="B575" s="7"/>
       <c r="C575" s="8"/>
-      <c r="D575" s="16"/>
+      <c r="D575" s="17"/>
       <c r="E575" s="2"/>
       <c r="F575" s="2"/>
       <c r="G575" s="2"/>
@@ -14420,7 +14423,7 @@
       <c r="A576" s="2"/>
       <c r="B576" s="7"/>
       <c r="C576" s="8"/>
-      <c r="D576" s="16"/>
+      <c r="D576" s="17"/>
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
       <c r="G576" s="2"/>
@@ -14443,7 +14446,7 @@
       <c r="A577" s="2"/>
       <c r="B577" s="7"/>
       <c r="C577" s="8"/>
-      <c r="D577" s="16"/>
+      <c r="D577" s="17"/>
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
       <c r="G577" s="2"/>
@@ -14466,7 +14469,7 @@
       <c r="A578" s="2"/>
       <c r="B578" s="7"/>
       <c r="C578" s="8"/>
-      <c r="D578" s="16"/>
+      <c r="D578" s="17"/>
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
       <c r="G578" s="2"/>
@@ -14489,7 +14492,7 @@
       <c r="A579" s="2"/>
       <c r="B579" s="7"/>
       <c r="C579" s="8"/>
-      <c r="D579" s="16"/>
+      <c r="D579" s="17"/>
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
       <c r="G579" s="2"/>
@@ -14512,7 +14515,7 @@
       <c r="A580" s="2"/>
       <c r="B580" s="7"/>
       <c r="C580" s="8"/>
-      <c r="D580" s="16"/>
+      <c r="D580" s="17"/>
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
       <c r="G580" s="2"/>
@@ -14535,7 +14538,7 @@
       <c r="A581" s="2"/>
       <c r="B581" s="7"/>
       <c r="C581" s="8"/>
-      <c r="D581" s="16"/>
+      <c r="D581" s="17"/>
       <c r="E581" s="2"/>
       <c r="F581" s="2"/>
       <c r="G581" s="2"/>
@@ -14558,7 +14561,7 @@
       <c r="A582" s="2"/>
       <c r="B582" s="7"/>
       <c r="C582" s="8"/>
-      <c r="D582" s="16"/>
+      <c r="D582" s="17"/>
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
       <c r="G582" s="2"/>
@@ -14581,7 +14584,7 @@
       <c r="A583" s="2"/>
       <c r="B583" s="7"/>
       <c r="C583" s="8"/>
-      <c r="D583" s="16"/>
+      <c r="D583" s="17"/>
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
       <c r="G583" s="2"/>
@@ -14604,7 +14607,7 @@
       <c r="A584" s="2"/>
       <c r="B584" s="7"/>
       <c r="C584" s="8"/>
-      <c r="D584" s="16"/>
+      <c r="D584" s="17"/>
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
       <c r="G584" s="2"/>
@@ -14627,7 +14630,7 @@
       <c r="A585" s="2"/>
       <c r="B585" s="7"/>
       <c r="C585" s="8"/>
-      <c r="D585" s="16"/>
+      <c r="D585" s="17"/>
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
       <c r="G585" s="2"/>
@@ -14650,7 +14653,7 @@
       <c r="A586" s="2"/>
       <c r="B586" s="7"/>
       <c r="C586" s="8"/>
-      <c r="D586" s="16"/>
+      <c r="D586" s="17"/>
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
       <c r="G586" s="2"/>
@@ -14673,7 +14676,7 @@
       <c r="A587" s="2"/>
       <c r="B587" s="7"/>
       <c r="C587" s="8"/>
-      <c r="D587" s="16"/>
+      <c r="D587" s="17"/>
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
       <c r="G587" s="2"/>
@@ -14696,7 +14699,7 @@
       <c r="A588" s="2"/>
       <c r="B588" s="7"/>
       <c r="C588" s="8"/>
-      <c r="D588" s="16"/>
+      <c r="D588" s="17"/>
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
       <c r="G588" s="2"/>
@@ -14719,7 +14722,7 @@
       <c r="A589" s="2"/>
       <c r="B589" s="7"/>
       <c r="C589" s="8"/>
-      <c r="D589" s="16"/>
+      <c r="D589" s="17"/>
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
       <c r="G589" s="2"/>
@@ -14742,7 +14745,7 @@
       <c r="A590" s="2"/>
       <c r="B590" s="7"/>
       <c r="C590" s="8"/>
-      <c r="D590" s="16"/>
+      <c r="D590" s="17"/>
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
       <c r="G590" s="2"/>
@@ -14765,7 +14768,7 @@
       <c r="A591" s="2"/>
       <c r="B591" s="7"/>
       <c r="C591" s="8"/>
-      <c r="D591" s="16"/>
+      <c r="D591" s="17"/>
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
       <c r="G591" s="2"/>
@@ -14788,7 +14791,7 @@
       <c r="A592" s="2"/>
       <c r="B592" s="7"/>
       <c r="C592" s="8"/>
-      <c r="D592" s="16"/>
+      <c r="D592" s="17"/>
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
       <c r="G592" s="2"/>
@@ -14811,7 +14814,7 @@
       <c r="A593" s="2"/>
       <c r="B593" s="7"/>
       <c r="C593" s="8"/>
-      <c r="D593" s="16"/>
+      <c r="D593" s="17"/>
       <c r="E593" s="2"/>
       <c r="F593" s="2"/>
       <c r="G593" s="2"/>
@@ -14834,7 +14837,7 @@
       <c r="A594" s="2"/>
       <c r="B594" s="7"/>
       <c r="C594" s="8"/>
-      <c r="D594" s="16"/>
+      <c r="D594" s="17"/>
       <c r="E594" s="2"/>
       <c r="F594" s="2"/>
       <c r="G594" s="2"/>
@@ -14857,7 +14860,7 @@
       <c r="A595" s="2"/>
       <c r="B595" s="7"/>
       <c r="C595" s="8"/>
-      <c r="D595" s="16"/>
+      <c r="D595" s="17"/>
       <c r="E595" s="2"/>
       <c r="F595" s="2"/>
       <c r="G595" s="2"/>
@@ -14880,7 +14883,7 @@
       <c r="A596" s="2"/>
       <c r="B596" s="7"/>
       <c r="C596" s="8"/>
-      <c r="D596" s="16"/>
+      <c r="D596" s="17"/>
       <c r="E596" s="2"/>
       <c r="F596" s="2"/>
       <c r="G596" s="2"/>
@@ -14903,7 +14906,7 @@
       <c r="A597" s="2"/>
       <c r="B597" s="7"/>
       <c r="C597" s="8"/>
-      <c r="D597" s="16"/>
+      <c r="D597" s="17"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
       <c r="G597" s="2"/>
@@ -14926,7 +14929,7 @@
       <c r="A598" s="2"/>
       <c r="B598" s="7"/>
       <c r="C598" s="8"/>
-      <c r="D598" s="16"/>
+      <c r="D598" s="17"/>
       <c r="E598" s="2"/>
       <c r="F598" s="2"/>
       <c r="G598" s="2"/>
@@ -14949,7 +14952,7 @@
       <c r="A599" s="2"/>
       <c r="B599" s="7"/>
       <c r="C599" s="8"/>
-      <c r="D599" s="16"/>
+      <c r="D599" s="17"/>
       <c r="E599" s="2"/>
       <c r="F599" s="2"/>
       <c r="G599" s="2"/>
@@ -14972,7 +14975,7 @@
       <c r="A600" s="2"/>
       <c r="B600" s="7"/>
       <c r="C600" s="8"/>
-      <c r="D600" s="16"/>
+      <c r="D600" s="17"/>
       <c r="E600" s="2"/>
       <c r="F600" s="2"/>
       <c r="G600" s="2"/>
@@ -14995,7 +14998,7 @@
       <c r="A601" s="2"/>
       <c r="B601" s="7"/>
       <c r="C601" s="8"/>
-      <c r="D601" s="16"/>
+      <c r="D601" s="17"/>
       <c r="E601" s="2"/>
       <c r="F601" s="2"/>
       <c r="G601" s="2"/>
@@ -15018,7 +15021,7 @@
       <c r="A602" s="2"/>
       <c r="B602" s="7"/>
       <c r="C602" s="8"/>
-      <c r="D602" s="16"/>
+      <c r="D602" s="17"/>
       <c r="E602" s="2"/>
       <c r="F602" s="2"/>
       <c r="G602" s="2"/>
@@ -15041,7 +15044,7 @@
       <c r="A603" s="2"/>
       <c r="B603" s="7"/>
       <c r="C603" s="8"/>
-      <c r="D603" s="16"/>
+      <c r="D603" s="17"/>
       <c r="E603" s="2"/>
       <c r="F603" s="2"/>
       <c r="G603" s="2"/>
@@ -15064,7 +15067,7 @@
       <c r="A604" s="2"/>
       <c r="B604" s="7"/>
       <c r="C604" s="8"/>
-      <c r="D604" s="16"/>
+      <c r="D604" s="17"/>
       <c r="E604" s="2"/>
       <c r="F604" s="2"/>
       <c r="G604" s="2"/>
@@ -15087,7 +15090,7 @@
       <c r="A605" s="2"/>
       <c r="B605" s="7"/>
       <c r="C605" s="8"/>
-      <c r="D605" s="16"/>
+      <c r="D605" s="17"/>
       <c r="E605" s="2"/>
       <c r="F605" s="2"/>
       <c r="G605" s="2"/>
@@ -15110,7 +15113,7 @@
       <c r="A606" s="2"/>
       <c r="B606" s="7"/>
       <c r="C606" s="8"/>
-      <c r="D606" s="16"/>
+      <c r="D606" s="17"/>
       <c r="E606" s="2"/>
       <c r="F606" s="2"/>
       <c r="G606" s="2"/>
@@ -15133,7 +15136,7 @@
       <c r="A607" s="2"/>
       <c r="B607" s="7"/>
       <c r="C607" s="8"/>
-      <c r="D607" s="16"/>
+      <c r="D607" s="17"/>
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
       <c r="G607" s="2"/>
@@ -15156,7 +15159,7 @@
       <c r="A608" s="2"/>
       <c r="B608" s="7"/>
       <c r="C608" s="8"/>
-      <c r="D608" s="16"/>
+      <c r="D608" s="17"/>
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
       <c r="G608" s="2"/>
@@ -15179,7 +15182,7 @@
       <c r="A609" s="2"/>
       <c r="B609" s="7"/>
       <c r="C609" s="8"/>
-      <c r="D609" s="16"/>
+      <c r="D609" s="17"/>
       <c r="E609" s="2"/>
       <c r="F609" s="2"/>
       <c r="G609" s="2"/>
@@ -15202,7 +15205,7 @@
       <c r="A610" s="2"/>
       <c r="B610" s="7"/>
       <c r="C610" s="8"/>
-      <c r="D610" s="16"/>
+      <c r="D610" s="17"/>
       <c r="E610" s="2"/>
       <c r="F610" s="2"/>
       <c r="G610" s="2"/>
@@ -15225,7 +15228,7 @@
       <c r="A611" s="2"/>
       <c r="B611" s="7"/>
       <c r="C611" s="8"/>
-      <c r="D611" s="16"/>
+      <c r="D611" s="17"/>
       <c r="E611" s="2"/>
       <c r="F611" s="2"/>
       <c r="G611" s="2"/>
@@ -15248,7 +15251,7 @@
       <c r="A612" s="2"/>
       <c r="B612" s="7"/>
       <c r="C612" s="8"/>
-      <c r="D612" s="16"/>
+      <c r="D612" s="17"/>
       <c r="E612" s="2"/>
       <c r="F612" s="2"/>
       <c r="G612" s="2"/>
@@ -15271,7 +15274,7 @@
       <c r="A613" s="2"/>
       <c r="B613" s="7"/>
       <c r="C613" s="8"/>
-      <c r="D613" s="16"/>
+      <c r="D613" s="17"/>
       <c r="E613" s="2"/>
       <c r="F613" s="2"/>
       <c r="G613" s="2"/>
@@ -15294,7 +15297,7 @@
       <c r="A614" s="2"/>
       <c r="B614" s="7"/>
       <c r="C614" s="8"/>
-      <c r="D614" s="16"/>
+      <c r="D614" s="17"/>
       <c r="E614" s="2"/>
       <c r="F614" s="2"/>
       <c r="G614" s="2"/>
@@ -15317,7 +15320,7 @@
       <c r="A615" s="2"/>
       <c r="B615" s="7"/>
       <c r="C615" s="8"/>
-      <c r="D615" s="16"/>
+      <c r="D615" s="17"/>
       <c r="E615" s="2"/>
       <c r="F615" s="2"/>
       <c r="G615" s="2"/>
@@ -15340,7 +15343,7 @@
       <c r="A616" s="2"/>
       <c r="B616" s="7"/>
       <c r="C616" s="8"/>
-      <c r="D616" s="16"/>
+      <c r="D616" s="17"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
       <c r="G616" s="2"/>
@@ -15363,7 +15366,7 @@
       <c r="A617" s="2"/>
       <c r="B617" s="7"/>
       <c r="C617" s="8"/>
-      <c r="D617" s="16"/>
+      <c r="D617" s="17"/>
       <c r="E617" s="2"/>
       <c r="F617" s="2"/>
       <c r="G617" s="2"/>
@@ -15386,7 +15389,7 @@
       <c r="A618" s="2"/>
       <c r="B618" s="7"/>
       <c r="C618" s="8"/>
-      <c r="D618" s="16"/>
+      <c r="D618" s="17"/>
       <c r="E618" s="2"/>
       <c r="F618" s="2"/>
       <c r="G618" s="2"/>
@@ -15409,7 +15412,7 @@
       <c r="A619" s="2"/>
       <c r="B619" s="7"/>
       <c r="C619" s="8"/>
-      <c r="D619" s="16"/>
+      <c r="D619" s="17"/>
       <c r="E619" s="2"/>
       <c r="F619" s="2"/>
       <c r="G619" s="2"/>
@@ -15432,7 +15435,7 @@
       <c r="A620" s="2"/>
       <c r="B620" s="7"/>
       <c r="C620" s="8"/>
-      <c r="D620" s="16"/>
+      <c r="D620" s="17"/>
       <c r="E620" s="2"/>
       <c r="F620" s="2"/>
       <c r="G620" s="2"/>
@@ -15455,7 +15458,7 @@
       <c r="A621" s="2"/>
       <c r="B621" s="7"/>
       <c r="C621" s="8"/>
-      <c r="D621" s="16"/>
+      <c r="D621" s="17"/>
       <c r="E621" s="2"/>
       <c r="F621" s="2"/>
       <c r="G621" s="2"/>
@@ -15478,7 +15481,7 @@
       <c r="A622" s="2"/>
       <c r="B622" s="7"/>
       <c r="C622" s="8"/>
-      <c r="D622" s="16"/>
+      <c r="D622" s="17"/>
       <c r="E622" s="2"/>
       <c r="F622" s="2"/>
       <c r="G622" s="2"/>
@@ -15501,7 +15504,7 @@
       <c r="A623" s="2"/>
       <c r="B623" s="7"/>
       <c r="C623" s="8"/>
-      <c r="D623" s="16"/>
+      <c r="D623" s="17"/>
       <c r="E623" s="2"/>
       <c r="F623" s="2"/>
       <c r="G623" s="2"/>
@@ -15524,7 +15527,7 @@
       <c r="A624" s="2"/>
       <c r="B624" s="7"/>
       <c r="C624" s="8"/>
-      <c r="D624" s="16"/>
+      <c r="D624" s="17"/>
       <c r="E624" s="2"/>
       <c r="F624" s="2"/>
       <c r="G624" s="2"/>
@@ -15547,7 +15550,7 @@
       <c r="A625" s="2"/>
       <c r="B625" s="7"/>
       <c r="C625" s="8"/>
-      <c r="D625" s="16"/>
+      <c r="D625" s="17"/>
       <c r="E625" s="2"/>
       <c r="F625" s="2"/>
       <c r="G625" s="2"/>
@@ -15570,7 +15573,7 @@
       <c r="A626" s="2"/>
       <c r="B626" s="7"/>
       <c r="C626" s="8"/>
-      <c r="D626" s="16"/>
+      <c r="D626" s="17"/>
       <c r="E626" s="2"/>
       <c r="F626" s="2"/>
       <c r="G626" s="2"/>
@@ -15593,7 +15596,7 @@
       <c r="A627" s="2"/>
       <c r="B627" s="7"/>
       <c r="C627" s="8"/>
-      <c r="D627" s="16"/>
+      <c r="D627" s="17"/>
       <c r="E627" s="2"/>
       <c r="F627" s="2"/>
       <c r="G627" s="2"/>
@@ -15616,7 +15619,7 @@
       <c r="A628" s="2"/>
       <c r="B628" s="7"/>
       <c r="C628" s="8"/>
-      <c r="D628" s="16"/>
+      <c r="D628" s="17"/>
       <c r="E628" s="2"/>
       <c r="F628" s="2"/>
       <c r="G628" s="2"/>
@@ -15639,7 +15642,7 @@
       <c r="A629" s="2"/>
       <c r="B629" s="7"/>
       <c r="C629" s="8"/>
-      <c r="D629" s="16"/>
+      <c r="D629" s="17"/>
       <c r="E629" s="2"/>
       <c r="F629" s="2"/>
       <c r="G629" s="2"/>
@@ -15662,7 +15665,7 @@
       <c r="A630" s="2"/>
       <c r="B630" s="7"/>
       <c r="C630" s="8"/>
-      <c r="D630" s="16"/>
+      <c r="D630" s="17"/>
       <c r="E630" s="2"/>
       <c r="F630" s="2"/>
       <c r="G630" s="2"/>
@@ -15685,7 +15688,7 @@
       <c r="A631" s="2"/>
       <c r="B631" s="7"/>
       <c r="C631" s="8"/>
-      <c r="D631" s="16"/>
+      <c r="D631" s="17"/>
       <c r="E631" s="2"/>
       <c r="F631" s="2"/>
       <c r="G631" s="2"/>
@@ -15708,7 +15711,7 @@
       <c r="A632" s="2"/>
       <c r="B632" s="7"/>
       <c r="C632" s="8"/>
-      <c r="D632" s="16"/>
+      <c r="D632" s="17"/>
       <c r="E632" s="2"/>
       <c r="F632" s="2"/>
       <c r="G632" s="2"/>
@@ -15731,7 +15734,7 @@
       <c r="A633" s="2"/>
       <c r="B633" s="7"/>
       <c r="C633" s="8"/>
-      <c r="D633" s="16"/>
+      <c r="D633" s="17"/>
       <c r="E633" s="2"/>
       <c r="F633" s="2"/>
       <c r="G633" s="2"/>
@@ -15754,7 +15757,7 @@
       <c r="A634" s="2"/>
       <c r="B634" s="7"/>
       <c r="C634" s="8"/>
-      <c r="D634" s="16"/>
+      <c r="D634" s="17"/>
       <c r="E634" s="2"/>
       <c r="F634" s="2"/>
       <c r="G634" s="2"/>
@@ -15777,7 +15780,7 @@
       <c r="A635" s="2"/>
       <c r="B635" s="7"/>
       <c r="C635" s="8"/>
-      <c r="D635" s="16"/>
+      <c r="D635" s="17"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
       <c r="G635" s="2"/>
@@ -15800,7 +15803,7 @@
       <c r="A636" s="2"/>
       <c r="B636" s="7"/>
       <c r="C636" s="8"/>
-      <c r="D636" s="16"/>
+      <c r="D636" s="17"/>
       <c r="E636" s="2"/>
       <c r="F636" s="2"/>
       <c r="G636" s="2"/>
@@ -15823,7 +15826,7 @@
       <c r="A637" s="2"/>
       <c r="B637" s="7"/>
       <c r="C637" s="8"/>
-      <c r="D637" s="16"/>
+      <c r="D637" s="17"/>
       <c r="E637" s="2"/>
       <c r="F637" s="2"/>
       <c r="G637" s="2"/>
@@ -15846,7 +15849,7 @@
       <c r="A638" s="2"/>
       <c r="B638" s="7"/>
       <c r="C638" s="8"/>
-      <c r="D638" s="16"/>
+      <c r="D638" s="17"/>
       <c r="E638" s="2"/>
       <c r="F638" s="2"/>
       <c r="G638" s="2"/>
@@ -15869,7 +15872,7 @@
       <c r="A639" s="2"/>
       <c r="B639" s="7"/>
       <c r="C639" s="8"/>
-      <c r="D639" s="16"/>
+      <c r="D639" s="17"/>
       <c r="E639" s="2"/>
       <c r="F639" s="2"/>
       <c r="G639" s="2"/>
@@ -15892,7 +15895,7 @@
       <c r="A640" s="2"/>
       <c r="B640" s="7"/>
       <c r="C640" s="8"/>
-      <c r="D640" s="16"/>
+      <c r="D640" s="17"/>
       <c r="E640" s="2"/>
       <c r="F640" s="2"/>
       <c r="G640" s="2"/>
@@ -15915,7 +15918,7 @@
       <c r="A641" s="2"/>
       <c r="B641" s="7"/>
       <c r="C641" s="8"/>
-      <c r="D641" s="16"/>
+      <c r="D641" s="17"/>
       <c r="E641" s="2"/>
       <c r="F641" s="2"/>
       <c r="G641" s="2"/>
@@ -15938,7 +15941,7 @@
       <c r="A642" s="2"/>
       <c r="B642" s="7"/>
       <c r="C642" s="8"/>
-      <c r="D642" s="16"/>
+      <c r="D642" s="17"/>
       <c r="E642" s="2"/>
       <c r="F642" s="2"/>
       <c r="G642" s="2"/>
@@ -15961,7 +15964,7 @@
       <c r="A643" s="2"/>
       <c r="B643" s="7"/>
       <c r="C643" s="8"/>
-      <c r="D643" s="16"/>
+      <c r="D643" s="17"/>
       <c r="E643" s="2"/>
       <c r="F643" s="2"/>
       <c r="G643" s="2"/>
@@ -15984,7 +15987,7 @@
       <c r="A644" s="2"/>
       <c r="B644" s="7"/>
       <c r="C644" s="8"/>
-      <c r="D644" s="16"/>
+      <c r="D644" s="17"/>
       <c r="E644" s="2"/>
       <c r="F644" s="2"/>
       <c r="G644" s="2"/>
@@ -16007,7 +16010,7 @@
       <c r="A645" s="2"/>
       <c r="B645" s="7"/>
       <c r="C645" s="8"/>
-      <c r="D645" s="16"/>
+      <c r="D645" s="17"/>
       <c r="E645" s="2"/>
       <c r="F645" s="2"/>
       <c r="G645" s="2"/>
@@ -16030,7 +16033,7 @@
       <c r="A646" s="2"/>
       <c r="B646" s="7"/>
       <c r="C646" s="8"/>
-      <c r="D646" s="16"/>
+      <c r="D646" s="17"/>
       <c r="E646" s="2"/>
       <c r="F646" s="2"/>
       <c r="G646" s="2"/>
@@ -16053,7 +16056,7 @@
       <c r="A647" s="2"/>
       <c r="B647" s="7"/>
       <c r="C647" s="8"/>
-      <c r="D647" s="16"/>
+      <c r="D647" s="17"/>
       <c r="E647" s="2"/>
       <c r="F647" s="2"/>
       <c r="G647" s="2"/>
@@ -16076,7 +16079,7 @@
       <c r="A648" s="2"/>
       <c r="B648" s="7"/>
       <c r="C648" s="8"/>
-      <c r="D648" s="16"/>
+      <c r="D648" s="17"/>
       <c r="E648" s="2"/>
       <c r="F648" s="2"/>
       <c r="G648" s="2"/>
@@ -16099,7 +16102,7 @@
       <c r="A649" s="2"/>
       <c r="B649" s="7"/>
       <c r="C649" s="8"/>
-      <c r="D649" s="16"/>
+      <c r="D649" s="17"/>
       <c r="E649" s="2"/>
       <c r="F649" s="2"/>
       <c r="G649" s="2"/>
@@ -16122,7 +16125,7 @@
       <c r="A650" s="2"/>
       <c r="B650" s="7"/>
       <c r="C650" s="8"/>
-      <c r="D650" s="16"/>
+      <c r="D650" s="17"/>
       <c r="E650" s="2"/>
       <c r="F650" s="2"/>
       <c r="G650" s="2"/>
@@ -16145,7 +16148,7 @@
       <c r="A651" s="2"/>
       <c r="B651" s="7"/>
       <c r="C651" s="8"/>
-      <c r="D651" s="16"/>
+      <c r="D651" s="17"/>
       <c r="E651" s="2"/>
       <c r="F651" s="2"/>
       <c r="G651" s="2"/>
@@ -16168,7 +16171,7 @@
       <c r="A652" s="2"/>
       <c r="B652" s="7"/>
       <c r="C652" s="8"/>
-      <c r="D652" s="16"/>
+      <c r="D652" s="17"/>
       <c r="E652" s="2"/>
       <c r="F652" s="2"/>
       <c r="G652" s="2"/>
@@ -16191,7 +16194,7 @@
       <c r="A653" s="2"/>
       <c r="B653" s="7"/>
       <c r="C653" s="8"/>
-      <c r="D653" s="16"/>
+      <c r="D653" s="17"/>
       <c r="E653" s="2"/>
       <c r="F653" s="2"/>
       <c r="G653" s="2"/>
@@ -16214,7 +16217,7 @@
       <c r="A654" s="2"/>
       <c r="B654" s="7"/>
       <c r="C654" s="8"/>
-      <c r="D654" s="16"/>
+      <c r="D654" s="17"/>
       <c r="E654" s="2"/>
       <c r="F654" s="2"/>
       <c r="G654" s="2"/>
@@ -16237,7 +16240,7 @@
       <c r="A655" s="2"/>
       <c r="B655" s="7"/>
       <c r="C655" s="8"/>
-      <c r="D655" s="16"/>
+      <c r="D655" s="17"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
       <c r="G655" s="2"/>
@@ -16260,7 +16263,7 @@
       <c r="A656" s="2"/>
       <c r="B656" s="7"/>
       <c r="C656" s="8"/>
-      <c r="D656" s="16"/>
+      <c r="D656" s="17"/>
       <c r="E656" s="2"/>
       <c r="F656" s="2"/>
       <c r="G656" s="2"/>
@@ -16283,7 +16286,7 @@
       <c r="A657" s="2"/>
       <c r="B657" s="7"/>
       <c r="C657" s="8"/>
-      <c r="D657" s="16"/>
+      <c r="D657" s="17"/>
       <c r="E657" s="2"/>
       <c r="F657" s="2"/>
       <c r="G657" s="2"/>
@@ -16306,7 +16309,7 @@
       <c r="A658" s="2"/>
       <c r="B658" s="7"/>
       <c r="C658" s="8"/>
-      <c r="D658" s="16"/>
+      <c r="D658" s="17"/>
       <c r="E658" s="2"/>
       <c r="F658" s="2"/>
       <c r="G658" s="2"/>
@@ -16329,7 +16332,7 @@
       <c r="A659" s="2"/>
       <c r="B659" s="7"/>
       <c r="C659" s="8"/>
-      <c r="D659" s="16"/>
+      <c r="D659" s="17"/>
       <c r="E659" s="2"/>
       <c r="F659" s="2"/>
       <c r="G659" s="2"/>
@@ -16352,7 +16355,7 @@
       <c r="A660" s="2"/>
       <c r="B660" s="7"/>
       <c r="C660" s="8"/>
-      <c r="D660" s="16"/>
+      <c r="D660" s="17"/>
       <c r="E660" s="2"/>
       <c r="F660" s="2"/>
       <c r="G660" s="2"/>
@@ -16375,7 +16378,7 @@
       <c r="A661" s="2"/>
       <c r="B661" s="7"/>
       <c r="C661" s="8"/>
-      <c r="D661" s="16"/>
+      <c r="D661" s="17"/>
       <c r="E661" s="2"/>
       <c r="F661" s="2"/>
       <c r="G661" s="2"/>
@@ -16398,7 +16401,7 @@
       <c r="A662" s="2"/>
       <c r="B662" s="7"/>
       <c r="C662" s="8"/>
-      <c r="D662" s="16"/>
+      <c r="D662" s="17"/>
       <c r="E662" s="2"/>
       <c r="F662" s="2"/>
       <c r="G662" s="2"/>
@@ -16421,7 +16424,7 @@
       <c r="A663" s="2"/>
       <c r="B663" s="7"/>
       <c r="C663" s="8"/>
-      <c r="D663" s="16"/>
+      <c r="D663" s="17"/>
       <c r="E663" s="2"/>
       <c r="F663" s="2"/>
       <c r="G663" s="2"/>
@@ -16444,7 +16447,7 @@
       <c r="A664" s="2"/>
       <c r="B664" s="7"/>
       <c r="C664" s="8"/>
-      <c r="D664" s="16"/>
+      <c r="D664" s="17"/>
       <c r="E664" s="2"/>
       <c r="F664" s="2"/>
       <c r="G664" s="2"/>
@@ -16467,7 +16470,7 @@
       <c r="A665" s="2"/>
       <c r="B665" s="7"/>
       <c r="C665" s="8"/>
-      <c r="D665" s="16"/>
+      <c r="D665" s="17"/>
       <c r="E665" s="2"/>
       <c r="F665" s="2"/>
       <c r="G665" s="2"/>
@@ -16490,7 +16493,7 @@
       <c r="A666" s="2"/>
       <c r="B666" s="7"/>
       <c r="C666" s="8"/>
-      <c r="D666" s="16"/>
+      <c r="D666" s="17"/>
       <c r="E666" s="2"/>
       <c r="F666" s="2"/>
       <c r="G666" s="2"/>
@@ -16513,7 +16516,7 @@
       <c r="A667" s="2"/>
       <c r="B667" s="7"/>
       <c r="C667" s="8"/>
-      <c r="D667" s="16"/>
+      <c r="D667" s="17"/>
       <c r="E667" s="2"/>
       <c r="F667" s="2"/>
       <c r="G667" s="2"/>
@@ -16536,7 +16539,7 @@
       <c r="A668" s="2"/>
       <c r="B668" s="7"/>
       <c r="C668" s="8"/>
-      <c r="D668" s="16"/>
+      <c r="D668" s="17"/>
       <c r="E668" s="2"/>
       <c r="F668" s="2"/>
       <c r="G668" s="2"/>
@@ -16559,7 +16562,7 @@
       <c r="A669" s="2"/>
       <c r="B669" s="7"/>
       <c r="C669" s="8"/>
-      <c r="D669" s="16"/>
+      <c r="D669" s="17"/>
       <c r="E669" s="2"/>
       <c r="F669" s="2"/>
       <c r="G669" s="2"/>
@@ -16582,7 +16585,7 @@
       <c r="A670" s="2"/>
       <c r="B670" s="7"/>
       <c r="C670" s="8"/>
-      <c r="D670" s="16"/>
+      <c r="D670" s="17"/>
       <c r="E670" s="2"/>
       <c r="F670" s="2"/>
       <c r="G670" s="2"/>
@@ -16605,7 +16608,7 @@
       <c r="A671" s="2"/>
       <c r="B671" s="7"/>
       <c r="C671" s="8"/>
-      <c r="D671" s="16"/>
+      <c r="D671" s="17"/>
       <c r="E671" s="2"/>
       <c r="F671" s="2"/>
       <c r="G671" s="2"/>
@@ -16628,7 +16631,7 @@
       <c r="A672" s="2"/>
       <c r="B672" s="7"/>
       <c r="C672" s="8"/>
-      <c r="D672" s="16"/>
+      <c r="D672" s="17"/>
       <c r="E672" s="2"/>
       <c r="F672" s="2"/>
       <c r="G672" s="2"/>
@@ -16651,7 +16654,7 @@
       <c r="A673" s="2"/>
       <c r="B673" s="7"/>
       <c r="C673" s="8"/>
-      <c r="D673" s="16"/>
+      <c r="D673" s="17"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
       <c r="G673" s="2"/>
@@ -16674,7 +16677,7 @@
       <c r="A674" s="2"/>
       <c r="B674" s="7"/>
       <c r="C674" s="8"/>
-      <c r="D674" s="16"/>
+      <c r="D674" s="17"/>
       <c r="E674" s="2"/>
       <c r="F674" s="2"/>
       <c r="G674" s="2"/>
@@ -16697,7 +16700,7 @@
       <c r="A675" s="2"/>
       <c r="B675" s="7"/>
       <c r="C675" s="8"/>
-      <c r="D675" s="16"/>
+      <c r="D675" s="17"/>
       <c r="E675" s="2"/>
       <c r="F675" s="2"/>
       <c r="G675" s="2"/>
@@ -16720,7 +16723,7 @@
       <c r="A676" s="2"/>
       <c r="B676" s="7"/>
       <c r="C676" s="8"/>
-      <c r="D676" s="16"/>
+      <c r="D676" s="17"/>
       <c r="E676" s="2"/>
       <c r="F676" s="2"/>
       <c r="G676" s="2"/>
@@ -16743,7 +16746,7 @@
       <c r="A677" s="2"/>
       <c r="B677" s="7"/>
       <c r="C677" s="8"/>
-      <c r="D677" s="16"/>
+      <c r="D677" s="17"/>
       <c r="E677" s="2"/>
       <c r="F677" s="2"/>
       <c r="G677" s="2"/>
@@ -16766,7 +16769,7 @@
       <c r="A678" s="2"/>
       <c r="B678" s="7"/>
       <c r="C678" s="8"/>
-      <c r="D678" s="16"/>
+      <c r="D678" s="17"/>
       <c r="E678" s="2"/>
       <c r="F678" s="2"/>
       <c r="G678" s="2"/>
@@ -16789,7 +16792,7 @@
       <c r="A679" s="2"/>
       <c r="B679" s="7"/>
       <c r="C679" s="8"/>
-      <c r="D679" s="16"/>
+      <c r="D679" s="17"/>
       <c r="E679" s="2"/>
       <c r="F679" s="2"/>
       <c r="G679" s="2"/>
@@ -16812,7 +16815,7 @@
       <c r="A680" s="2"/>
       <c r="B680" s="7"/>
       <c r="C680" s="8"/>
-      <c r="D680" s="16"/>
+      <c r="D680" s="17"/>
       <c r="E680" s="2"/>
       <c r="F680" s="2"/>
       <c r="G680" s="2"/>
@@ -16835,7 +16838,7 @@
       <c r="A681" s="2"/>
       <c r="B681" s="7"/>
       <c r="C681" s="8"/>
-      <c r="D681" s="16"/>
+      <c r="D681" s="17"/>
       <c r="E681" s="2"/>
       <c r="F681" s="2"/>
       <c r="G681" s="2"/>
@@ -16858,7 +16861,7 @@
       <c r="A682" s="2"/>
       <c r="B682" s="7"/>
       <c r="C682" s="8"/>
-      <c r="D682" s="16"/>
+      <c r="D682" s="17"/>
       <c r="E682" s="2"/>
       <c r="F682" s="2"/>
       <c r="G682" s="2"/>
@@ -16881,7 +16884,7 @@
       <c r="A683" s="2"/>
       <c r="B683" s="7"/>
       <c r="C683" s="8"/>
-      <c r="D683" s="16"/>
+      <c r="D683" s="17"/>
       <c r="E683" s="2"/>
       <c r="F683" s="2"/>
       <c r="G683" s="2"/>
@@ -16904,7 +16907,7 @@
       <c r="A684" s="2"/>
       <c r="B684" s="7"/>
       <c r="C684" s="8"/>
-      <c r="D684" s="16"/>
+      <c r="D684" s="17"/>
       <c r="E684" s="2"/>
       <c r="F684" s="2"/>
       <c r="G684" s="2"/>
@@ -16927,7 +16930,7 @@
       <c r="A685" s="2"/>
       <c r="B685" s="7"/>
       <c r="C685" s="8"/>
-      <c r="D685" s="16"/>
+      <c r="D685" s="17"/>
       <c r="E685" s="2"/>
       <c r="F685" s="2"/>
       <c r="G685" s="2"/>
@@ -16950,7 +16953,7 @@
       <c r="A686" s="2"/>
       <c r="B686" s="7"/>
       <c r="C686" s="8"/>
-      <c r="D686" s="16"/>
+      <c r="D686" s="17"/>
       <c r="E686" s="2"/>
       <c r="F686" s="2"/>
       <c r="G686" s="2"/>
@@ -16973,7 +16976,7 @@
       <c r="A687" s="2"/>
       <c r="B687" s="7"/>
       <c r="C687" s="8"/>
-      <c r="D687" s="16"/>
+      <c r="D687" s="17"/>
       <c r="E687" s="2"/>
       <c r="F687" s="2"/>
       <c r="G687" s="2"/>
@@ -16996,7 +16999,7 @@
       <c r="A688" s="2"/>
       <c r="B688" s="7"/>
       <c r="C688" s="8"/>
-      <c r="D688" s="16"/>
+      <c r="D688" s="17"/>
       <c r="E688" s="2"/>
       <c r="F688" s="2"/>
       <c r="G688" s="2"/>
@@ -17019,7 +17022,7 @@
       <c r="A689" s="2"/>
       <c r="B689" s="7"/>
       <c r="C689" s="8"/>
-      <c r="D689" s="16"/>
+      <c r="D689" s="17"/>
       <c r="E689" s="2"/>
       <c r="F689" s="2"/>
       <c r="G689" s="2"/>
@@ -17042,7 +17045,7 @@
       <c r="A690" s="2"/>
       <c r="B690" s="7"/>
       <c r="C690" s="8"/>
-      <c r="D690" s="16"/>
+      <c r="D690" s="17"/>
       <c r="E690" s="2"/>
       <c r="F690" s="2"/>
       <c r="G690" s="2"/>
@@ -17065,7 +17068,7 @@
       <c r="A691" s="2"/>
       <c r="B691" s="7"/>
       <c r="C691" s="8"/>
-      <c r="D691" s="16"/>
+      <c r="D691" s="17"/>
       <c r="E691" s="2"/>
       <c r="F691" s="2"/>
       <c r="G691" s="2"/>
@@ -17088,7 +17091,7 @@
       <c r="A692" s="2"/>
       <c r="B692" s="7"/>
       <c r="C692" s="8"/>
-      <c r="D692" s="16"/>
+      <c r="D692" s="17"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
       <c r="G692" s="2"/>
@@ -17111,7 +17114,7 @@
       <c r="A693" s="2"/>
       <c r="B693" s="7"/>
       <c r="C693" s="8"/>
-      <c r="D693" s="16"/>
+      <c r="D693" s="17"/>
       <c r="E693" s="2"/>
       <c r="F693" s="2"/>
       <c r="G693" s="2"/>
@@ -17134,7 +17137,7 @@
       <c r="A694" s="2"/>
       <c r="B694" s="7"/>
       <c r="C694" s="8"/>
-      <c r="D694" s="16"/>
+      <c r="D694" s="17"/>
       <c r="E694" s="2"/>
       <c r="F694" s="2"/>
       <c r="G694" s="2"/>
@@ -17157,7 +17160,7 @@
       <c r="A695" s="2"/>
       <c r="B695" s="7"/>
       <c r="C695" s="8"/>
-      <c r="D695" s="16"/>
+      <c r="D695" s="17"/>
       <c r="E695" s="2"/>
       <c r="F695" s="2"/>
       <c r="G695" s="2"/>
@@ -17180,7 +17183,7 @@
       <c r="A696" s="2"/>
       <c r="B696" s="7"/>
       <c r="C696" s="8"/>
-      <c r="D696" s="16"/>
+      <c r="D696" s="17"/>
       <c r="E696" s="2"/>
       <c r="F696" s="2"/>
       <c r="G696" s="2"/>
@@ -17203,7 +17206,7 @@
       <c r="A697" s="2"/>
       <c r="B697" s="7"/>
       <c r="C697" s="8"/>
-      <c r="D697" s="16"/>
+      <c r="D697" s="17"/>
       <c r="E697" s="2"/>
       <c r="F697" s="2"/>
       <c r="G697" s="2"/>
@@ -17226,7 +17229,7 @@
       <c r="A698" s="2"/>
       <c r="B698" s="7"/>
       <c r="C698" s="8"/>
-      <c r="D698" s="16"/>
+      <c r="D698" s="17"/>
       <c r="E698" s="2"/>
       <c r="F698" s="2"/>
       <c r="G698" s="2"/>
@@ -17249,7 +17252,7 @@
       <c r="A699" s="2"/>
       <c r="B699" s="7"/>
       <c r="C699" s="8"/>
-      <c r="D699" s="16"/>
+      <c r="D699" s="17"/>
       <c r="E699" s="2"/>
       <c r="F699" s="2"/>
       <c r="G699" s="2"/>
@@ -17272,7 +17275,7 @@
       <c r="A700" s="2"/>
       <c r="B700" s="7"/>
       <c r="C700" s="8"/>
-      <c r="D700" s="16"/>
+      <c r="D700" s="17"/>
       <c r="E700" s="2"/>
       <c r="F700" s="2"/>
       <c r="G700" s="2"/>
@@ -17295,7 +17298,7 @@
       <c r="A701" s="2"/>
       <c r="B701" s="7"/>
       <c r="C701" s="8"/>
-      <c r="D701" s="16"/>
+      <c r="D701" s="17"/>
       <c r="E701" s="2"/>
       <c r="F701" s="2"/>
       <c r="G701" s="2"/>
@@ -17318,7 +17321,7 @@
       <c r="A702" s="2"/>
       <c r="B702" s="7"/>
       <c r="C702" s="8"/>
-      <c r="D702" s="16"/>
+      <c r="D702" s="17"/>
       <c r="E702" s="2"/>
       <c r="F702" s="2"/>
       <c r="G702" s="2"/>
@@ -17341,7 +17344,7 @@
       <c r="A703" s="2"/>
       <c r="B703" s="7"/>
       <c r="C703" s="8"/>
-      <c r="D703" s="16"/>
+      <c r="D703" s="17"/>
       <c r="E703" s="2"/>
       <c r="F703" s="2"/>
       <c r="G703" s="2"/>
@@ -17364,7 +17367,7 @@
       <c r="A704" s="2"/>
       <c r="B704" s="7"/>
       <c r="C704" s="8"/>
-      <c r="D704" s="16"/>
+      <c r="D704" s="17"/>
       <c r="E704" s="2"/>
       <c r="F704" s="2"/>
       <c r="G704" s="2"/>
@@ -17387,7 +17390,7 @@
       <c r="A705" s="2"/>
       <c r="B705" s="7"/>
       <c r="C705" s="8"/>
-      <c r="D705" s="16"/>
+      <c r="D705" s="17"/>
       <c r="E705" s="2"/>
       <c r="F705" s="2"/>
       <c r="G705" s="2"/>
@@ -17410,7 +17413,7 @@
       <c r="A706" s="2"/>
       <c r="B706" s="7"/>
       <c r="C706" s="8"/>
-      <c r="D706" s="16"/>
+      <c r="D706" s="17"/>
       <c r="E706" s="2"/>
       <c r="F706" s="2"/>
       <c r="G706" s="2"/>
@@ -17433,7 +17436,7 @@
       <c r="A707" s="2"/>
       <c r="B707" s="7"/>
       <c r="C707" s="8"/>
-      <c r="D707" s="16"/>
+      <c r="D707" s="17"/>
       <c r="E707" s="2"/>
       <c r="F707" s="2"/>
       <c r="G707" s="2"/>
@@ -17456,7 +17459,7 @@
       <c r="A708" s="2"/>
       <c r="B708" s="7"/>
       <c r="C708" s="8"/>
-      <c r="D708" s="16"/>
+      <c r="D708" s="17"/>
       <c r="E708" s="2"/>
       <c r="F708" s="2"/>
       <c r="G708" s="2"/>
@@ -17479,7 +17482,7 @@
       <c r="A709" s="2"/>
       <c r="B709" s="7"/>
       <c r="C709" s="8"/>
-      <c r="D709" s="16"/>
+      <c r="D709" s="17"/>
       <c r="E709" s="2"/>
       <c r="F709" s="2"/>
       <c r="G709" s="2"/>
@@ -17502,7 +17505,7 @@
       <c r="A710" s="2"/>
       <c r="B710" s="7"/>
       <c r="C710" s="8"/>
-      <c r="D710" s="16"/>
+      <c r="D710" s="17"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
       <c r="G710" s="2"/>
@@ -17525,7 +17528,7 @@
       <c r="A711" s="2"/>
       <c r="B711" s="7"/>
       <c r="C711" s="8"/>
-      <c r="D711" s="16"/>
+      <c r="D711" s="17"/>
       <c r="E711" s="2"/>
       <c r="F711" s="2"/>
       <c r="G711" s="2"/>
@@ -17548,7 +17551,7 @@
       <c r="A712" s="2"/>
       <c r="B712" s="7"/>
       <c r="C712" s="8"/>
-      <c r="D712" s="16"/>
+      <c r="D712" s="17"/>
       <c r="E712" s="2"/>
       <c r="F712" s="2"/>
       <c r="G712" s="2"/>
@@ -17571,7 +17574,7 @@
       <c r="A713" s="2"/>
       <c r="B713" s="7"/>
       <c r="C713" s="8"/>
-      <c r="D713" s="16"/>
+      <c r="D713" s="17"/>
       <c r="E713" s="2"/>
       <c r="F713" s="2"/>
       <c r="G713" s="2"/>
@@ -17594,7 +17597,7 @@
       <c r="A714" s="2"/>
       <c r="B714" s="7"/>
       <c r="C714" s="8"/>
-      <c r="D714" s="16"/>
+      <c r="D714" s="17"/>
       <c r="E714" s="2"/>
       <c r="F714" s="2"/>
       <c r="G714" s="2"/>
@@ -17617,7 +17620,7 @@
       <c r="A715" s="2"/>
       <c r="B715" s="7"/>
       <c r="C715" s="8"/>
-      <c r="D715" s="16"/>
+      <c r="D715" s="17"/>
       <c r="E715" s="2"/>
       <c r="F715" s="2"/>
       <c r="G715" s="2"/>
@@ -17640,7 +17643,7 @@
       <c r="A716" s="2"/>
       <c r="B716" s="7"/>
       <c r="C716" s="8"/>
-      <c r="D716" s="16"/>
+      <c r="D716" s="17"/>
       <c r="E716" s="2"/>
       <c r="F716" s="2"/>
       <c r="G716" s="2"/>
@@ -17663,7 +17666,7 @@
       <c r="A717" s="2"/>
       <c r="B717" s="7"/>
       <c r="C717" s="8"/>
-      <c r="D717" s="16"/>
+      <c r="D717" s="17"/>
       <c r="E717" s="2"/>
       <c r="F717" s="2"/>
       <c r="G717" s="2"/>
@@ -17686,7 +17689,7 @@
       <c r="A718" s="2"/>
       <c r="B718" s="7"/>
       <c r="C718" s="8"/>
-      <c r="D718" s="16"/>
+      <c r="D718" s="17"/>
       <c r="E718" s="2"/>
       <c r="F718" s="2"/>
       <c r="G718" s="2"/>
@@ -17709,7 +17712,7 @@
       <c r="A719" s="2"/>
       <c r="B719" s="7"/>
       <c r="C719" s="8"/>
-      <c r="D719" s="16"/>
+      <c r="D719" s="17"/>
       <c r="E719" s="2"/>
       <c r="F719" s="2"/>
       <c r="G719" s="2"/>
@@ -17732,7 +17735,7 @@
       <c r="A720" s="2"/>
       <c r="B720" s="7"/>
       <c r="C720" s="8"/>
-      <c r="D720" s="16"/>
+      <c r="D720" s="17"/>
       <c r="E720" s="2"/>
       <c r="F720" s="2"/>
       <c r="G720" s="2"/>
@@ -17755,7 +17758,7 @@
       <c r="A721" s="2"/>
       <c r="B721" s="7"/>
       <c r="C721" s="8"/>
-      <c r="D721" s="16"/>
+      <c r="D721" s="17"/>
       <c r="E721" s="2"/>
       <c r="F721" s="2"/>
       <c r="G721" s="2"/>
@@ -17778,7 +17781,7 @@
       <c r="A722" s="2"/>
       <c r="B722" s="7"/>
       <c r="C722" s="8"/>
-      <c r="D722" s="16"/>
+      <c r="D722" s="17"/>
       <c r="E722" s="2"/>
       <c r="F722" s="2"/>
       <c r="G722" s="2"/>
@@ -17801,7 +17804,7 @@
       <c r="A723" s="2"/>
       <c r="B723" s="7"/>
       <c r="C723" s="8"/>
-      <c r="D723" s="16"/>
+      <c r="D723" s="17"/>
       <c r="E723" s="2"/>
       <c r="F723" s="2"/>
       <c r="G723" s="2"/>
@@ -17824,7 +17827,7 @@
       <c r="A724" s="2"/>
       <c r="B724" s="7"/>
       <c r="C724" s="8"/>
-      <c r="D724" s="16"/>
+      <c r="D724" s="17"/>
       <c r="E724" s="2"/>
       <c r="F724" s="2"/>
       <c r="G724" s="2"/>
@@ -17847,7 +17850,7 @@
       <c r="A725" s="2"/>
       <c r="B725" s="7"/>
       <c r="C725" s="8"/>
-      <c r="D725" s="16"/>
+      <c r="D725" s="17"/>
       <c r="E725" s="2"/>
       <c r="F725" s="2"/>
       <c r="G725" s="2"/>
@@ -17870,7 +17873,7 @@
       <c r="A726" s="2"/>
       <c r="B726" s="7"/>
       <c r="C726" s="8"/>
-      <c r="D726" s="16"/>
+      <c r="D726" s="17"/>
       <c r="E726" s="2"/>
       <c r="F726" s="2"/>
       <c r="G726" s="2"/>
@@ -17893,7 +17896,7 @@
       <c r="A727" s="2"/>
       <c r="B727" s="7"/>
       <c r="C727" s="8"/>
-      <c r="D727" s="16"/>
+      <c r="D727" s="17"/>
       <c r="E727" s="2"/>
       <c r="F727" s="2"/>
       <c r="G727" s="2"/>
@@ -17916,7 +17919,7 @@
       <c r="A728" s="2"/>
       <c r="B728" s="7"/>
       <c r="C728" s="8"/>
-      <c r="D728" s="16"/>
+      <c r="D728" s="17"/>
       <c r="E728" s="2"/>
       <c r="F728" s="2"/>
       <c r="G728" s="2"/>
@@ -17939,7 +17942,7 @@
       <c r="A729" s="2"/>
       <c r="B729" s="7"/>
       <c r="C729" s="8"/>
-      <c r="D729" s="16"/>
+      <c r="D729" s="17"/>
       <c r="E729" s="2"/>
       <c r="F729" s="2"/>
       <c r="G729" s="2"/>
@@ -17962,7 +17965,7 @@
       <c r="A730" s="2"/>
       <c r="B730" s="7"/>
       <c r="C730" s="8"/>
-      <c r="D730" s="16"/>
+      <c r="D730" s="17"/>
       <c r="E730" s="2"/>
       <c r="F730" s="2"/>
       <c r="G730" s="2"/>
@@ -17985,7 +17988,7 @@
       <c r="A731" s="2"/>
       <c r="B731" s="7"/>
       <c r="C731" s="8"/>
-      <c r="D731" s="16"/>
+      <c r="D731" s="17"/>
       <c r="E731" s="2"/>
       <c r="F731" s="2"/>
       <c r="G731" s="2"/>
@@ -18008,7 +18011,7 @@
       <c r="A732" s="2"/>
       <c r="B732" s="7"/>
       <c r="C732" s="8"/>
-      <c r="D732" s="16"/>
+      <c r="D732" s="17"/>
       <c r="E732" s="2"/>
       <c r="F732" s="2"/>
       <c r="G732" s="2"/>
@@ -18031,7 +18034,7 @@
       <c r="A733" s="2"/>
       <c r="B733" s="7"/>
       <c r="C733" s="8"/>
-      <c r="D733" s="16"/>
+      <c r="D733" s="17"/>
       <c r="E733" s="2"/>
       <c r="F733" s="2"/>
       <c r="G733" s="2"/>
@@ -18054,7 +18057,7 @@
       <c r="A734" s="2"/>
       <c r="B734" s="7"/>
       <c r="C734" s="8"/>
-      <c r="D734" s="16"/>
+      <c r="D734" s="17"/>
       <c r="E734" s="2"/>
       <c r="F734" s="2"/>
       <c r="G734" s="2"/>
@@ -18077,7 +18080,7 @@
       <c r="A735" s="2"/>
       <c r="B735" s="7"/>
       <c r="C735" s="8"/>
-      <c r="D735" s="16"/>
+      <c r="D735" s="17"/>
       <c r="E735" s="2"/>
       <c r="F735" s="2"/>
       <c r="G735" s="2"/>
@@ -18100,7 +18103,7 @@
       <c r="A736" s="2"/>
       <c r="B736" s="7"/>
       <c r="C736" s="8"/>
-      <c r="D736" s="16"/>
+      <c r="D736" s="17"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
       <c r="G736" s="2"/>
@@ -18123,7 +18126,7 @@
       <c r="A737" s="2"/>
       <c r="B737" s="7"/>
       <c r="C737" s="8"/>
-      <c r="D737" s="16"/>
+      <c r="D737" s="17"/>
       <c r="E737" s="2"/>
       <c r="F737" s="2"/>
       <c r="G737" s="2"/>
@@ -18146,7 +18149,7 @@
       <c r="A738" s="2"/>
       <c r="B738" s="7"/>
       <c r="C738" s="8"/>
-      <c r="D738" s="16"/>
+      <c r="D738" s="17"/>
       <c r="E738" s="2"/>
       <c r="F738" s="2"/>
       <c r="G738" s="2"/>
@@ -18169,7 +18172,7 @@
       <c r="A739" s="2"/>
       <c r="B739" s="7"/>
       <c r="C739" s="8"/>
-      <c r="D739" s="16"/>
+      <c r="D739" s="17"/>
       <c r="E739" s="2"/>
       <c r="F739" s="2"/>
       <c r="G739" s="2"/>
@@ -18192,7 +18195,7 @@
       <c r="A740" s="2"/>
       <c r="B740" s="7"/>
       <c r="C740" s="8"/>
-      <c r="D740" s="16"/>
+      <c r="D740" s="17"/>
       <c r="E740" s="2"/>
       <c r="F740" s="2"/>
       <c r="G740" s="2"/>
@@ -18215,7 +18218,7 @@
       <c r="A741" s="2"/>
       <c r="B741" s="7"/>
       <c r="C741" s="8"/>
-      <c r="D741" s="16"/>
+      <c r="D741" s="17"/>
       <c r="E741" s="2"/>
       <c r="F741" s="2"/>
       <c r="G741" s="2"/>
@@ -18238,7 +18241,7 @@
       <c r="A742" s="2"/>
       <c r="B742" s="7"/>
       <c r="C742" s="8"/>
-      <c r="D742" s="16"/>
+      <c r="D742" s="17"/>
       <c r="E742" s="2"/>
       <c r="F742" s="2"/>
       <c r="G742" s="2"/>
@@ -18261,7 +18264,7 @@
       <c r="A743" s="2"/>
       <c r="B743" s="7"/>
       <c r="C743" s="8"/>
-      <c r="D743" s="16"/>
+      <c r="D743" s="17"/>
       <c r="E743" s="2"/>
       <c r="F743" s="2"/>
       <c r="G743" s="2"/>
@@ -18284,7 +18287,7 @@
       <c r="A744" s="2"/>
       <c r="B744" s="7"/>
       <c r="C744" s="8"/>
-      <c r="D744" s="16"/>
+      <c r="D744" s="17"/>
       <c r="E744" s="2"/>
       <c r="F744" s="2"/>
       <c r="G744" s="2"/>
@@ -18307,7 +18310,7 @@
       <c r="A745" s="2"/>
       <c r="B745" s="7"/>
       <c r="C745" s="8"/>
-      <c r="D745" s="16"/>
+      <c r="D745" s="17"/>
       <c r="E745" s="2"/>
       <c r="F745" s="2"/>
       <c r="G745" s="2"/>
@@ -18330,7 +18333,7 @@
       <c r="A746" s="2"/>
       <c r="B746" s="7"/>
       <c r="C746" s="8"/>
-      <c r="D746" s="16"/>
+      <c r="D746" s="17"/>
       <c r="E746" s="2"/>
       <c r="F746" s="2"/>
       <c r="G746" s="2"/>
@@ -18353,7 +18356,7 @@
       <c r="A747" s="2"/>
       <c r="B747" s="7"/>
       <c r="C747" s="8"/>
-      <c r="D747" s="16"/>
+      <c r="D747" s="17"/>
       <c r="E747" s="2"/>
       <c r="F747" s="2"/>
       <c r="G747" s="2"/>
@@ -18376,7 +18379,7 @@
       <c r="A748" s="2"/>
       <c r="B748" s="7"/>
       <c r="C748" s="8"/>
-      <c r="D748" s="16"/>
+      <c r="D748" s="17"/>
       <c r="E748" s="2"/>
       <c r="F748" s="2"/>
       <c r="G748" s="2"/>
@@ -18399,7 +18402,7 @@
       <c r="A749" s="2"/>
       <c r="B749" s="7"/>
       <c r="C749" s="8"/>
-      <c r="D749" s="16"/>
+      <c r="D749" s="17"/>
       <c r="E749" s="2"/>
       <c r="F749" s="2"/>
       <c r="G749" s="2"/>
@@ -18422,7 +18425,7 @@
       <c r="A750" s="2"/>
       <c r="B750" s="7"/>
       <c r="C750" s="8"/>
-      <c r="D750" s="16"/>
+      <c r="D750" s="17"/>
       <c r="E750" s="2"/>
       <c r="F750" s="2"/>
       <c r="G750" s="2"/>
@@ -18445,7 +18448,7 @@
       <c r="A751" s="2"/>
       <c r="B751" s="7"/>
       <c r="C751" s="8"/>
-      <c r="D751" s="16"/>
+      <c r="D751" s="17"/>
       <c r="E751" s="2"/>
       <c r="F751" s="2"/>
       <c r="G751" s="2"/>
@@ -18468,7 +18471,7 @@
       <c r="A752" s="2"/>
       <c r="B752" s="7"/>
       <c r="C752" s="8"/>
-      <c r="D752" s="16"/>
+      <c r="D752" s="17"/>
       <c r="E752" s="2"/>
       <c r="F752" s="2"/>
       <c r="G752" s="2"/>
@@ -18491,7 +18494,7 @@
       <c r="A753" s="2"/>
       <c r="B753" s="7"/>
       <c r="C753" s="8"/>
-      <c r="D753" s="16"/>
+      <c r="D753" s="17"/>
       <c r="E753" s="2"/>
       <c r="F753" s="2"/>
       <c r="G753" s="2"/>
@@ -18514,7 +18517,7 @@
       <c r="A754" s="2"/>
       <c r="B754" s="7"/>
       <c r="C754" s="8"/>
-      <c r="D754" s="16"/>
+      <c r="D754" s="17"/>
       <c r="E754" s="2"/>
       <c r="F754" s="2"/>
       <c r="G754" s="2"/>
@@ -18537,7 +18540,7 @@
       <c r="A755" s="2"/>
       <c r="B755" s="7"/>
       <c r="C755" s="8"/>
-      <c r="D755" s="16"/>
+      <c r="D755" s="17"/>
       <c r="E755" s="2"/>
       <c r="F755" s="2"/>
       <c r="G755" s="2"/>
@@ -18560,7 +18563,7 @@
       <c r="A756" s="2"/>
       <c r="B756" s="7"/>
       <c r="C756" s="8"/>
-      <c r="D756" s="16"/>
+      <c r="D756" s="17"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
       <c r="G756" s="2"/>
@@ -18583,7 +18586,7 @@
       <c r="A757" s="2"/>
       <c r="B757" s="7"/>
       <c r="C757" s="8"/>
-      <c r="D757" s="16"/>
+      <c r="D757" s="17"/>
       <c r="E757" s="2"/>
       <c r="F757" s="2"/>
       <c r="G757" s="2"/>
@@ -18606,7 +18609,7 @@
       <c r="A758" s="2"/>
       <c r="B758" s="7"/>
       <c r="C758" s="8"/>
-      <c r="D758" s="16"/>
+      <c r="D758" s="17"/>
       <c r="E758" s="2"/>
       <c r="F758" s="2"/>
       <c r="G758" s="2"/>
@@ -18629,7 +18632,7 @@
       <c r="A759" s="2"/>
       <c r="B759" s="7"/>
       <c r="C759" s="8"/>
-      <c r="D759" s="16"/>
+      <c r="D759" s="17"/>
       <c r="E759" s="2"/>
       <c r="F759" s="2"/>
       <c r="G759" s="2"/>
@@ -18652,7 +18655,7 @@
       <c r="A760" s="2"/>
       <c r="B760" s="7"/>
       <c r="C760" s="8"/>
-      <c r="D760" s="16"/>
+      <c r="D760" s="17"/>
       <c r="E760" s="2"/>
       <c r="F760" s="2"/>
       <c r="G760" s="2"/>
@@ -18675,7 +18678,7 @@
       <c r="A761" s="2"/>
       <c r="B761" s="7"/>
       <c r="C761" s="8"/>
-      <c r="D761" s="16"/>
+      <c r="D761" s="17"/>
       <c r="E761" s="2"/>
       <c r="F761" s="2"/>
       <c r="G761" s="2"/>
@@ -18698,7 +18701,7 @@
       <c r="A762" s="2"/>
       <c r="B762" s="7"/>
       <c r="C762" s="8"/>
-      <c r="D762" s="16"/>
+      <c r="D762" s="17"/>
       <c r="E762" s="2"/>
       <c r="F762" s="2"/>
       <c r="G762" s="2"/>
@@ -18721,7 +18724,7 @@
       <c r="A763" s="2"/>
       <c r="B763" s="7"/>
       <c r="C763" s="8"/>
-      <c r="D763" s="16"/>
+      <c r="D763" s="17"/>
       <c r="E763" s="2"/>
       <c r="F763" s="2"/>
       <c r="G763" s="2"/>
@@ -18744,7 +18747,7 @@
       <c r="A764" s="2"/>
       <c r="B764" s="7"/>
       <c r="C764" s="8"/>
-      <c r="D764" s="16"/>
+      <c r="D764" s="17"/>
       <c r="E764" s="2"/>
       <c r="F764" s="2"/>
       <c r="G764" s="2"/>
@@ -18767,7 +18770,7 @@
       <c r="A765" s="2"/>
       <c r="B765" s="7"/>
       <c r="C765" s="8"/>
-      <c r="D765" s="16"/>
+      <c r="D765" s="17"/>
       <c r="E765" s="2"/>
       <c r="F765" s="2"/>
       <c r="G765" s="2"/>
@@ -18790,7 +18793,7 @@
       <c r="A766" s="2"/>
       <c r="B766" s="7"/>
       <c r="C766" s="8"/>
-      <c r="D766" s="16"/>
+      <c r="D766" s="17"/>
       <c r="E766" s="2"/>
       <c r="F766" s="2"/>
       <c r="G766" s="2"/>
@@ -18813,7 +18816,7 @@
       <c r="A767" s="2"/>
       <c r="B767" s="7"/>
       <c r="C767" s="8"/>
-      <c r="D767" s="16"/>
+      <c r="D767" s="17"/>
       <c r="E767" s="2"/>
       <c r="F767" s="2"/>
       <c r="G767" s="2"/>
@@ -18836,7 +18839,7 @@
       <c r="A768" s="2"/>
       <c r="B768" s="7"/>
       <c r="C768" s="8"/>
-      <c r="D768" s="16"/>
+      <c r="D768" s="17"/>
       <c r="E768" s="2"/>
       <c r="F768" s="2"/>
       <c r="G768" s="2"/>
@@ -18859,7 +18862,7 @@
       <c r="A769" s="2"/>
       <c r="B769" s="7"/>
       <c r="C769" s="8"/>
-      <c r="D769" s="16"/>
+      <c r="D769" s="17"/>
       <c r="E769" s="2"/>
       <c r="F769" s="2"/>
       <c r="G769" s="2"/>
@@ -18882,7 +18885,7 @@
       <c r="A770" s="2"/>
       <c r="B770" s="7"/>
       <c r="C770" s="8"/>
-      <c r="D770" s="16"/>
+      <c r="D770" s="17"/>
       <c r="E770" s="2"/>
       <c r="F770" s="2"/>
       <c r="G770" s="2"/>
@@ -18905,7 +18908,7 @@
       <c r="A771" s="2"/>
       <c r="B771" s="7"/>
       <c r="C771" s="8"/>
-      <c r="D771" s="16"/>
+      <c r="D771" s="17"/>
       <c r="E771" s="2"/>
       <c r="F771" s="2"/>
       <c r="G771" s="2"/>
@@ -18928,7 +18931,7 @@
       <c r="A772" s="2"/>
       <c r="B772" s="7"/>
       <c r="C772" s="8"/>
-      <c r="D772" s="16"/>
+      <c r="D772" s="17"/>
       <c r="E772" s="2"/>
       <c r="F772" s="2"/>
       <c r="G772" s="2"/>
@@ -18951,7 +18954,7 @@
       <c r="A773" s="2"/>
       <c r="B773" s="7"/>
       <c r="C773" s="8"/>
-      <c r="D773" s="16"/>
+      <c r="D773" s="17"/>
       <c r="E773" s="2"/>
       <c r="F773" s="2"/>
       <c r="G773" s="2"/>
@@ -18974,7 +18977,7 @@
       <c r="A774" s="2"/>
       <c r="B774" s="7"/>
       <c r="C774" s="8"/>
-      <c r="D774" s="16"/>
+      <c r="D774" s="17"/>
       <c r="E774" s="2"/>
       <c r="F774" s="2"/>
       <c r="G774" s="2"/>
@@ -18997,7 +19000,7 @@
       <c r="A775" s="2"/>
       <c r="B775" s="7"/>
       <c r="C775" s="8"/>
-      <c r="D775" s="16"/>
+      <c r="D775" s="17"/>
       <c r="E775" s="2"/>
       <c r="F775" s="2"/>
       <c r="G775" s="2"/>
@@ -19020,7 +19023,7 @@
       <c r="A776" s="2"/>
       <c r="B776" s="7"/>
       <c r="C776" s="8"/>
-      <c r="D776" s="16"/>
+      <c r="D776" s="17"/>
       <c r="E776" s="2"/>
       <c r="F776" s="2"/>
       <c r="G776" s="2"/>
@@ -19043,7 +19046,7 @@
       <c r="A777" s="2"/>
       <c r="B777" s="7"/>
       <c r="C777" s="8"/>
-      <c r="D777" s="16"/>
+      <c r="D777" s="17"/>
       <c r="E777" s="2"/>
       <c r="F777" s="2"/>
       <c r="G777" s="2"/>
@@ -19066,7 +19069,7 @@
       <c r="A778" s="2"/>
       <c r="B778" s="7"/>
       <c r="C778" s="8"/>
-      <c r="D778" s="16"/>
+      <c r="D778" s="17"/>
       <c r="E778" s="2"/>
       <c r="F778" s="2"/>
       <c r="G778" s="2"/>
@@ -19089,7 +19092,7 @@
       <c r="A779" s="2"/>
       <c r="B779" s="7"/>
       <c r="C779" s="8"/>
-      <c r="D779" s="16"/>
+      <c r="D779" s="17"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
       <c r="G779" s="2"/>
@@ -19112,7 +19115,7 @@
       <c r="A780" s="2"/>
       <c r="B780" s="7"/>
       <c r="C780" s="8"/>
-      <c r="D780" s="16"/>
+      <c r="D780" s="17"/>
       <c r="E780" s="2"/>
       <c r="F780" s="2"/>
       <c r="G780" s="2"/>
@@ -19135,7 +19138,7 @@
       <c r="A781" s="2"/>
       <c r="B781" s="7"/>
       <c r="C781" s="8"/>
-      <c r="D781" s="16"/>
+      <c r="D781" s="17"/>
       <c r="E781" s="2"/>
       <c r="F781" s="2"/>
       <c r="G781" s="2"/>
@@ -19158,7 +19161,7 @@
       <c r="A782" s="2"/>
       <c r="B782" s="7"/>
       <c r="C782" s="8"/>
-      <c r="D782" s="16"/>
+      <c r="D782" s="17"/>
       <c r="E782" s="2"/>
       <c r="F782" s="2"/>
       <c r="G782" s="2"/>
@@ -19181,7 +19184,7 @@
       <c r="A783" s="2"/>
       <c r="B783" s="7"/>
       <c r="C783" s="8"/>
-      <c r="D783" s="16"/>
+      <c r="D783" s="17"/>
       <c r="E783" s="2"/>
       <c r="F783" s="2"/>
       <c r="G783" s="2"/>
@@ -19204,7 +19207,7 @@
       <c r="A784" s="2"/>
       <c r="B784" s="7"/>
       <c r="C784" s="8"/>
-      <c r="D784" s="16"/>
+      <c r="D784" s="17"/>
       <c r="E784" s="2"/>
       <c r="F784" s="2"/>
       <c r="G784" s="2"/>
@@ -19227,7 +19230,7 @@
       <c r="A785" s="2"/>
       <c r="B785" s="7"/>
       <c r="C785" s="8"/>
-      <c r="D785" s="16"/>
+      <c r="D785" s="17"/>
       <c r="E785" s="2"/>
       <c r="F785" s="2"/>
       <c r="G785" s="2"/>
@@ -19250,7 +19253,7 @@
       <c r="A786" s="2"/>
       <c r="B786" s="7"/>
       <c r="C786" s="8"/>
-      <c r="D786" s="16"/>
+      <c r="D786" s="17"/>
       <c r="E786" s="2"/>
       <c r="F786" s="2"/>
       <c r="G786" s="2"/>
@@ -19273,7 +19276,7 @@
       <c r="A787" s="2"/>
       <c r="B787" s="7"/>
       <c r="C787" s="8"/>
-      <c r="D787" s="16"/>
+      <c r="D787" s="17"/>
       <c r="E787" s="2"/>
       <c r="F787" s="2"/>
       <c r="G787" s="2"/>
@@ -19296,7 +19299,7 @@
       <c r="A788" s="2"/>
       <c r="B788" s="7"/>
       <c r="C788" s="8"/>
-      <c r="D788" s="16"/>
+      <c r="D788" s="17"/>
       <c r="E788" s="2"/>
       <c r="F788" s="2"/>
       <c r="G788" s="2"/>
@@ -19319,7 +19322,7 @@
       <c r="A789" s="2"/>
       <c r="B789" s="7"/>
       <c r="C789" s="8"/>
-      <c r="D789" s="16"/>
+      <c r="D789" s="17"/>
       <c r="E789" s="2"/>
       <c r="F789" s="2"/>
       <c r="G789" s="2"/>
@@ -19342,7 +19345,7 @@
       <c r="A790" s="2"/>
       <c r="B790" s="7"/>
       <c r="C790" s="8"/>
-      <c r="D790" s="16"/>
+      <c r="D790" s="17"/>
       <c r="E790" s="2"/>
       <c r="F790" s="2"/>
       <c r="G790" s="2"/>
@@ -19365,7 +19368,7 @@
       <c r="A791" s="2"/>
       <c r="B791" s="7"/>
       <c r="C791" s="8"/>
-      <c r="D791" s="16"/>
+      <c r="D791" s="17"/>
       <c r="E791" s="2"/>
       <c r="F791" s="2"/>
       <c r="G791" s="2"/>
@@ -19388,7 +19391,7 @@
       <c r="A792" s="2"/>
       <c r="B792" s="7"/>
       <c r="C792" s="8"/>
-      <c r="D792" s="16"/>
+      <c r="D792" s="17"/>
       <c r="E792" s="2"/>
       <c r="F792" s="2"/>
       <c r="G792" s="2"/>
@@ -19411,7 +19414,7 @@
       <c r="A793" s="2"/>
       <c r="B793" s="7"/>
       <c r="C793" s="8"/>
-      <c r="D793" s="16"/>
+      <c r="D793" s="17"/>
       <c r="E793" s="2"/>
       <c r="F793" s="2"/>
       <c r="G793" s="2"/>
@@ -19434,7 +19437,7 @@
       <c r="A794" s="2"/>
       <c r="B794" s="7"/>
       <c r="C794" s="8"/>
-      <c r="D794" s="16"/>
+      <c r="D794" s="17"/>
       <c r="E794" s="2"/>
       <c r="F794" s="2"/>
       <c r="G794" s="2"/>
@@ -19457,7 +19460,7 @@
       <c r="A795" s="2"/>
       <c r="B795" s="7"/>
       <c r="C795" s="8"/>
-      <c r="D795" s="16"/>
+      <c r="D795" s="17"/>
       <c r="E795" s="2"/>
       <c r="F795" s="2"/>
       <c r="G795" s="2"/>
@@ -19480,7 +19483,7 @@
       <c r="A796" s="2"/>
       <c r="B796" s="7"/>
       <c r="C796" s="8"/>
-      <c r="D796" s="16"/>
+      <c r="D796" s="17"/>
       <c r="E796" s="2"/>
       <c r="F796" s="2"/>
       <c r="G796" s="2"/>
@@ -19503,7 +19506,7 @@
       <c r="A797" s="2"/>
       <c r="B797" s="7"/>
       <c r="C797" s="8"/>
-      <c r="D797" s="16"/>
+      <c r="D797" s="17"/>
       <c r="E797" s="2"/>
       <c r="F797" s="2"/>
       <c r="G797" s="2"/>
@@ -19526,7 +19529,7 @@
       <c r="A798" s="2"/>
       <c r="B798" s="7"/>
       <c r="C798" s="8"/>
-      <c r="D798" s="16"/>
+      <c r="D798" s="17"/>
       <c r="E798" s="2"/>
       <c r="F798" s="2"/>
       <c r="G798" s="2"/>
@@ -19549,7 +19552,7 @@
       <c r="A799" s="2"/>
       <c r="B799" s="7"/>
       <c r="C799" s="8"/>
-      <c r="D799" s="16"/>
+      <c r="D799" s="17"/>
       <c r="E799" s="2"/>
       <c r="F799" s="2"/>
       <c r="G799" s="2"/>
@@ -19572,7 +19575,7 @@
       <c r="A800" s="2"/>
       <c r="B800" s="7"/>
       <c r="C800" s="8"/>
-      <c r="D800" s="16"/>
+      <c r="D800" s="17"/>
       <c r="E800" s="2"/>
       <c r="F800" s="2"/>
       <c r="G800" s="2"/>
@@ -19595,7 +19598,7 @@
       <c r="A801" s="2"/>
       <c r="B801" s="7"/>
       <c r="C801" s="8"/>
-      <c r="D801" s="16"/>
+      <c r="D801" s="17"/>
       <c r="E801" s="2"/>
       <c r="F801" s="2"/>
       <c r="G801" s="2"/>
@@ -19618,7 +19621,7 @@
       <c r="A802" s="2"/>
       <c r="B802" s="7"/>
       <c r="C802" s="8"/>
-      <c r="D802" s="16"/>
+      <c r="D802" s="17"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
       <c r="G802" s="2"/>
@@ -19641,7 +19644,7 @@
       <c r="A803" s="2"/>
       <c r="B803" s="7"/>
       <c r="C803" s="8"/>
-      <c r="D803" s="16"/>
+      <c r="D803" s="17"/>
       <c r="E803" s="2"/>
       <c r="F803" s="2"/>
       <c r="G803" s="2"/>
@@ -19664,7 +19667,7 @@
       <c r="A804" s="2"/>
       <c r="B804" s="7"/>
       <c r="C804" s="2"/>
-      <c r="D804" s="16"/>
+      <c r="D804" s="17"/>
       <c r="E804" s="2"/>
       <c r="F804" s="2"/>
       <c r="G804" s="2"/>
@@ -19687,7 +19690,7 @@
       <c r="A805" s="2"/>
       <c r="B805" s="7"/>
       <c r="C805" s="2"/>
-      <c r="D805" s="16"/>
+      <c r="D805" s="17"/>
       <c r="E805" s="2"/>
       <c r="F805" s="2"/>
       <c r="G805" s="2"/>
@@ -19710,7 +19713,7 @@
       <c r="A806" s="2"/>
       <c r="B806" s="7"/>
       <c r="C806" s="2"/>
-      <c r="D806" s="16"/>
+      <c r="D806" s="17"/>
       <c r="E806" s="2"/>
       <c r="F806" s="2"/>
       <c r="G806" s="2"/>
@@ -19733,7 +19736,7 @@
       <c r="A807" s="2"/>
       <c r="B807" s="7"/>
       <c r="C807" s="2"/>
-      <c r="D807" s="16"/>
+      <c r="D807" s="17"/>
       <c r="E807" s="2"/>
       <c r="F807" s="2"/>
       <c r="G807" s="2"/>
@@ -19756,7 +19759,7 @@
       <c r="A808" s="2"/>
       <c r="B808" s="7"/>
       <c r="C808" s="2"/>
-      <c r="D808" s="16"/>
+      <c r="D808" s="17"/>
       <c r="E808" s="2"/>
       <c r="F808" s="2"/>
       <c r="G808" s="2"/>
@@ -19779,7 +19782,7 @@
       <c r="A809" s="2"/>
       <c r="B809" s="7"/>
       <c r="C809" s="2"/>
-      <c r="D809" s="16"/>
+      <c r="D809" s="17"/>
       <c r="E809" s="2"/>
       <c r="F809" s="2"/>
       <c r="G809" s="2"/>
@@ -19802,7 +19805,7 @@
       <c r="A810" s="2"/>
       <c r="B810" s="7"/>
       <c r="C810" s="2"/>
-      <c r="D810" s="16"/>
+      <c r="D810" s="17"/>
       <c r="E810" s="2"/>
       <c r="F810" s="2"/>
       <c r="G810" s="2"/>
@@ -19825,7 +19828,7 @@
       <c r="A811" s="2"/>
       <c r="B811" s="7"/>
       <c r="C811" s="2"/>
-      <c r="D811" s="16"/>
+      <c r="D811" s="17"/>
       <c r="E811" s="2"/>
       <c r="F811" s="2"/>
       <c r="G811" s="2"/>
@@ -19848,7 +19851,7 @@
       <c r="A812" s="2"/>
       <c r="B812" s="7"/>
       <c r="C812" s="2"/>
-      <c r="D812" s="16"/>
+      <c r="D812" s="17"/>
       <c r="E812" s="2"/>
       <c r="F812" s="2"/>
       <c r="G812" s="2"/>
@@ -19871,7 +19874,7 @@
       <c r="A813" s="2"/>
       <c r="B813" s="7"/>
       <c r="C813" s="2"/>
-      <c r="D813" s="16"/>
+      <c r="D813" s="17"/>
       <c r="E813" s="2"/>
       <c r="F813" s="2"/>
       <c r="G813" s="2"/>
@@ -19894,7 +19897,7 @@
       <c r="A814" s="2"/>
       <c r="B814" s="7"/>
       <c r="C814" s="2"/>
-      <c r="D814" s="16"/>
+      <c r="D814" s="17"/>
       <c r="E814" s="2"/>
       <c r="F814" s="2"/>
       <c r="G814" s="2"/>
